--- a/Formatted.Data/Revisions/BACI.trait.data.xlsx
+++ b/Formatted.Data/Revisions/BACI.trait.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaworthy/Documents/GitHub/IDE.Traits/Formatted.Data/Revisions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA8E042-974B-A546-B07A-F4D460CCB1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAA285C-E75A-2246-8B19-36A53162ADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="500" windowWidth="22160" windowHeight="16480" xr2:uid="{5461C9A6-0362-A04A-A64C-9E75594B3F4F}"/>
+    <workbookView xWindow="17360" yWindow="500" windowWidth="21340" windowHeight="16480" xr2:uid="{5461C9A6-0362-A04A-A64C-9E75594B3F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="BACI.trait.data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="1167">
   <si>
     <t>site_code</t>
   </si>
@@ -3411,6 +3411,129 @@
   </si>
   <si>
     <t>height, SLA, RTD, SRL from TRY</t>
+  </si>
+  <si>
+    <t>RTD, SRL, diam from Justin</t>
+  </si>
+  <si>
+    <t>SLA from Wessel 2022</t>
+  </si>
+  <si>
+    <t>SLA from Wessell 2022</t>
+  </si>
+  <si>
+    <t>diam from Ramana 2022</t>
+  </si>
+  <si>
+    <t>diam, SRL fine, RMF fine from Weemstra 2021</t>
+  </si>
+  <si>
+    <t>RTD fine Weemstra 2021</t>
+  </si>
+  <si>
+    <t>SRL fine, RTD fine from Weemstra 2021</t>
+  </si>
+  <si>
+    <t>height from Halassy 2019</t>
+  </si>
+  <si>
+    <t>height, SLA from Halassy 2019</t>
+  </si>
+  <si>
+    <t>SRL fine from Stiblikova</t>
+  </si>
+  <si>
+    <t>SRL fine, RTD fine from Stiblikova</t>
+  </si>
+  <si>
+    <t>SRL from Eissenstat 2000</t>
+  </si>
+  <si>
+    <t>leafN from Niklas 2006</t>
+  </si>
+  <si>
+    <t>diam from Pohl 2011</t>
+  </si>
+  <si>
+    <t>SRL fine, RTD fine from Mackay 2019</t>
+  </si>
+  <si>
+    <t>diam, SRL fine RTD fine from Mackay 2019</t>
+  </si>
+  <si>
+    <t>SRL fine from Mackay 2019</t>
+  </si>
+  <si>
+    <t>depth from Stromberg 2013</t>
+  </si>
+  <si>
+    <t>diam from Jardine 2021</t>
+  </si>
+  <si>
+    <t>SRL form Aanderud 2003</t>
+  </si>
+  <si>
+    <t>SLA from Taylor 2010</t>
+  </si>
+  <si>
+    <t>rootN, diam, SRL fine from Spitzer 2021</t>
+  </si>
+  <si>
+    <t>SRL fine from Spitzer 2021</t>
+  </si>
+  <si>
+    <t>RTD fine from Huot 2020</t>
+  </si>
+  <si>
+    <t>RTD fine from Aoyama 2023</t>
+  </si>
+  <si>
+    <t>RTD fine, RMF from Aoyama 2023</t>
+  </si>
+  <si>
+    <t>SRL, RTD fine from Aoyama 2023</t>
+  </si>
+  <si>
+    <t>height, SLA, RMF, RTD fine, SRL from Aoyama 2023</t>
+  </si>
+  <si>
+    <t>height, SLA, SRL, RTD fine, RMF from Aoyama 2023</t>
+  </si>
+  <si>
+    <t>SRL, RMF from Aoyama 2023</t>
+  </si>
+  <si>
+    <t>RTD from Aoyama 2023</t>
+  </si>
+  <si>
+    <t>SRL, RTD fine, RMF from Aoyama 2023</t>
+  </si>
+  <si>
+    <t>SRL by Aoyama 2023</t>
+  </si>
+  <si>
+    <t>RMF from Aoyama 2023</t>
+  </si>
+  <si>
+    <t>SLA Robertson _2023</t>
+  </si>
+  <si>
+    <t>SRL fine form Mueller 2024</t>
+  </si>
+  <si>
+    <t>rooN, diam, SRL fine, RTD fine from Mueller 2024</t>
+  </si>
+  <si>
+    <t>rootN, SRL fine from Mueller 2024</t>
+  </si>
+  <si>
+    <t>rootN, diam, SRL fine, RTD fine from Mueller 2024</t>
+  </si>
+  <si>
+    <t>rootN, SRL fine, RTD fine from Mueller 2024</t>
+  </si>
+  <si>
+    <t>diam, SRL fine, RTD fine from Mueller 2024</t>
   </si>
 </sst>
 </file>
@@ -3422,7 +3545,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3658,8 +3781,40 @@
       <color theme="1"/>
       <name val="Times"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF231F20"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3842,6 +3997,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -3962,7 +4123,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4005,8 +4166,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4034,8 +4196,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="26" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4056,8 +4219,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4085,6 +4254,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="42" xr:uid="{821AFF48-257E-B244-B4B3-447CBE3D4BF6}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -4431,24 +4601,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549491A4-753E-5340-947B-599066FB02C1}">
-  <dimension ref="A1:AA1097"/>
+  <dimension ref="A1:AB1097"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C1075" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C1056" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="U1086" sqref="U1086"/>
+      <selection pane="bottomRight" activeCell="B1091" sqref="A1091:XFD1091"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="15" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="10.83203125" customWidth="1"/>
-    <col min="18" max="19" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="10.83203125" customWidth="1"/>
+    <col min="4" max="10" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="21" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -4638,6 +4806,9 @@
       <c r="N4">
         <v>34.953520954277799</v>
       </c>
+      <c r="O4">
+        <v>5.5</v>
+      </c>
       <c r="Q4">
         <v>52.963155301777803</v>
       </c>
@@ -4649,6 +4820,9 @@
       </c>
       <c r="W4" t="s">
         <v>1054</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4853,7 +5027,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" hidden="1">
       <c r="A10">
         <v>95</v>
       </c>
@@ -4933,7 +5107,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" hidden="1">
       <c r="A11">
         <v>187</v>
       </c>
@@ -5013,7 +5187,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" hidden="1">
       <c r="A12">
         <v>265</v>
       </c>
@@ -5093,7 +5267,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" hidden="1">
       <c r="A13">
         <v>379</v>
       </c>
@@ -5173,7 +5347,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" hidden="1">
       <c r="A14">
         <v>440</v>
       </c>
@@ -5253,7 +5427,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" hidden="1">
       <c r="A15">
         <v>456</v>
       </c>
@@ -5333,7 +5507,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" hidden="1">
       <c r="A16">
         <v>604</v>
       </c>
@@ -5413,7 +5587,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" hidden="1">
       <c r="A17">
         <v>650</v>
       </c>
@@ -5493,7 +5667,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" hidden="1">
       <c r="A18">
         <v>704</v>
       </c>
@@ -5573,7 +5747,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" hidden="1">
       <c r="A19">
         <v>854</v>
       </c>
@@ -5653,68 +5827,68 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="19" customFormat="1">
-      <c r="A20" s="19">
+    <row r="20" spans="1:27" s="20" customFormat="1">
+      <c r="A20" s="20">
         <v>351</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="D20" s="19">
-        <v>0</v>
-      </c>
-      <c r="E20" s="19">
-        <v>1</v>
-      </c>
-      <c r="F20" s="19">
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20">
         <v>0.25</v>
       </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
         <v>-1</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="20">
         <v>0.25</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="20">
         <v>-1.25</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:27" s="19" customFormat="1">
-      <c r="A21" s="19">
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:27" s="20" customFormat="1">
+      <c r="A21" s="20">
         <v>993</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <v>2.3333333330000001</v>
       </c>
-      <c r="E21" s="19">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19">
+      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
         <v>3</v>
       </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19">
-        <v>1</v>
-      </c>
-      <c r="I21" s="19">
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1</v>
+      </c>
+      <c r="I21" s="20">
         <v>0.66666666699999999</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="20">
         <v>0.33333333300000001</v>
       </c>
     </row>
@@ -6190,7 +6364,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33">
         <v>261</v>
       </c>
@@ -6437,7 +6611,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38">
         <v>414</v>
       </c>
@@ -6508,7 +6682,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39">
         <v>506</v>
       </c>
@@ -6579,7 +6753,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40">
         <v>555</v>
       </c>
@@ -6650,7 +6824,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" hidden="1">
       <c r="A41">
         <v>512</v>
       </c>
@@ -6724,7 +6898,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" hidden="1">
       <c r="A42">
         <v>1005</v>
       </c>
@@ -6886,50 +7060,50 @@
         <v>1.9166666699999999</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="21" customFormat="1">
-      <c r="A45" s="21">
+    <row r="45" spans="1:25" s="22" customFormat="1">
+      <c r="A45" s="22">
         <v>912</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="22">
         <v>32.6</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="22">
         <v>48.6</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="22">
         <v>35</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="22">
         <v>53.8</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="22">
         <v>5.2</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="22">
         <v>2.4</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="22">
         <v>2.8</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="23">
         <v>37.437353333333334</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N45" s="23">
+      <c r="N45" s="24">
         <v>20.997456046016488</v>
       </c>
-      <c r="V45" s="21" t="s">
+      <c r="V45" s="22" t="s">
         <v>1022</v>
       </c>
-      <c r="W45" s="21" t="s">
+      <c r="W45" s="22" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -7073,7 +7247,7 @@
       <c r="O48">
         <v>0.15240000000000001</v>
       </c>
-      <c r="R48" s="26">
+      <c r="R48" s="27">
         <v>1.64</v>
       </c>
       <c r="V48" t="s">
@@ -7182,6 +7356,12 @@
       <c r="R50">
         <v>0.29199999999999998</v>
       </c>
+      <c r="S50">
+        <v>46.03</v>
+      </c>
+      <c r="T50">
+        <v>0.32400000000000001</v>
+      </c>
       <c r="V50" t="s">
         <v>925</v>
       </c>
@@ -7190,6 +7370,9 @@
       </c>
       <c r="X50" t="s">
         <v>1036</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -7926,7 +8109,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" hidden="1">
       <c r="A65">
         <v>655</v>
       </c>
@@ -7997,7 +8180,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" hidden="1">
       <c r="A66">
         <v>750</v>
       </c>
@@ -8068,7 +8251,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" hidden="1">
       <c r="A67">
         <v>764</v>
       </c>
@@ -8139,7 +8322,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" hidden="1">
       <c r="A68">
         <v>881</v>
       </c>
@@ -8210,7 +8393,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" hidden="1">
       <c r="A69">
         <v>906</v>
       </c>
@@ -8517,7 +8700,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" hidden="1">
       <c r="A74">
         <v>310</v>
       </c>
@@ -8588,7 +8771,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" hidden="1">
       <c r="A75">
         <v>715</v>
       </c>
@@ -8659,7 +8842,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" hidden="1">
       <c r="A76">
         <v>725</v>
       </c>
@@ -8730,7 +8913,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" hidden="1">
       <c r="A77">
         <v>733</v>
       </c>
@@ -8801,7 +8984,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" hidden="1">
       <c r="A78">
         <v>806</v>
       </c>
@@ -8872,7 +9055,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" hidden="1">
       <c r="A79">
         <v>499</v>
       </c>
@@ -8980,7 +9163,7 @@
       <c r="O80">
         <v>0.66</v>
       </c>
-      <c r="Q80" s="24">
+      <c r="Q80" s="25">
         <v>193.8</v>
       </c>
       <c r="U80">
@@ -9037,7 +9220,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" hidden="1">
       <c r="A82">
         <v>937</v>
       </c>
@@ -9252,7 +9435,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" hidden="1">
       <c r="A86">
         <v>177</v>
       </c>
@@ -9323,7 +9506,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" hidden="1">
       <c r="A87">
         <v>654</v>
       </c>
@@ -9494,7 +9677,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" hidden="1">
       <c r="A90">
         <v>707</v>
       </c>
@@ -9602,11 +9785,17 @@
       <c r="L91" s="13">
         <v>0.60960000000000003</v>
       </c>
+      <c r="N91" s="13">
+        <v>10.08</v>
+      </c>
       <c r="O91" s="13">
         <v>0.254</v>
       </c>
       <c r="V91" s="13" t="s">
         <v>929</v>
+      </c>
+      <c r="W91" s="13" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -9658,6 +9847,9 @@
       <c r="Q92">
         <v>52.766939180000001</v>
       </c>
+      <c r="S92" s="29">
+        <v>52.77</v>
+      </c>
       <c r="U92">
         <v>0.54792043400000001</v>
       </c>
@@ -9670,8 +9862,11 @@
       <c r="X92" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" s="13" customFormat="1">
+      <c r="Y92" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" s="13" customFormat="1" hidden="1">
       <c r="A93" s="13">
         <v>918</v>
       </c>
@@ -9736,415 +9931,415 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="94" spans="1:25" s="19" customFormat="1">
-      <c r="A94" s="19">
+    <row r="94" spans="1:25" s="20" customFormat="1" hidden="1">
+      <c r="A94" s="20">
         <v>112</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="20">
         <v>2.1666666669999999</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="20">
         <v>0.5</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F94" s="20">
         <v>32</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G94" s="20">
         <v>6.6666666670000003</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H94" s="20">
         <v>6.1666666670000003</v>
       </c>
-      <c r="I94" s="19">
+      <c r="I94" s="20">
         <v>29.833333332999999</v>
       </c>
-      <c r="J94" s="19">
+      <c r="J94" s="20">
         <v>-23.666666666000001</v>
       </c>
-      <c r="K94" s="19">
+      <c r="K94" s="20">
         <v>27.147870370555601</v>
       </c>
-      <c r="L94" s="19">
+      <c r="L94" s="20">
         <v>0.11</v>
       </c>
-      <c r="M94" s="19">
+      <c r="M94" s="20">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N94" s="25">
+      <c r="N94" s="26">
         <v>39.970685244999999</v>
       </c>
-      <c r="O94" s="19">
+      <c r="O94" s="20">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P94" s="19">
+      <c r="P94" s="20">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q94" s="19">
+      <c r="Q94" s="20">
         <v>28.080583669999999</v>
       </c>
-      <c r="R94" s="19">
+      <c r="R94" s="20">
         <v>0.52165000000000006</v>
       </c>
       <c r="T94">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V94" s="19" t="s">
+      <c r="V94" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="W94" s="19" t="s">
+      <c r="W94" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="X94" s="19" t="s">
+      <c r="X94" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="95" spans="1:25" s="19" customFormat="1">
-      <c r="A95" s="19">
+    <row r="95" spans="1:25" s="20" customFormat="1" hidden="1">
+      <c r="A95" s="20">
         <v>289</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="20">
         <v>3</v>
       </c>
-      <c r="E95" s="19">
-        <v>1</v>
-      </c>
-      <c r="F95" s="19">
+      <c r="E95" s="20">
+        <v>1</v>
+      </c>
+      <c r="F95" s="20">
         <v>5</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G95" s="20">
         <v>2</v>
       </c>
-      <c r="H95" s="19">
-        <v>1</v>
-      </c>
-      <c r="I95" s="19">
+      <c r="H95" s="20">
+        <v>1</v>
+      </c>
+      <c r="I95" s="20">
         <v>2</v>
       </c>
-      <c r="J95" s="19">
+      <c r="J95" s="20">
         <v>-1</v>
       </c>
-      <c r="K95" s="19">
+      <c r="K95" s="20">
         <v>27.147870370555601</v>
       </c>
-      <c r="L95" s="19">
+      <c r="L95" s="20">
         <v>0.11</v>
       </c>
-      <c r="M95" s="19">
+      <c r="M95" s="20">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N95" s="25">
+      <c r="N95" s="26">
         <v>39.970685244999999</v>
       </c>
-      <c r="O95" s="19">
+      <c r="O95" s="20">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P95" s="19">
+      <c r="P95" s="20">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q95" s="19">
+      <c r="Q95" s="20">
         <v>28.080583669999999</v>
       </c>
-      <c r="R95" s="19">
+      <c r="R95" s="20">
         <v>0.52165000000000006</v>
       </c>
       <c r="T95">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V95" s="19" t="s">
+      <c r="V95" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="W95" s="19" t="s">
+      <c r="W95" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="X95" s="19" t="s">
+      <c r="X95" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="96" spans="1:25" s="19" customFormat="1">
-      <c r="A96" s="19">
+    <row r="96" spans="1:25" s="20" customFormat="1" hidden="1">
+      <c r="A96" s="20">
         <v>489</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="20">
         <v>13.5</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="20">
         <v>2</v>
       </c>
-      <c r="F96" s="19">
+      <c r="F96" s="20">
         <v>30</v>
       </c>
-      <c r="G96" s="19">
-        <v>0</v>
-      </c>
-      <c r="H96" s="19">
+      <c r="G96" s="20">
+        <v>0</v>
+      </c>
+      <c r="H96" s="20">
         <v>-2</v>
       </c>
-      <c r="I96" s="19">
+      <c r="I96" s="20">
         <v>16.5</v>
       </c>
-      <c r="J96" s="19">
+      <c r="J96" s="20">
         <v>-18.5</v>
       </c>
-      <c r="K96" s="19">
+      <c r="K96" s="20">
         <v>27.147870370555601</v>
       </c>
-      <c r="L96" s="19">
+      <c r="L96" s="20">
         <v>0.11</v>
       </c>
-      <c r="M96" s="19">
+      <c r="M96" s="20">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N96" s="25">
+      <c r="N96" s="26">
         <v>39.970685244999999</v>
       </c>
-      <c r="O96" s="19">
+      <c r="O96" s="20">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P96" s="19">
+      <c r="P96" s="20">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q96" s="19">
+      <c r="Q96" s="20">
         <v>28.080583669999999</v>
       </c>
-      <c r="R96" s="19">
+      <c r="R96" s="20">
         <v>0.52165000000000006</v>
       </c>
       <c r="T96">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V96" s="19" t="s">
+      <c r="V96" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="W96" s="19" t="s">
+      <c r="W96" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="X96" s="19" t="s">
+      <c r="X96" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="97" spans="1:25" s="19" customFormat="1">
-      <c r="A97" s="19">
+    <row r="97" spans="1:25" s="20" customFormat="1" hidden="1">
+      <c r="A97" s="20">
         <v>498</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="20">
         <v>2.3333333330000001</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="20">
         <v>2.1666666669999999</v>
       </c>
-      <c r="F97" s="19">
+      <c r="F97" s="20">
         <v>2</v>
       </c>
-      <c r="G97" s="19">
+      <c r="G97" s="20">
         <v>1.3333333329999999</v>
       </c>
-      <c r="H97" s="19">
+      <c r="H97" s="20">
         <v>-0.83333333399999998</v>
       </c>
-      <c r="I97" s="19">
+      <c r="I97" s="20">
         <v>-0.33333333300000001</v>
       </c>
-      <c r="J97" s="19">
+      <c r="J97" s="20">
         <v>-0.50000000099999997</v>
       </c>
-      <c r="K97" s="19">
+      <c r="K97" s="20">
         <v>27.147870370555601</v>
       </c>
-      <c r="L97" s="19">
+      <c r="L97" s="20">
         <v>0.11</v>
       </c>
-      <c r="M97" s="19">
+      <c r="M97" s="20">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N97" s="25">
+      <c r="N97" s="26">
         <v>39.970685244999999</v>
       </c>
-      <c r="O97" s="19">
+      <c r="O97" s="20">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P97" s="19">
+      <c r="P97" s="20">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q97" s="19">
+      <c r="Q97" s="20">
         <v>28.080583669999999</v>
       </c>
-      <c r="R97" s="19">
+      <c r="R97" s="20">
         <v>0.52165000000000006</v>
       </c>
       <c r="T97">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V97" s="19" t="s">
+      <c r="V97" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="W97" s="19" t="s">
+      <c r="W97" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="X97" s="19" t="s">
+      <c r="X97" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="19" customFormat="1">
-      <c r="A98" s="19">
+    <row r="98" spans="1:25" s="20" customFormat="1" hidden="1">
+      <c r="A98" s="20">
         <v>800</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="20">
         <v>6.2</v>
       </c>
-      <c r="E98" s="19">
+      <c r="E98" s="20">
         <v>12.5</v>
       </c>
-      <c r="F98" s="19">
+      <c r="F98" s="20">
         <v>4.6666666670000003</v>
       </c>
-      <c r="G98" s="19">
+      <c r="G98" s="20">
         <v>11.5</v>
       </c>
-      <c r="H98" s="19">
+      <c r="H98" s="20">
         <v>-1</v>
       </c>
-      <c r="I98" s="19">
+      <c r="I98" s="20">
         <v>-1.5333333330000001</v>
       </c>
-      <c r="J98" s="19">
+      <c r="J98" s="20">
         <v>0.53333333299999997</v>
       </c>
-      <c r="K98" s="19">
+      <c r="K98" s="20">
         <v>27.147870370555601</v>
       </c>
-      <c r="L98" s="19">
+      <c r="L98" s="20">
         <v>0.11</v>
       </c>
-      <c r="M98" s="19">
+      <c r="M98" s="20">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N98" s="25">
+      <c r="N98" s="26">
         <v>39.970685244999999</v>
       </c>
-      <c r="O98" s="19">
+      <c r="O98" s="20">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P98" s="19">
+      <c r="P98" s="20">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q98" s="19">
+      <c r="Q98" s="20">
         <v>28.080583669999999</v>
       </c>
-      <c r="R98" s="19">
+      <c r="R98" s="20">
         <v>0.52165000000000006</v>
       </c>
       <c r="T98">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V98" s="19" t="s">
+      <c r="V98" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="W98" s="19" t="s">
+      <c r="W98" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="X98" s="19" t="s">
+      <c r="X98" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="19" customFormat="1">
-      <c r="A99" s="19">
+    <row r="99" spans="1:25" s="20" customFormat="1" hidden="1">
+      <c r="A99" s="20">
         <v>861</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="20">
         <v>32</v>
       </c>
-      <c r="E99" s="19">
+      <c r="E99" s="20">
         <v>21</v>
       </c>
-      <c r="F99" s="19">
+      <c r="F99" s="20">
         <v>15</v>
       </c>
-      <c r="G99" s="19">
+      <c r="G99" s="20">
         <v>17.600000000000001</v>
       </c>
-      <c r="H99" s="19">
+      <c r="H99" s="20">
         <v>-3.4</v>
       </c>
-      <c r="I99" s="19">
+      <c r="I99" s="20">
         <v>-17</v>
       </c>
-      <c r="J99" s="19">
+      <c r="J99" s="20">
         <v>13.6</v>
       </c>
-      <c r="K99" s="19">
+      <c r="K99" s="20">
         <v>27.147870370555601</v>
       </c>
-      <c r="L99" s="19">
+      <c r="L99" s="20">
         <v>0.11</v>
       </c>
-      <c r="M99" s="19">
+      <c r="M99" s="20">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N99" s="25">
+      <c r="N99" s="26">
         <v>39.970685244999999</v>
       </c>
-      <c r="O99" s="19">
+      <c r="O99" s="20">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P99" s="19">
+      <c r="P99" s="20">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q99" s="19">
+      <c r="Q99" s="20">
         <v>28.080583669999999</v>
       </c>
-      <c r="R99" s="19">
+      <c r="R99" s="20">
         <v>0.52165000000000006</v>
       </c>
       <c r="T99">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V99" s="19" t="s">
+      <c r="V99" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="W99" s="19" t="s">
+      <c r="W99" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="X99" s="19" t="s">
+      <c r="X99" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" hidden="1">
       <c r="A100">
         <v>254</v>
       </c>
@@ -10218,7 +10413,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" hidden="1">
       <c r="A101">
         <v>457</v>
       </c>
@@ -10292,7 +10487,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" hidden="1">
       <c r="A102">
         <v>548</v>
       </c>
@@ -10366,7 +10561,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" hidden="1">
       <c r="A103">
         <v>757</v>
       </c>
@@ -10440,7 +10635,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" hidden="1">
       <c r="A104">
         <v>798</v>
       </c>
@@ -10791,7 +10986,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" hidden="1">
       <c r="A110">
         <v>568</v>
       </c>
@@ -11287,8 +11482,14 @@
       <c r="N119">
         <v>11.270718752500001</v>
       </c>
+      <c r="R119">
+        <v>0.25146667</v>
+      </c>
       <c r="V119" t="s">
         <v>925</v>
+      </c>
+      <c r="W119" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="120" spans="1:27">
@@ -11332,7 +11533,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" hidden="1">
       <c r="A121">
         <v>501</v>
       </c>
@@ -11412,7 +11613,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" hidden="1">
       <c r="A122">
         <v>659</v>
       </c>
@@ -11492,7 +11693,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" hidden="1">
       <c r="A123">
         <v>890</v>
       </c>
@@ -11572,7 +11773,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" hidden="1">
       <c r="A124">
         <v>934</v>
       </c>
@@ -11652,50 +11853,50 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="15" customFormat="1">
-      <c r="A125" s="15">
+    <row r="125" spans="1:27" s="16" customFormat="1">
+      <c r="A125" s="16">
         <v>566</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="D125" s="15">
+      <c r="D125" s="16">
         <v>1.3333333329999999</v>
       </c>
-      <c r="E125" s="15">
+      <c r="E125" s="16">
         <v>3</v>
       </c>
-      <c r="F125" s="15">
+      <c r="F125" s="16">
         <v>3</v>
       </c>
-      <c r="G125" s="15">
+      <c r="G125" s="16">
         <v>25</v>
       </c>
-      <c r="H125" s="15">
+      <c r="H125" s="16">
         <v>22</v>
       </c>
-      <c r="I125" s="15">
+      <c r="I125" s="16">
         <v>1.6666666670000001</v>
       </c>
-      <c r="J125" s="15">
+      <c r="J125" s="16">
         <v>20.333333332999999</v>
       </c>
-      <c r="L125" s="15">
+      <c r="L125" s="16">
         <v>0.44</v>
       </c>
-      <c r="N125" s="15">
+      <c r="N125" s="16">
         <v>61.28</v>
       </c>
-      <c r="O125" s="15">
+      <c r="O125" s="16">
         <v>0.75</v>
       </c>
-      <c r="V125" s="15" t="s">
+      <c r="V125" s="16" t="s">
         <v>1026</v>
       </c>
-      <c r="W125" s="15" t="s">
+      <c r="W125" s="16" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -12152,7 +12353,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" hidden="1">
       <c r="A138">
         <v>571</v>
       </c>
@@ -12226,7 +12427,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" hidden="1">
       <c r="A139">
         <v>864</v>
       </c>
@@ -12300,7 +12501,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" hidden="1">
       <c r="A140">
         <v>403</v>
       </c>
@@ -12380,7 +12581,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" hidden="1">
       <c r="A141">
         <v>778</v>
       </c>
@@ -12460,7 +12661,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" hidden="1">
       <c r="A142">
         <v>841</v>
       </c>
@@ -12540,7 +12741,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" hidden="1">
       <c r="A143">
         <v>862</v>
       </c>
@@ -12663,6 +12864,12 @@
       <c r="O144">
         <v>0.5</v>
       </c>
+      <c r="Q144">
+        <v>50.571428570000002</v>
+      </c>
+      <c r="T144">
+        <v>7.3220832999999999E-2</v>
+      </c>
       <c r="U144">
         <v>0.36375000000000002</v>
       </c>
@@ -12675,8 +12882,11 @@
       <c r="X144" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="145" spans="1:26">
+      <c r="Y144" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28">
       <c r="A145">
         <v>443</v>
       </c>
@@ -12719,6 +12929,12 @@
       <c r="O145">
         <v>0.5</v>
       </c>
+      <c r="Q145">
+        <v>50.571428570000002</v>
+      </c>
+      <c r="T145">
+        <v>7.3220832999999999E-2</v>
+      </c>
       <c r="U145">
         <v>0.36375000000000002</v>
       </c>
@@ -12731,8 +12947,11 @@
       <c r="X145" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="146" spans="1:26">
+      <c r="Y145" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" hidden="1">
       <c r="A146">
         <v>684</v>
       </c>
@@ -12803,7 +13022,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:28" hidden="1">
       <c r="A147">
         <v>765</v>
       </c>
@@ -12874,7 +13093,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="148" spans="1:26" s="13" customFormat="1">
+    <row r="148" spans="1:28" s="13" customFormat="1">
       <c r="A148" s="13">
         <v>490</v>
       </c>
@@ -12912,7 +13131,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:28">
       <c r="A149">
         <v>149</v>
       </c>
@@ -12953,7 +13172,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:28">
       <c r="A150">
         <v>762</v>
       </c>
@@ -13009,7 +13228,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:28">
       <c r="A151">
         <v>842</v>
       </c>
@@ -13065,7 +13284,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:28" hidden="1">
       <c r="A152">
         <v>535</v>
       </c>
@@ -13133,7 +13352,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:28" hidden="1">
       <c r="A153">
         <v>624</v>
       </c>
@@ -13201,7 +13420,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:28" hidden="1">
       <c r="A154">
         <v>868</v>
       </c>
@@ -13269,7 +13488,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:28">
       <c r="A155">
         <v>621</v>
       </c>
@@ -13312,11 +13531,20 @@
       <c r="R155">
         <v>0.28399999999999997</v>
       </c>
+      <c r="T155">
+        <v>8.3904129999999993E-3</v>
+      </c>
+      <c r="U155">
+        <v>0.45035611399999997</v>
+      </c>
       <c r="V155" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="156" spans="1:26" s="13" customFormat="1">
+      <c r="W155" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" s="13" customFormat="1">
       <c r="A156" s="13">
         <v>321</v>
       </c>
@@ -13380,7 +13608,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:28" hidden="1">
       <c r="A157">
         <v>429</v>
       </c>
@@ -13451,7 +13679,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:28" hidden="1">
       <c r="A158">
         <v>830</v>
       </c>
@@ -13522,7 +13750,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:28">
       <c r="A159">
         <v>416</v>
       </c>
@@ -13562,9 +13790,15 @@
       <c r="N159">
         <v>39</v>
       </c>
+      <c r="Q159" s="31">
+        <v>238.8</v>
+      </c>
       <c r="S159">
         <v>179.52441252675899</v>
       </c>
+      <c r="T159" s="13">
+        <v>6.4833597000000007E-2</v>
+      </c>
       <c r="U159">
         <v>0.56648845199999998</v>
       </c>
@@ -13583,8 +13817,14 @@
       <c r="Z159" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="160" spans="1:26">
+      <c r="AA159" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28">
       <c r="A160">
         <v>921</v>
       </c>
@@ -13624,9 +13864,15 @@
       <c r="N160">
         <v>39</v>
       </c>
+      <c r="Q160" s="31">
+        <v>238.8</v>
+      </c>
       <c r="S160">
         <v>179.52441252675899</v>
       </c>
+      <c r="T160" s="13">
+        <v>6.4833597000000007E-2</v>
+      </c>
       <c r="U160">
         <v>0.56648845199999998</v>
       </c>
@@ -13645,8 +13891,14 @@
       <c r="Z160" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="161" spans="1:26">
+      <c r="AA160" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" hidden="1">
       <c r="A161">
         <v>827</v>
       </c>
@@ -13714,7 +13966,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" hidden="1">
       <c r="A162">
         <v>879</v>
       </c>
@@ -13782,7 +14034,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" hidden="1">
       <c r="A163">
         <v>169</v>
       </c>
@@ -13847,7 +14099,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" hidden="1">
       <c r="A164">
         <v>386</v>
       </c>
@@ -13912,7 +14164,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" hidden="1">
       <c r="A165">
         <v>570</v>
       </c>
@@ -13977,7 +14229,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" hidden="1">
       <c r="A166">
         <v>791</v>
       </c>
@@ -14519,7 +14771,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" ht="17" hidden="1" customHeight="1">
       <c r="A176">
         <v>356</v>
       </c>
@@ -14590,7 +14842,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:25" hidden="1">
       <c r="A177">
         <v>904</v>
       </c>
@@ -14661,7 +14913,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" hidden="1">
       <c r="A178">
         <v>1071</v>
       </c>
@@ -14829,7 +15081,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" hidden="1">
       <c r="A181">
         <v>1073</v>
       </c>
@@ -14972,11 +15224,29 @@
       <c r="K183">
         <v>21.1</v>
       </c>
+      <c r="L183">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="N183">
+        <v>26.315940560000001</v>
+      </c>
+      <c r="Q183">
+        <v>30.94831035</v>
+      </c>
+      <c r="T183">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="U183">
+        <v>0.192159626</v>
+      </c>
       <c r="V183" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="184" spans="1:25" s="13" customFormat="1">
+      <c r="W183" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" s="13" customFormat="1" hidden="1">
       <c r="A184" s="13">
         <v>928</v>
       </c>
@@ -15044,7 +15314,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="185" spans="1:25" s="13" customFormat="1">
+    <row r="185" spans="1:25" s="13" customFormat="1" hidden="1">
       <c r="A185" s="13">
         <v>929</v>
       </c>
@@ -15112,7 +15382,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="186" spans="1:25" s="13" customFormat="1">
+    <row r="186" spans="1:25" s="13" customFormat="1" hidden="1">
       <c r="A186" s="13">
         <v>931</v>
       </c>
@@ -15180,7 +15450,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="187" spans="1:25" s="13" customFormat="1">
+    <row r="187" spans="1:25" s="13" customFormat="1" hidden="1">
       <c r="A187" s="13">
         <v>932</v>
       </c>
@@ -15544,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" hidden="1">
       <c r="A195">
         <v>60</v>
       </c>
@@ -15837,6 +16107,9 @@
       <c r="N200">
         <v>38</v>
       </c>
+      <c r="T200">
+        <v>2.3256533999999999E-2</v>
+      </c>
       <c r="U200">
         <v>0.34</v>
       </c>
@@ -15845,6 +16118,9 @@
       </c>
       <c r="W200" t="s">
         <v>1005</v>
+      </c>
+      <c r="X200" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="201" spans="1:26">
@@ -15887,6 +16163,9 @@
       <c r="N201">
         <v>38</v>
       </c>
+      <c r="T201">
+        <v>2.3256533999999999E-2</v>
+      </c>
       <c r="U201">
         <v>0.34</v>
       </c>
@@ -15895,6 +16174,9 @@
       </c>
       <c r="W201" t="s">
         <v>1005</v>
+      </c>
+      <c r="X201" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="202" spans="1:26">
@@ -15937,6 +16219,9 @@
       <c r="N202">
         <v>38</v>
       </c>
+      <c r="T202">
+        <v>2.3256533999999999E-2</v>
+      </c>
       <c r="U202">
         <v>0.34</v>
       </c>
@@ -15945,6 +16230,9 @@
       </c>
       <c r="W202" t="s">
         <v>1005</v>
+      </c>
+      <c r="X202" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="203" spans="1:26" s="13" customFormat="1">
@@ -16178,7 +16466,7 @@
       <c r="J207">
         <v>-1.9</v>
       </c>
-      <c r="K207" s="17">
+      <c r="K207" s="18">
         <v>45.32</v>
       </c>
       <c r="L207">
@@ -16595,7 +16883,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="215" spans="1:24">
+    <row r="215" spans="1:24" hidden="1">
       <c r="A215">
         <v>649</v>
       </c>
@@ -16666,7 +16954,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="216" spans="1:24">
+    <row r="216" spans="1:24" hidden="1">
       <c r="A216">
         <v>948</v>
       </c>
@@ -16815,6 +17103,12 @@
       <c r="J218" s="13">
         <v>0.25</v>
       </c>
+      <c r="N218" s="13">
+        <v>22.6</v>
+      </c>
+      <c r="V218" s="13" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="219" spans="1:24" s="13" customFormat="1">
       <c r="A219" s="13">
@@ -16847,6 +17141,12 @@
       <c r="J219" s="13">
         <v>-1.345</v>
       </c>
+      <c r="N219" s="13">
+        <v>22.6</v>
+      </c>
+      <c r="V219" s="13" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="220" spans="1:24">
       <c r="A220">
@@ -17358,14 +17658,20 @@
       <c r="J230">
         <v>0.27500000000000002</v>
       </c>
+      <c r="L230">
+        <v>0.75</v>
+      </c>
       <c r="N230">
         <v>14.153</v>
       </c>
       <c r="V230" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="231" spans="1:24">
+      <c r="W230" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" hidden="1">
       <c r="A231">
         <v>174</v>
       </c>
@@ -17430,7 +17736,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="1:24" hidden="1">
       <c r="A232">
         <v>395</v>
       </c>
@@ -17495,7 +17801,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" hidden="1">
       <c r="A233">
         <v>874</v>
       </c>
@@ -17886,7 +18192,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>48</v>
       </c>
@@ -17918,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:26">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>469</v>
       </c>
@@ -17950,7 +18256,7 @@
         <v>-9.0833333330000006</v>
       </c>
     </row>
-    <row r="243" spans="1:26">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>233</v>
       </c>
@@ -17991,7 +18297,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="244" spans="1:26">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>952</v>
       </c>
@@ -18032,7 +18338,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="245" spans="1:26">
+    <row r="245" spans="1:27" hidden="1">
       <c r="A245">
         <v>85</v>
       </c>
@@ -18109,7 +18415,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="246" spans="1:26">
+    <row r="246" spans="1:27" hidden="1">
       <c r="A246">
         <v>87</v>
       </c>
@@ -18186,7 +18492,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="247" spans="1:26">
+    <row r="247" spans="1:27" hidden="1">
       <c r="A247">
         <v>103</v>
       </c>
@@ -18263,7 +18569,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="248" spans="1:26">
+    <row r="248" spans="1:27" hidden="1">
       <c r="A248">
         <v>235</v>
       </c>
@@ -18340,7 +18646,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="249" spans="1:26">
+    <row r="249" spans="1:27" hidden="1">
       <c r="A249">
         <v>245</v>
       </c>
@@ -18417,7 +18723,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="250" spans="1:26">
+    <row r="250" spans="1:27" hidden="1">
       <c r="A250">
         <v>394</v>
       </c>
@@ -18494,7 +18800,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="251" spans="1:26">
+    <row r="251" spans="1:27" hidden="1">
       <c r="A251">
         <v>853</v>
       </c>
@@ -18571,7 +18877,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="252" spans="1:26">
+    <row r="252" spans="1:27" hidden="1">
       <c r="A252">
         <v>1070</v>
       </c>
@@ -18648,7 +18954,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="253" spans="1:26">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>311</v>
       </c>
@@ -18700,6 +19006,9 @@
       <c r="R253">
         <v>0.28199999999999997</v>
       </c>
+      <c r="S253">
+        <v>102.62</v>
+      </c>
       <c r="U253">
         <v>0.163756175644444</v>
       </c>
@@ -18709,8 +19018,11 @@
       <c r="W253" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="254" spans="1:26">
+      <c r="X253" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>263</v>
       </c>
@@ -18759,6 +19071,12 @@
       <c r="Q254">
         <v>318</v>
       </c>
+      <c r="S254">
+        <v>318</v>
+      </c>
+      <c r="T254">
+        <v>2.9222234E-2</v>
+      </c>
       <c r="U254">
         <v>0.25077149700000001</v>
       </c>
@@ -18774,8 +19092,14 @@
       <c r="Y254" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="255" spans="1:26">
+      <c r="Z254" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>387</v>
       </c>
@@ -18813,7 +19137,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="256" spans="1:26">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>580</v>
       </c>
@@ -19138,7 +19462,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="264" spans="1:25">
+    <row r="264" spans="1:25" hidden="1">
       <c r="A264">
         <v>940</v>
       </c>
@@ -19534,7 +19858,7 @@
         <v>-0.24454676</v>
       </c>
     </row>
-    <row r="273" spans="1:26">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>966</v>
       </c>
@@ -19566,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:26">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>5</v>
       </c>
@@ -19598,7 +19922,7 @@
         <v>8.7130632999999999E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:26">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>304</v>
       </c>
@@ -19645,7 +19969,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="276" spans="1:26">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>576</v>
       </c>
@@ -19692,7 +20016,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="277" spans="1:26">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>814</v>
       </c>
@@ -19724,7 +20048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:26">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>876</v>
       </c>
@@ -19771,7 +20095,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="279" spans="1:26">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>13</v>
       </c>
@@ -19812,7 +20136,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="280" spans="1:26">
+    <row r="280" spans="1:27" hidden="1">
       <c r="A280">
         <v>533</v>
       </c>
@@ -19886,7 +20210,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="281" spans="1:26">
+    <row r="281" spans="1:27" hidden="1">
       <c r="A281">
         <v>607</v>
       </c>
@@ -19957,7 +20281,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="282" spans="1:26">
+    <row r="282" spans="1:27" hidden="1">
       <c r="A282">
         <v>804</v>
       </c>
@@ -20028,7 +20352,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="283" spans="1:26">
+    <row r="283" spans="1:27" hidden="1">
       <c r="A283">
         <v>837</v>
       </c>
@@ -20099,7 +20423,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="284" spans="1:26">
+    <row r="284" spans="1:27" hidden="1">
       <c r="A284">
         <v>1026</v>
       </c>
@@ -20170,7 +20494,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="285" spans="1:26">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>1088</v>
       </c>
@@ -20222,6 +20546,9 @@
       <c r="R285">
         <v>0.74690000000000012</v>
       </c>
+      <c r="S285" s="29">
+        <v>99.71</v>
+      </c>
       <c r="U285">
         <v>0.72813541900000001</v>
       </c>
@@ -20240,8 +20567,11 @@
       <c r="Z285" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="286" spans="1:26">
+      <c r="AA285" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>1091</v>
       </c>
@@ -20291,7 +20621,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="287" spans="1:26">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>246</v>
       </c>
@@ -20323,7 +20653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:26">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>81</v>
       </c>
@@ -20366,7 +20696,7 @@
       <c r="O288">
         <v>0.15240000000000001</v>
       </c>
-      <c r="R288" s="26">
+      <c r="R288" s="27">
         <v>0.28000000000000003</v>
       </c>
       <c r="U288" t="s">
@@ -20376,7 +20706,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="289" spans="1:24">
+    <row r="289" spans="1:25">
       <c r="A289">
         <v>975</v>
       </c>
@@ -20419,7 +20749,7 @@
       <c r="O289">
         <v>0.15240000000000001</v>
       </c>
-      <c r="R289" s="26">
+      <c r="R289" s="27">
         <v>0.28000000000000003</v>
       </c>
       <c r="U289" t="s">
@@ -20429,7 +20759,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="290" spans="1:24">
+    <row r="290" spans="1:25">
       <c r="A290">
         <v>596</v>
       </c>
@@ -20467,7 +20797,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="291" spans="1:24">
+    <row r="291" spans="1:25">
       <c r="A291">
         <v>145</v>
       </c>
@@ -20501,11 +20831,17 @@
       <c r="L291">
         <v>0.20749999999999999</v>
       </c>
+      <c r="N291">
+        <v>19.77</v>
+      </c>
       <c r="V291" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="292" spans="1:24">
+      <c r="W291" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25">
       <c r="A292">
         <v>396</v>
       </c>
@@ -20537,7 +20873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:24">
+    <row r="293" spans="1:25">
       <c r="A293">
         <v>468</v>
       </c>
@@ -20589,6 +20925,9 @@
       <c r="R293">
         <v>0.32138571399999999</v>
       </c>
+      <c r="S293">
+        <v>21.751439523999998</v>
+      </c>
       <c r="T293">
         <v>0.334821433</v>
       </c>
@@ -20601,8 +20940,11 @@
       <c r="X293" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="294" spans="1:24">
+      <c r="Y293" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25">
       <c r="A294">
         <v>522</v>
       </c>
@@ -20654,6 +20996,9 @@
       <c r="R294">
         <v>0.32138571399999999</v>
       </c>
+      <c r="S294">
+        <v>21.751439523999998</v>
+      </c>
       <c r="T294">
         <v>0.334821433</v>
       </c>
@@ -20666,8 +21011,11 @@
       <c r="X294" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="295" spans="1:24">
+      <c r="Y294" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25">
       <c r="A295">
         <v>550</v>
       </c>
@@ -20699,7 +21047,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="296" spans="1:24">
+    <row r="296" spans="1:25">
       <c r="A296">
         <v>1038</v>
       </c>
@@ -20752,7 +21100,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="297" spans="1:24">
+    <row r="297" spans="1:25">
       <c r="A297">
         <v>181</v>
       </c>
@@ -20805,7 +21153,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="298" spans="1:24">
+    <row r="298" spans="1:25">
       <c r="A298">
         <v>697</v>
       </c>
@@ -20852,7 +21200,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="299" spans="1:24">
+    <row r="299" spans="1:25">
       <c r="A299">
         <v>693</v>
       </c>
@@ -20920,7 +21268,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="300" spans="1:24">
+    <row r="300" spans="1:25">
       <c r="A300">
         <v>756</v>
       </c>
@@ -20988,7 +21336,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="301" spans="1:24">
+    <row r="301" spans="1:25">
       <c r="A301">
         <v>436</v>
       </c>
@@ -21041,7 +21389,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="302" spans="1:24">
+    <row r="302" spans="1:25">
       <c r="A302">
         <v>1022</v>
       </c>
@@ -21073,7 +21421,7 @@
         <v>-6.8766666670000003</v>
       </c>
     </row>
-    <row r="303" spans="1:24">
+    <row r="303" spans="1:25">
       <c r="A303">
         <v>635</v>
       </c>
@@ -21105,7 +21453,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="304" spans="1:24">
+    <row r="304" spans="1:25">
       <c r="A304">
         <v>1055</v>
       </c>
@@ -21225,7 +21573,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="307" spans="1:25">
+    <row r="307" spans="1:25" hidden="1">
       <c r="A307">
         <v>40</v>
       </c>
@@ -21293,7 +21641,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="308" spans="1:25">
+    <row r="308" spans="1:25" hidden="1">
       <c r="A308">
         <v>917</v>
       </c>
@@ -21685,6 +22033,24 @@
       <c r="J316">
         <v>-0.80954592999999997</v>
       </c>
+      <c r="L316">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N316">
+        <v>23.565457989999999</v>
+      </c>
+      <c r="Q316">
+        <v>21.34011499</v>
+      </c>
+      <c r="T316">
+        <v>0.14094999999999999</v>
+      </c>
+      <c r="U316">
+        <v>0.12111937</v>
+      </c>
+      <c r="V316" t="s">
+        <v>1154</v>
+      </c>
     </row>
     <row r="317" spans="1:25">
       <c r="A317">
@@ -22042,14 +22408,29 @@
       <c r="P325" s="10">
         <v>0.51226464397500004</v>
       </c>
+      <c r="Q325">
+        <v>58.74395474</v>
+      </c>
       <c r="R325" s="11">
         <v>0.71358290000000002</v>
       </c>
+      <c r="T325">
+        <v>2.479E-2</v>
+      </c>
+      <c r="U325">
+        <v>0.34195801199999998</v>
+      </c>
       <c r="V325" t="s">
         <v>851</v>
       </c>
       <c r="W325" t="s">
         <v>929</v>
+      </c>
+      <c r="X325" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Y325" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="326" spans="1:26">
@@ -22098,17 +22479,32 @@
       <c r="P326" s="10">
         <v>0.51226464397500004</v>
       </c>
+      <c r="Q326">
+        <v>58.74395474</v>
+      </c>
       <c r="R326" s="11">
         <v>0.71358290000000002</v>
       </c>
+      <c r="T326">
+        <v>2.479E-2</v>
+      </c>
+      <c r="U326">
+        <v>0.34195801199999998</v>
+      </c>
       <c r="V326" t="s">
         <v>851</v>
       </c>
       <c r="W326" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="327" spans="1:26">
+      <c r="X326" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Y326" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="327" spans="1:26" hidden="1">
       <c r="A327">
         <v>573</v>
       </c>
@@ -22257,6 +22653,9 @@
       <c r="O329">
         <v>0.40639999999999998</v>
       </c>
+      <c r="R329">
+        <v>0.314</v>
+      </c>
       <c r="U329">
         <v>0.20134455900000001</v>
       </c>
@@ -22266,8 +22665,11 @@
       <c r="W329" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="330" spans="1:26">
+      <c r="X329" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="330" spans="1:26" hidden="1">
       <c r="A330">
         <v>700</v>
       </c>
@@ -22344,7 +22746,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="331" spans="1:26">
+    <row r="331" spans="1:26" hidden="1">
       <c r="A331">
         <v>724</v>
       </c>
@@ -22421,7 +22823,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="332" spans="1:26">
+    <row r="332" spans="1:26" hidden="1">
       <c r="A332">
         <v>819</v>
       </c>
@@ -22651,7 +23053,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="336" spans="1:26">
+    <row r="336" spans="1:26" hidden="1">
       <c r="A336">
         <v>990</v>
       </c>
@@ -22722,7 +23124,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="337" spans="1:24">
+    <row r="337" spans="1:24" hidden="1">
       <c r="A337">
         <v>1006</v>
       </c>
@@ -22825,7 +23227,7 @@
         <v>-1.1666666670000001</v>
       </c>
     </row>
-    <row r="339" spans="1:24">
+    <row r="339" spans="1:24" hidden="1">
       <c r="A339">
         <v>247</v>
       </c>
@@ -22945,6 +23347,15 @@
       <c r="Q340">
         <v>196.67666666333301</v>
       </c>
+      <c r="R340">
+        <v>0.23375185185185199</v>
+      </c>
+      <c r="S340">
+        <v>65.688570624259299</v>
+      </c>
+      <c r="T340">
+        <v>0.410694171314815</v>
+      </c>
       <c r="U340">
         <v>0.35747127433333298</v>
       </c>
@@ -22953,6 +23364,9 @@
       </c>
       <c r="W340" t="s">
         <v>957</v>
+      </c>
+      <c r="X340" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="341" spans="1:24">
@@ -23004,6 +23418,15 @@
       <c r="Q341">
         <v>196.67666666333301</v>
       </c>
+      <c r="R341">
+        <v>0.23375185185185199</v>
+      </c>
+      <c r="S341">
+        <v>65.688570624259299</v>
+      </c>
+      <c r="T341">
+        <v>0.410694171314815</v>
+      </c>
       <c r="U341">
         <v>0.35747127433333298</v>
       </c>
@@ -23012,6 +23435,9 @@
       </c>
       <c r="W341" t="s">
         <v>957</v>
+      </c>
+      <c r="X341" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="342" spans="1:24">
@@ -23063,6 +23489,15 @@
       <c r="Q342">
         <v>196.67666666333301</v>
       </c>
+      <c r="R342">
+        <v>0.23375185185185199</v>
+      </c>
+      <c r="S342">
+        <v>65.688570624259299</v>
+      </c>
+      <c r="T342">
+        <v>0.410694171314815</v>
+      </c>
       <c r="U342">
         <v>0.35747127433333298</v>
       </c>
@@ -23071,6 +23506,9 @@
       </c>
       <c r="W342" t="s">
         <v>957</v>
+      </c>
+      <c r="X342" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="343" spans="1:24">
@@ -23236,11 +23674,17 @@
       <c r="J346">
         <v>-6.25</v>
       </c>
+      <c r="L346">
+        <v>0.5</v>
+      </c>
       <c r="N346">
         <v>8.6080000000000005</v>
       </c>
       <c r="V346" t="s">
         <v>1055</v>
+      </c>
+      <c r="W346" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="347" spans="1:24">
@@ -23507,7 +23951,7 @@
         <v>0.116666666</v>
       </c>
     </row>
-    <row r="353" spans="1:25">
+    <row r="353" spans="1:26">
       <c r="A353">
         <v>777</v>
       </c>
@@ -23545,7 +23989,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="354" spans="1:25">
+    <row r="354" spans="1:26" hidden="1">
       <c r="A354">
         <v>345</v>
       </c>
@@ -23610,7 +24054,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="355" spans="1:25">
+    <row r="355" spans="1:26">
       <c r="A355">
         <v>299</v>
       </c>
@@ -23651,7 +24095,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="356" spans="1:25">
+    <row r="356" spans="1:26">
       <c r="A356">
         <v>507</v>
       </c>
@@ -23689,7 +24133,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="357" spans="1:25">
+    <row r="357" spans="1:26">
       <c r="A357">
         <v>160</v>
       </c>
@@ -23730,7 +24174,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="358" spans="1:25">
+    <row r="358" spans="1:26">
       <c r="A358">
         <v>51</v>
       </c>
@@ -23768,7 +24212,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="359" spans="1:25">
+    <row r="359" spans="1:26">
       <c r="A359">
         <v>71</v>
       </c>
@@ -23800,7 +24244,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="360" spans="1:25">
+    <row r="360" spans="1:26">
       <c r="A360">
         <v>154</v>
       </c>
@@ -23832,7 +24276,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="361" spans="1:25">
+    <row r="361" spans="1:26">
       <c r="A361">
         <v>435</v>
       </c>
@@ -23878,6 +24322,12 @@
       <c r="Q361">
         <v>58.195</v>
       </c>
+      <c r="R361">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S361" s="29">
+        <v>28.61</v>
+      </c>
       <c r="V361" t="s">
         <v>937</v>
       </c>
@@ -23887,8 +24337,14 @@
       <c r="X361" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="362" spans="1:25">
+      <c r="Y361" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Z361" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="362" spans="1:26">
       <c r="A362">
         <v>899</v>
       </c>
@@ -23944,7 +24400,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="363" spans="1:25">
+    <row r="363" spans="1:26" hidden="1">
       <c r="A363">
         <v>219</v>
       </c>
@@ -24012,7 +24468,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="364" spans="1:25">
+    <row r="364" spans="1:26" hidden="1">
       <c r="A364">
         <v>546</v>
       </c>
@@ -24080,7 +24536,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="365" spans="1:25">
+    <row r="365" spans="1:26" hidden="1">
       <c r="A365">
         <v>718</v>
       </c>
@@ -24148,7 +24604,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="366" spans="1:25">
+    <row r="366" spans="1:26">
       <c r="A366">
         <v>603</v>
       </c>
@@ -24200,6 +24656,13 @@
       <c r="Q366">
         <v>28.61114615</v>
       </c>
+      <c r="S366" s="13"/>
+      <c r="T366" s="13">
+        <v>7.3312500000000003E-2</v>
+      </c>
+      <c r="U366" s="13">
+        <v>0.38746235200000001</v>
+      </c>
       <c r="V366" t="s">
         <v>884</v>
       </c>
@@ -24209,8 +24672,11 @@
       <c r="X366" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="367" spans="1:25">
+      <c r="Y366" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="367" spans="1:26" hidden="1">
       <c r="A367">
         <v>1007</v>
       </c>
@@ -24287,7 +24753,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="368" spans="1:25">
+    <row r="368" spans="1:26">
       <c r="A368">
         <v>658</v>
       </c>
@@ -25170,7 +25636,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="385" spans="1:24">
+    <row r="385" spans="1:25">
       <c r="A385">
         <v>821</v>
       </c>
@@ -25211,7 +25677,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="386" spans="1:24">
+    <row r="386" spans="1:25">
       <c r="A386">
         <v>977</v>
       </c>
@@ -25243,7 +25709,7 @@
         <v>-3.12</v>
       </c>
     </row>
-    <row r="387" spans="1:24">
+    <row r="387" spans="1:25">
       <c r="A387">
         <v>326</v>
       </c>
@@ -25284,7 +25750,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="388" spans="1:24">
+    <row r="388" spans="1:25">
       <c r="A388">
         <v>534</v>
       </c>
@@ -25325,7 +25791,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="389" spans="1:24">
+    <row r="389" spans="1:25">
       <c r="A389">
         <v>432</v>
       </c>
@@ -25375,7 +25841,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="390" spans="1:24">
+    <row r="390" spans="1:25">
       <c r="A390">
         <v>488</v>
       </c>
@@ -25425,7 +25891,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="391" spans="1:24">
+    <row r="391" spans="1:25">
       <c r="A391">
         <v>222</v>
       </c>
@@ -25466,7 +25932,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="392" spans="1:24">
+    <row r="392" spans="1:25">
       <c r="A392">
         <v>872</v>
       </c>
@@ -25507,7 +25973,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="393" spans="1:24">
+    <row r="393" spans="1:25">
       <c r="A393">
         <v>897</v>
       </c>
@@ -25548,7 +26014,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="394" spans="1:24">
+    <row r="394" spans="1:25">
       <c r="A394">
         <v>611</v>
       </c>
@@ -25588,6 +26054,9 @@
       <c r="M394">
         <v>4.5</v>
       </c>
+      <c r="N394">
+        <v>38.9</v>
+      </c>
       <c r="P394">
         <v>0.33</v>
       </c>
@@ -25609,8 +26078,11 @@
       <c r="X394" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="395" spans="1:24">
+      <c r="Y394" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="395" spans="1:25">
       <c r="A395">
         <v>153</v>
       </c>
@@ -25642,7 +26114,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="396" spans="1:24">
+    <row r="396" spans="1:25">
       <c r="A396">
         <v>692</v>
       </c>
@@ -25686,7 +26158,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="397" spans="1:24">
+    <row r="397" spans="1:25">
       <c r="A397">
         <v>694</v>
       </c>
@@ -25730,7 +26202,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="398" spans="1:24">
+    <row r="398" spans="1:25">
       <c r="A398">
         <v>237</v>
       </c>
@@ -25798,7 +26270,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="399" spans="1:24">
+    <row r="399" spans="1:25">
       <c r="A399">
         <v>232</v>
       </c>
@@ -25839,7 +26311,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="400" spans="1:24">
+    <row r="400" spans="1:25">
       <c r="A400">
         <v>303</v>
       </c>
@@ -26362,6 +26834,9 @@
       <c r="O412">
         <v>0.28949999999999998</v>
       </c>
+      <c r="Q412">
+        <v>37.5</v>
+      </c>
       <c r="R412">
         <v>0.78749999999999998</v>
       </c>
@@ -26370,6 +26845,9 @@
       </c>
       <c r="W412" t="s">
         <v>963</v>
+      </c>
+      <c r="X412" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="413" spans="1:25">
@@ -26418,6 +26896,9 @@
       <c r="O413">
         <v>0.28949999999999998</v>
       </c>
+      <c r="Q413">
+        <v>37.5</v>
+      </c>
       <c r="R413">
         <v>0.78749999999999998</v>
       </c>
@@ -26426,6 +26907,9 @@
       </c>
       <c r="W413" t="s">
         <v>963</v>
+      </c>
+      <c r="X413" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="414" spans="1:25">
@@ -26665,7 +27149,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="420" spans="1:25">
+    <row r="420" spans="1:25" hidden="1">
       <c r="A420">
         <v>518</v>
       </c>
@@ -26736,7 +27220,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="421" spans="1:25">
+    <row r="421" spans="1:25" hidden="1">
       <c r="A421">
         <v>641</v>
       </c>
@@ -26807,7 +27291,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="422" spans="1:25">
+    <row r="422" spans="1:25" hidden="1">
       <c r="A422">
         <v>989</v>
       </c>
@@ -27058,11 +27542,32 @@
       <c r="O427">
         <v>0.254</v>
       </c>
+      <c r="P427">
+        <v>1.5053333E-2</v>
+      </c>
+      <c r="Q427">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="R427">
+        <v>0.24385000000000001</v>
+      </c>
+      <c r="T427">
+        <v>0.133636111</v>
+      </c>
+      <c r="U427">
+        <v>0.21247539400000001</v>
+      </c>
       <c r="V427" t="s">
         <v>927</v>
       </c>
       <c r="W427" t="s">
         <v>1041</v>
+      </c>
+      <c r="X427" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Y427" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="428" spans="1:25">
@@ -27150,7 +27655,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="430" spans="1:25">
+    <row r="430" spans="1:25" hidden="1">
       <c r="A430">
         <v>23</v>
       </c>
@@ -27221,7 +27726,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="431" spans="1:25">
+    <row r="431" spans="1:25" hidden="1">
       <c r="A431">
         <v>581</v>
       </c>
@@ -27752,7 +28257,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="443" spans="1:23">
+    <row r="443" spans="1:23" hidden="1">
       <c r="A443">
         <v>914</v>
       </c>
@@ -28008,7 +28513,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="448" spans="1:23">
+    <row r="448" spans="1:23" hidden="1">
       <c r="A448">
         <v>883</v>
       </c>
@@ -28076,7 +28581,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="449" spans="1:26">
+    <row r="449" spans="1:26" hidden="1">
       <c r="A449">
         <v>935</v>
       </c>
@@ -28374,7 +28879,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="454" spans="1:26">
+    <row r="454" spans="1:26" hidden="1">
       <c r="A454">
         <v>178</v>
       </c>
@@ -28442,7 +28947,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="455" spans="1:26">
+    <row r="455" spans="1:26" hidden="1">
       <c r="A455">
         <v>726</v>
       </c>
@@ -28510,7 +29015,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="456" spans="1:26">
+    <row r="456" spans="1:26" hidden="1">
       <c r="A456">
         <v>477</v>
       </c>
@@ -28584,7 +29089,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="457" spans="1:26">
+    <row r="457" spans="1:26" hidden="1">
       <c r="A457">
         <v>675</v>
       </c>
@@ -28690,7 +29195,7 @@
         <v>-0.33333333299999901</v>
       </c>
     </row>
-    <row r="459" spans="1:26">
+    <row r="459" spans="1:26" hidden="1">
       <c r="A459">
         <v>458</v>
       </c>
@@ -28761,7 +29266,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="460" spans="1:26">
+    <row r="460" spans="1:26" hidden="1">
       <c r="A460">
         <v>900</v>
       </c>
@@ -29128,7 +29633,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="468" spans="1:25">
+    <row r="468" spans="1:25" hidden="1">
       <c r="A468">
         <v>38</v>
       </c>
@@ -29199,7 +29704,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="469" spans="1:25">
+    <row r="469" spans="1:25" hidden="1">
       <c r="A469">
         <v>519</v>
       </c>
@@ -29270,7 +29775,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="470" spans="1:25">
+    <row r="470" spans="1:25" hidden="1">
       <c r="A470">
         <v>349</v>
       </c>
@@ -29344,7 +29849,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="471" spans="1:25">
+    <row r="471" spans="1:25" hidden="1">
       <c r="A471">
         <v>710</v>
       </c>
@@ -29418,7 +29923,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="472" spans="1:25">
+    <row r="472" spans="1:25" hidden="1">
       <c r="A472">
         <v>740</v>
       </c>
@@ -29492,7 +29997,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="473" spans="1:25">
+    <row r="473" spans="1:25" hidden="1">
       <c r="A473">
         <v>962</v>
       </c>
@@ -29704,7 +30209,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="477" spans="1:25">
+    <row r="477" spans="1:25" hidden="1">
       <c r="A477">
         <v>380</v>
       </c>
@@ -30538,12 +31043,21 @@
       <c r="L493">
         <v>5.9839999999999997E-2</v>
       </c>
+      <c r="M493">
+        <v>28.1</v>
+      </c>
       <c r="N493">
         <v>27.003003750000001</v>
       </c>
       <c r="Q493">
         <v>307.39</v>
       </c>
+      <c r="R493">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S493">
+        <v>214.1</v>
+      </c>
       <c r="V493" t="s">
         <v>928</v>
       </c>
@@ -30552,6 +31066,9 @@
       </c>
       <c r="X493" t="s">
         <v>1042</v>
+      </c>
+      <c r="Y493" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="494" spans="1:25">
@@ -30970,7 +31487,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="504" spans="1:24">
+    <row r="504" spans="1:24" hidden="1">
       <c r="A504">
         <v>811</v>
       </c>
@@ -31322,7 +31839,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="512" spans="1:24">
+    <row r="512" spans="1:24" hidden="1">
       <c r="A512">
         <v>979</v>
       </c>
@@ -31726,7 +32243,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="519" spans="1:25">
+    <row r="519" spans="1:25" hidden="1">
       <c r="A519">
         <v>730</v>
       </c>
@@ -31897,7 +32414,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="522" spans="1:25">
+    <row r="522" spans="1:25" hidden="1">
       <c r="A522">
         <v>780</v>
       </c>
@@ -31968,7 +32485,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="523" spans="1:25">
+    <row r="523" spans="1:25" hidden="1">
       <c r="A523">
         <v>863</v>
       </c>
@@ -32298,7 +32815,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="529" spans="1:25">
+    <row r="529" spans="1:26">
       <c r="A529">
         <v>62</v>
       </c>
@@ -32339,7 +32856,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="530" spans="1:25">
+    <row r="530" spans="1:26">
       <c r="A530">
         <v>158</v>
       </c>
@@ -32380,7 +32897,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="531" spans="1:25">
+    <row r="531" spans="1:26">
       <c r="A531">
         <v>412</v>
       </c>
@@ -32412,7 +32929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:25">
+    <row r="532" spans="1:26" hidden="1">
       <c r="A532">
         <v>547</v>
       </c>
@@ -32480,7 +32997,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="533" spans="1:25">
+    <row r="533" spans="1:26" hidden="1">
       <c r="A533">
         <v>656</v>
       </c>
@@ -32548,7 +33065,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="534" spans="1:25">
+    <row r="534" spans="1:26">
       <c r="A534">
         <v>1</v>
       </c>
@@ -32595,7 +33112,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="535" spans="1:25">
+    <row r="535" spans="1:26">
       <c r="A535">
         <v>1009</v>
       </c>
@@ -32642,7 +33159,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="536" spans="1:25">
+    <row r="536" spans="1:26">
       <c r="A536">
         <v>771</v>
       </c>
@@ -32694,6 +33211,9 @@
       <c r="S536">
         <v>60.918771572705502</v>
       </c>
+      <c r="T536" s="13">
+        <v>8.5216666999999996E-2</v>
+      </c>
       <c r="U536">
         <v>0.30925577804166698</v>
       </c>
@@ -32709,8 +33229,11 @@
       <c r="Y536" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="537" spans="1:25">
+      <c r="Z536" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="537" spans="1:26">
       <c r="A537">
         <v>425</v>
       </c>
@@ -32778,7 +33301,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="538" spans="1:25">
+    <row r="538" spans="1:26">
       <c r="A538">
         <v>65</v>
       </c>
@@ -32819,7 +33342,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="539" spans="1:25">
+    <row r="539" spans="1:26">
       <c r="A539">
         <v>898</v>
       </c>
@@ -32860,7 +33383,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="540" spans="1:25">
+    <row r="540" spans="1:26">
       <c r="A540">
         <v>428</v>
       </c>
@@ -32898,7 +33421,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="541" spans="1:25">
+    <row r="541" spans="1:26">
       <c r="A541">
         <v>52</v>
       </c>
@@ -32939,7 +33462,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="542" spans="1:25">
+    <row r="542" spans="1:26">
       <c r="A542">
         <v>870</v>
       </c>
@@ -32983,7 +33506,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="543" spans="1:25">
+    <row r="543" spans="1:26">
       <c r="A543">
         <v>905</v>
       </c>
@@ -33027,7 +33550,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="544" spans="1:25">
+    <row r="544" spans="1:26">
       <c r="A544">
         <v>916</v>
       </c>
@@ -33147,7 +33670,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="547" spans="1:24">
+    <row r="547" spans="1:24" hidden="1">
       <c r="A547">
         <v>185</v>
       </c>
@@ -33212,7 +33735,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="548" spans="1:24">
+    <row r="548" spans="1:24" hidden="1">
       <c r="A548">
         <v>290</v>
       </c>
@@ -33277,7 +33800,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="549" spans="1:24">
+    <row r="549" spans="1:24" hidden="1">
       <c r="A549">
         <v>431</v>
       </c>
@@ -33342,7 +33865,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="550" spans="1:24">
+    <row r="550" spans="1:24" hidden="1">
       <c r="A550">
         <v>736</v>
       </c>
@@ -33407,7 +33930,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="551" spans="1:24">
+    <row r="551" spans="1:24" hidden="1">
       <c r="A551">
         <v>999</v>
       </c>
@@ -33812,7 +34335,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="560" spans="1:24">
+    <row r="560" spans="1:24" hidden="1">
       <c r="A560">
         <v>910</v>
       </c>
@@ -34038,7 +34561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:25">
+    <row r="565" spans="1:25" hidden="1">
       <c r="A565">
         <v>313</v>
       </c>
@@ -34090,6 +34613,15 @@
       <c r="Q565">
         <v>5.55</v>
       </c>
+      <c r="R565">
+        <v>0.4478375</v>
+      </c>
+      <c r="S565">
+        <v>15.832904149625</v>
+      </c>
+      <c r="T565">
+        <v>0.43815720457500001</v>
+      </c>
       <c r="U565">
         <v>0.26500000000000001</v>
       </c>
@@ -34098,6 +34630,9 @@
       </c>
       <c r="W565" t="s">
         <v>977</v>
+      </c>
+      <c r="X565" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="566" spans="1:25">
@@ -34206,7 +34741,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="568" spans="1:25">
+    <row r="568" spans="1:25" hidden="1">
       <c r="A568">
         <v>454</v>
       </c>
@@ -34280,7 +34815,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="569" spans="1:25">
+    <row r="569" spans="1:25" hidden="1">
       <c r="A569">
         <v>797</v>
       </c>
@@ -34354,7 +34889,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="570" spans="1:25">
+    <row r="570" spans="1:25" hidden="1">
       <c r="A570">
         <v>813</v>
       </c>
@@ -34428,7 +34963,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="571" spans="1:25">
+    <row r="571" spans="1:25" hidden="1">
       <c r="A571">
         <v>1001</v>
       </c>
@@ -34502,7 +35037,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="572" spans="1:25">
+    <row r="572" spans="1:25" hidden="1">
       <c r="A572">
         <v>1075</v>
       </c>
@@ -34576,7 +35111,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="573" spans="1:25">
+    <row r="573" spans="1:25" hidden="1">
       <c r="A573">
         <v>1080</v>
       </c>
@@ -34720,6 +35255,9 @@
       <c r="L575">
         <v>0.2</v>
       </c>
+      <c r="M575" s="13">
+        <v>21.3333333333333</v>
+      </c>
       <c r="N575">
         <v>11.2022046436</v>
       </c>
@@ -34732,6 +35270,15 @@
       <c r="Q575">
         <v>6.4953397370000001</v>
       </c>
+      <c r="R575" s="13">
+        <v>0.23430000000000001</v>
+      </c>
+      <c r="S575" s="13">
+        <v>53.588537336000002</v>
+      </c>
+      <c r="T575" s="13">
+        <v>0.47420373119999998</v>
+      </c>
       <c r="V575" t="s">
         <v>847</v>
       </c>
@@ -34740,6 +35287,9 @@
       </c>
       <c r="X575" t="s">
         <v>936</v>
+      </c>
+      <c r="Y575" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="576" spans="1:25">
@@ -34774,7 +35324,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="577" spans="1:25">
+    <row r="577" spans="1:26">
       <c r="A577">
         <v>1058</v>
       </c>
@@ -34817,12 +35367,21 @@
       <c r="O577">
         <v>0.82499999999999996</v>
       </c>
+      <c r="Q577">
+        <v>20.84656652</v>
+      </c>
       <c r="R577">
         <v>0.61404999999999998</v>
       </c>
       <c r="S577">
         <v>177.00216984192301</v>
       </c>
+      <c r="T577">
+        <v>2.9929167E-2</v>
+      </c>
+      <c r="U577">
+        <v>0.21543039999999999</v>
+      </c>
       <c r="V577" t="s">
         <v>834</v>
       </c>
@@ -34835,8 +35394,11 @@
       <c r="Y577" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="578" spans="1:25">
+      <c r="Z577" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="578" spans="1:26" hidden="1">
       <c r="A578">
         <v>449</v>
       </c>
@@ -34907,7 +35469,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="579" spans="1:25">
+    <row r="579" spans="1:26">
       <c r="A579">
         <v>834</v>
       </c>
@@ -34954,7 +35516,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="580" spans="1:25">
+    <row r="580" spans="1:26">
       <c r="A580">
         <v>809</v>
       </c>
@@ -35019,7 +35581,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="581" spans="1:25">
+    <row r="581" spans="1:26">
       <c r="A581">
         <v>711</v>
       </c>
@@ -35051,7 +35613,7 @@
         <v>-10.666666666999999</v>
       </c>
     </row>
-    <row r="582" spans="1:25">
+    <row r="582" spans="1:26">
       <c r="A582">
         <v>1046</v>
       </c>
@@ -35107,7 +35669,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="583" spans="1:25">
+    <row r="583" spans="1:26">
       <c r="A583">
         <v>663</v>
       </c>
@@ -35138,6 +35700,9 @@
       <c r="J583">
         <v>0</v>
       </c>
+      <c r="K583">
+        <v>33.6</v>
+      </c>
       <c r="L583">
         <v>0.85833333333333295</v>
       </c>
@@ -35147,8 +35712,11 @@
       <c r="V583" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="584" spans="1:25">
+      <c r="W583" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="584" spans="1:26" hidden="1">
       <c r="A584">
         <v>560</v>
       </c>
@@ -35216,7 +35784,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="585" spans="1:25">
+    <row r="585" spans="1:26" hidden="1">
       <c r="A585">
         <v>996</v>
       </c>
@@ -35284,7 +35852,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="586" spans="1:25">
+    <row r="586" spans="1:26">
       <c r="A586">
         <v>652</v>
       </c>
@@ -35322,7 +35890,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="587" spans="1:25">
+    <row r="587" spans="1:26">
       <c r="A587">
         <v>638</v>
       </c>
@@ -35390,7 +35958,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="588" spans="1:25">
+    <row r="588" spans="1:26">
       <c r="A588">
         <v>802</v>
       </c>
@@ -35428,7 +35996,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="589" spans="1:25">
+    <row r="589" spans="1:26" hidden="1">
       <c r="A589">
         <v>128</v>
       </c>
@@ -35496,7 +36064,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="590" spans="1:25">
+    <row r="590" spans="1:26" hidden="1">
       <c r="A590">
         <v>680</v>
       </c>
@@ -35564,7 +36132,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="591" spans="1:25">
+    <row r="591" spans="1:26">
       <c r="A591">
         <v>138</v>
       </c>
@@ -35596,7 +36164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:25">
+    <row r="592" spans="1:26">
       <c r="A592">
         <v>156</v>
       </c>
@@ -35628,7 +36196,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="593" spans="1:24">
+    <row r="593" spans="1:25">
       <c r="A593">
         <v>682</v>
       </c>
@@ -35660,7 +36228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="594" spans="1:24">
+    <row r="594" spans="1:25">
       <c r="A594">
         <v>823</v>
       </c>
@@ -35707,7 +36275,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="595" spans="1:24">
+    <row r="595" spans="1:25">
       <c r="A595">
         <v>961</v>
       </c>
@@ -35760,7 +36328,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="596" spans="1:24">
+    <row r="596" spans="1:25">
       <c r="A596">
         <v>53</v>
       </c>
@@ -35801,7 +36369,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="597" spans="1:24">
+    <row r="597" spans="1:25" hidden="1">
       <c r="A597">
         <v>751</v>
       </c>
@@ -35872,7 +36440,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="598" spans="1:24">
+    <row r="598" spans="1:25">
       <c r="A598">
         <v>1018</v>
       </c>
@@ -35913,7 +36481,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="599" spans="1:24">
+    <row r="599" spans="1:25">
       <c r="A599">
         <v>383</v>
       </c>
@@ -35953,14 +36521,20 @@
       <c r="N599">
         <v>15.8</v>
       </c>
+      <c r="R599">
+        <v>1</v>
+      </c>
       <c r="V599" t="s">
         <v>925</v>
       </c>
       <c r="W599" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="600" spans="1:24">
+      <c r="X599" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="600" spans="1:25" hidden="1">
       <c r="A600">
         <v>199</v>
       </c>
@@ -36025,7 +36599,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="601" spans="1:24">
+    <row r="601" spans="1:25" hidden="1">
       <c r="A601">
         <v>610</v>
       </c>
@@ -36090,7 +36664,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="602" spans="1:24">
+    <row r="602" spans="1:25">
       <c r="A602">
         <v>249</v>
       </c>
@@ -36122,7 +36696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:24">
+    <row r="603" spans="1:25">
       <c r="A603">
         <v>1041</v>
       </c>
@@ -36154,7 +36728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:24">
+    <row r="604" spans="1:25">
       <c r="A604">
         <v>124</v>
       </c>
@@ -36195,7 +36769,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="605" spans="1:24">
+    <row r="605" spans="1:25">
       <c r="A605">
         <v>810</v>
       </c>
@@ -36263,7 +36837,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="606" spans="1:24">
+    <row r="606" spans="1:25">
       <c r="A606">
         <v>474</v>
       </c>
@@ -36295,7 +36869,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="607" spans="1:24">
+    <row r="607" spans="1:25">
       <c r="A607">
         <v>1003</v>
       </c>
@@ -36327,7 +36901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:24">
+    <row r="608" spans="1:25" hidden="1">
       <c r="A608">
         <v>90</v>
       </c>
@@ -36364,6 +36938,9 @@
       <c r="L608">
         <v>9.2499999899999991E-2</v>
       </c>
+      <c r="M608">
+        <v>11.75</v>
+      </c>
       <c r="N608" s="2">
         <v>11.0885986775</v>
       </c>
@@ -36379,6 +36956,9 @@
       <c r="R608">
         <v>0.60682499999999995</v>
       </c>
+      <c r="S608" s="13">
+        <v>89.937439213333306</v>
+      </c>
       <c r="T608">
         <v>0.16753100000000001</v>
       </c>
@@ -36394,8 +36974,11 @@
       <c r="X608" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="609" spans="1:25">
+      <c r="Y608" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="609" spans="1:26">
       <c r="A609">
         <v>888</v>
       </c>
@@ -36448,7 +37031,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="610" spans="1:25">
+    <row r="610" spans="1:26">
       <c r="A610">
         <v>479</v>
       </c>
@@ -36500,6 +37083,12 @@
       <c r="R610">
         <v>0.13550000000000001</v>
       </c>
+      <c r="S610" s="29">
+        <v>120.66</v>
+      </c>
+      <c r="T610" s="29">
+        <v>0.52</v>
+      </c>
       <c r="U610">
         <v>0.67213114799999996</v>
       </c>
@@ -36515,8 +37104,11 @@
       <c r="Y610" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="611" spans="1:25">
+      <c r="Z610" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="611" spans="1:26">
       <c r="A611">
         <v>422</v>
       </c>
@@ -36560,7 +37152,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="612" spans="1:25">
+    <row r="612" spans="1:26">
       <c r="A612">
         <v>280</v>
       </c>
@@ -36616,7 +37208,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="613" spans="1:25">
+    <row r="613" spans="1:26">
       <c r="A613">
         <v>582</v>
       </c>
@@ -36672,7 +37264,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="614" spans="1:25">
+    <row r="614" spans="1:26">
       <c r="A614">
         <v>703</v>
       </c>
@@ -36728,7 +37320,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="615" spans="1:25">
+    <row r="615" spans="1:26">
       <c r="A615">
         <v>94</v>
       </c>
@@ -36766,7 +37358,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="616" spans="1:25">
+    <row r="616" spans="1:26">
       <c r="A616">
         <v>376</v>
       </c>
@@ -36816,7 +37408,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="617" spans="1:25">
+    <row r="617" spans="1:26">
       <c r="A617">
         <v>1031</v>
       </c>
@@ -36863,7 +37455,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="618" spans="1:25">
+    <row r="618" spans="1:26">
       <c r="A618">
         <v>1067</v>
       </c>
@@ -36910,7 +37502,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="619" spans="1:25">
+    <row r="619" spans="1:26">
       <c r="A619">
         <v>639</v>
       </c>
@@ -36963,7 +37555,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="620" spans="1:25">
+    <row r="620" spans="1:26">
       <c r="A620">
         <v>404</v>
       </c>
@@ -37000,6 +37592,9 @@
       <c r="L620">
         <v>9.3666666999999995E-2</v>
       </c>
+      <c r="M620">
+        <v>16.25</v>
+      </c>
       <c r="N620">
         <v>10.7915154625</v>
       </c>
@@ -37012,6 +37607,15 @@
       <c r="Q620">
         <v>107.88215099999999</v>
       </c>
+      <c r="R620" s="13">
+        <v>0.2063875</v>
+      </c>
+      <c r="S620" s="13">
+        <v>222.52280973750001</v>
+      </c>
+      <c r="T620" s="13">
+        <v>0.16222978425000001</v>
+      </c>
       <c r="V620" t="s">
         <v>896</v>
       </c>
@@ -37021,8 +37625,11 @@
       <c r="X620" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="621" spans="1:25">
+      <c r="Y620" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="621" spans="1:26">
       <c r="A621">
         <v>442</v>
       </c>
@@ -37059,6 +37666,9 @@
       <c r="L621">
         <v>9.3666666999999995E-2</v>
       </c>
+      <c r="M621">
+        <v>16.25</v>
+      </c>
       <c r="N621">
         <v>10.7915154625</v>
       </c>
@@ -37071,6 +37681,15 @@
       <c r="Q621">
         <v>107.88215099999999</v>
       </c>
+      <c r="R621" s="13">
+        <v>0.2063875</v>
+      </c>
+      <c r="S621" s="13">
+        <v>222.52280973750001</v>
+      </c>
+      <c r="T621" s="13">
+        <v>0.16222978425000001</v>
+      </c>
       <c r="V621" t="s">
         <v>896</v>
       </c>
@@ -37081,7 +37700,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="622" spans="1:25">
+    <row r="622" spans="1:26">
       <c r="A622">
         <v>134</v>
       </c>
@@ -37113,7 +37732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:25">
+    <row r="623" spans="1:26">
       <c r="A623">
         <v>25</v>
       </c>
@@ -37145,7 +37764,7 @@
         <v>-0.52585923599999995</v>
       </c>
     </row>
-    <row r="624" spans="1:25">
+    <row r="624" spans="1:26">
       <c r="A624">
         <v>164</v>
       </c>
@@ -37209,7 +37828,7 @@
         <v>5.3666666669999996</v>
       </c>
     </row>
-    <row r="626" spans="1:25">
+    <row r="626" spans="1:25" hidden="1">
       <c r="A626">
         <v>291</v>
       </c>
@@ -37286,7 +37905,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="627" spans="1:25">
+    <row r="627" spans="1:25" hidden="1">
       <c r="A627">
         <v>1032</v>
       </c>
@@ -37487,7 +38106,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="631" spans="1:25">
+    <row r="631" spans="1:25" hidden="1">
       <c r="A631">
         <v>18</v>
       </c>
@@ -37555,7 +38174,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="632" spans="1:25">
+    <row r="632" spans="1:25" hidden="1">
       <c r="A632">
         <v>197</v>
       </c>
@@ -37623,7 +38242,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="633" spans="1:25">
+    <row r="633" spans="1:25" hidden="1">
       <c r="A633">
         <v>441</v>
       </c>
@@ -37691,7 +38310,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="634" spans="1:25">
+    <row r="634" spans="1:25" hidden="1">
       <c r="A634">
         <v>889</v>
       </c>
@@ -37949,11 +38568,17 @@
       <c r="Q638">
         <v>132.06</v>
       </c>
+      <c r="S638">
+        <v>132.06</v>
+      </c>
       <c r="V638" t="s">
         <v>937</v>
       </c>
       <c r="W638" t="s">
         <v>985</v>
+      </c>
+      <c r="X638" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="639" spans="1:25">
@@ -38002,11 +38627,17 @@
       <c r="Q639">
         <v>132.06</v>
       </c>
+      <c r="S639">
+        <v>132.06</v>
+      </c>
       <c r="V639" t="s">
         <v>937</v>
       </c>
       <c r="W639" t="s">
         <v>985</v>
+      </c>
+      <c r="X639" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="640" spans="1:25">
@@ -38046,11 +38677,23 @@
       <c r="L640">
         <v>0.22500000000000001</v>
       </c>
+      <c r="M640">
+        <v>12.5</v>
+      </c>
       <c r="N640">
         <v>25.5</v>
       </c>
+      <c r="R640">
+        <v>0.21</v>
+      </c>
+      <c r="S640">
+        <v>565.6</v>
+      </c>
       <c r="V640" t="s">
         <v>937</v>
+      </c>
+      <c r="W640" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="641" spans="1:25">
@@ -38646,7 +39289,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="655" spans="1:25">
+    <row r="655" spans="1:25" hidden="1">
       <c r="A655">
         <v>278</v>
       </c>
@@ -38720,7 +39363,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="656" spans="1:25">
+    <row r="656" spans="1:25" hidden="1">
       <c r="A656">
         <v>569</v>
       </c>
@@ -38794,7 +39437,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="657" spans="1:25">
+    <row r="657" spans="1:25" hidden="1">
       <c r="A657">
         <v>865</v>
       </c>
@@ -38868,7 +39511,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="658" spans="1:25">
+    <row r="658" spans="1:25" hidden="1">
       <c r="A658">
         <v>949</v>
       </c>
@@ -38942,7 +39585,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="659" spans="1:25">
+    <row r="659" spans="1:25" hidden="1">
       <c r="A659">
         <v>105</v>
       </c>
@@ -39016,7 +39659,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="660" spans="1:25">
+    <row r="660" spans="1:25" hidden="1">
       <c r="A660">
         <v>152</v>
       </c>
@@ -39090,7 +39733,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="661" spans="1:25">
+    <row r="661" spans="1:25" hidden="1">
       <c r="A661">
         <v>936</v>
       </c>
@@ -39376,7 +40019,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="666" spans="1:25">
+    <row r="666" spans="1:25" hidden="1">
       <c r="A666">
         <v>267</v>
       </c>
@@ -39630,6 +40273,15 @@
       <c r="J671">
         <v>-1.38</v>
       </c>
+      <c r="L671">
+        <v>0.15</v>
+      </c>
+      <c r="N671" s="28">
+        <v>11.193603452380952</v>
+      </c>
+      <c r="V671" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="672" spans="1:25">
       <c r="A672">
@@ -39796,7 +40448,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="675" spans="1:25">
+    <row r="675" spans="1:25" hidden="1">
       <c r="A675">
         <v>785</v>
       </c>
@@ -40028,7 +40680,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="680" spans="1:25">
+    <row r="680" spans="1:25" hidden="1">
       <c r="A680">
         <v>997</v>
       </c>
@@ -40535,7 +41187,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="692" spans="1:25">
+    <row r="692" spans="1:25" hidden="1">
       <c r="A692">
         <v>728</v>
       </c>
@@ -40606,7 +41258,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="693" spans="1:25">
+    <row r="693" spans="1:25" hidden="1">
       <c r="A693">
         <v>1017</v>
       </c>
@@ -41675,7 +42327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:25">
+    <row r="717" spans="1:25" hidden="1">
       <c r="A717">
         <v>1064</v>
       </c>
@@ -41951,7 +42603,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="723" spans="1:26">
+    <row r="723" spans="1:26" hidden="1">
       <c r="A723">
         <v>713</v>
       </c>
@@ -43141,6 +43793,9 @@
       <c r="L752">
         <v>2.8250000000000001E-2</v>
       </c>
+      <c r="M752">
+        <v>11.8</v>
+      </c>
       <c r="N752">
         <v>13.950708768</v>
       </c>
@@ -43156,6 +43811,9 @@
       <c r="R752">
         <v>0.26469999999999999</v>
       </c>
+      <c r="S752">
+        <v>47.898185638000001</v>
+      </c>
       <c r="T752">
         <v>0.18045454499999999</v>
       </c>
@@ -43164,6 +43822,9 @@
       </c>
       <c r="W752" t="s">
         <v>1017</v>
+      </c>
+      <c r="X752" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="753" spans="1:25">
@@ -43198,7 +43859,7 @@
         <v>3.3333333299999999</v>
       </c>
     </row>
-    <row r="754" spans="1:25">
+    <row r="754" spans="1:25" hidden="1">
       <c r="A754">
         <v>567</v>
       </c>
@@ -43313,47 +43974,47 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="756" spans="1:25" s="18" customFormat="1">
-      <c r="A756" s="18">
+    <row r="756" spans="1:25" s="19" customFormat="1">
+      <c r="A756" s="19">
         <v>31</v>
       </c>
-      <c r="B756" s="18" t="s">
+      <c r="B756" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C756" s="18" t="s">
+      <c r="C756" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D756" s="18">
+      <c r="D756" s="19">
         <v>0.69929288000000001</v>
       </c>
-      <c r="E756" s="18">
+      <c r="E756" s="19">
         <v>0.41075845</v>
       </c>
-      <c r="F756" s="18">
+      <c r="F756" s="19">
         <v>0.44768225</v>
       </c>
-      <c r="G756" s="18">
+      <c r="G756" s="19">
         <v>6.8728499999999998E-2</v>
       </c>
-      <c r="H756" s="18">
+      <c r="H756" s="19">
         <v>-0.34202995000000003</v>
       </c>
-      <c r="I756" s="18">
+      <c r="I756" s="19">
         <v>-0.25161063</v>
       </c>
-      <c r="J756" s="18">
+      <c r="J756" s="19">
         <v>-9.0419319999999997E-2</v>
       </c>
-      <c r="K756" s="18">
+      <c r="K756" s="19">
         <v>19.190000000000001</v>
       </c>
       <c r="N756">
         <v>20.703933750000001</v>
       </c>
-      <c r="V756" s="18" t="s">
+      <c r="V756" s="19" t="s">
         <v>1033</v>
       </c>
-      <c r="W756" s="18" t="s">
+      <c r="W756" s="19" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -43426,7 +44087,7 @@
       <c r="L758">
         <v>0.1</v>
       </c>
-      <c r="N758" s="16">
+      <c r="N758" s="17">
         <v>21.266666666666666</v>
       </c>
       <c r="V758" t="s">
@@ -43436,7 +44097,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="759" spans="1:25">
+    <row r="759" spans="1:25" hidden="1">
       <c r="A759">
         <v>915</v>
       </c>
@@ -43504,7 +44165,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="760" spans="1:25">
+    <row r="760" spans="1:25" hidden="1">
       <c r="A760">
         <v>867</v>
       </c>
@@ -43666,7 +44327,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="763" spans="1:25">
+    <row r="763" spans="1:25" hidden="1">
       <c r="A763">
         <v>503</v>
       </c>
@@ -43734,7 +44395,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="764" spans="1:25">
+    <row r="764" spans="1:25" hidden="1">
       <c r="A764">
         <v>521</v>
       </c>
@@ -44048,7 +44709,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="771" spans="1:25">
+    <row r="771" spans="1:25" hidden="1">
       <c r="A771">
         <v>22</v>
       </c>
@@ -44119,7 +44780,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="772" spans="1:25">
+    <row r="772" spans="1:25" hidden="1">
       <c r="A772">
         <v>27</v>
       </c>
@@ -44190,7 +44851,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="773" spans="1:25">
+    <row r="773" spans="1:25" hidden="1">
       <c r="A773">
         <v>357</v>
       </c>
@@ -44261,7 +44922,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="774" spans="1:25">
+    <row r="774" spans="1:25" hidden="1">
       <c r="A774">
         <v>640</v>
       </c>
@@ -44332,7 +44993,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="775" spans="1:25">
+    <row r="775" spans="1:25" hidden="1">
       <c r="A775">
         <v>768</v>
       </c>
@@ -44403,7 +45064,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="776" spans="1:25">
+    <row r="776" spans="1:25" hidden="1">
       <c r="A776">
         <v>950</v>
       </c>
@@ -44474,35 +45135,35 @@
         <v>972</v>
       </c>
     </row>
-    <row r="777" spans="1:25" s="15" customFormat="1">
-      <c r="A777" s="15">
+    <row r="777" spans="1:25" s="16" customFormat="1">
+      <c r="A777" s="16">
         <v>415</v>
       </c>
-      <c r="B777" s="15" t="s">
+      <c r="B777" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C777" s="15" t="s">
+      <c r="C777" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="D777" s="15">
-        <v>0</v>
-      </c>
-      <c r="E777" s="15">
+      <c r="D777" s="16">
+        <v>0</v>
+      </c>
+      <c r="E777" s="16">
         <v>1.5</v>
       </c>
-      <c r="F777" s="15">
-        <v>1</v>
-      </c>
-      <c r="G777" s="15">
-        <v>0</v>
-      </c>
-      <c r="H777" s="15">
+      <c r="F777" s="16">
+        <v>1</v>
+      </c>
+      <c r="G777" s="16">
+        <v>0</v>
+      </c>
+      <c r="H777" s="16">
         <v>-1.5</v>
       </c>
-      <c r="I777" s="15">
-        <v>1</v>
-      </c>
-      <c r="J777" s="15">
+      <c r="I777" s="16">
+        <v>1</v>
+      </c>
+      <c r="J777" s="16">
         <v>-2.5</v>
       </c>
     </row>
@@ -44549,10 +45210,10 @@
       <c r="O778">
         <v>0.115</v>
       </c>
-      <c r="V778" s="15" t="s">
+      <c r="V778" s="16" t="s">
         <v>1027</v>
       </c>
-      <c r="W778" s="15" t="s">
+      <c r="W778" s="16" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -44599,14 +45260,14 @@
       <c r="O779">
         <v>0.115</v>
       </c>
-      <c r="V779" s="15" t="s">
+      <c r="V779" s="16" t="s">
         <v>1027</v>
       </c>
-      <c r="W779" s="15" t="s">
+      <c r="W779" s="16" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="780" spans="1:25">
+    <row r="780" spans="1:25" hidden="1">
       <c r="A780">
         <v>110</v>
       </c>
@@ -44671,7 +45332,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="781" spans="1:25">
+    <row r="781" spans="1:25" hidden="1">
       <c r="A781">
         <v>173</v>
       </c>
@@ -44736,7 +45397,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="782" spans="1:25">
+    <row r="782" spans="1:25" hidden="1">
       <c r="A782">
         <v>256</v>
       </c>
@@ -44801,7 +45462,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="783" spans="1:25">
+    <row r="783" spans="1:25" hidden="1">
       <c r="A783">
         <v>1045</v>
       </c>
@@ -44904,7 +45565,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="785" spans="1:25">
+    <row r="785" spans="1:26">
       <c r="A785">
         <v>818</v>
       </c>
@@ -44942,7 +45603,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="786" spans="1:25">
+    <row r="786" spans="1:26">
       <c r="A786">
         <v>623</v>
       </c>
@@ -44988,6 +45649,12 @@
       <c r="O786">
         <v>0.254</v>
       </c>
+      <c r="R786">
+        <v>0.8</v>
+      </c>
+      <c r="S786">
+        <v>248.1</v>
+      </c>
       <c r="U786">
         <v>0.31325936199999999</v>
       </c>
@@ -45000,8 +45667,14 @@
       <c r="X786" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="787" spans="1:25">
+      <c r="Y786" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Z786" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="787" spans="1:26">
       <c r="A787">
         <v>276</v>
       </c>
@@ -45060,7 +45733,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="788" spans="1:25">
+    <row r="788" spans="1:26">
       <c r="A788">
         <v>1059</v>
       </c>
@@ -45112,6 +45785,9 @@
       <c r="R788">
         <v>0.53159999999999996</v>
       </c>
+      <c r="S788" s="29">
+        <v>54.79</v>
+      </c>
       <c r="U788">
         <v>0.39186231444444403</v>
       </c>
@@ -45124,8 +45800,11 @@
       <c r="X788" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="789" spans="1:25">
+      <c r="Y788" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="789" spans="1:26">
       <c r="A789">
         <v>1083</v>
       </c>
@@ -45190,7 +45869,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="790" spans="1:25">
+    <row r="790" spans="1:26">
       <c r="A790">
         <v>893</v>
       </c>
@@ -45234,7 +45913,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="791" spans="1:25">
+    <row r="791" spans="1:26">
       <c r="A791">
         <v>637</v>
       </c>
@@ -45272,7 +45951,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="792" spans="1:25">
+    <row r="792" spans="1:26">
       <c r="A792">
         <v>331</v>
       </c>
@@ -45316,7 +45995,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="793" spans="1:25">
+    <row r="793" spans="1:26">
       <c r="A793">
         <v>392</v>
       </c>
@@ -45372,7 +46051,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="794" spans="1:25">
+    <row r="794" spans="1:26" hidden="1">
       <c r="A794">
         <v>111</v>
       </c>
@@ -45446,7 +46125,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="795" spans="1:25">
+    <row r="795" spans="1:26" hidden="1">
       <c r="A795">
         <v>515</v>
       </c>
@@ -45520,7 +46199,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="796" spans="1:25">
+    <row r="796" spans="1:26" hidden="1">
       <c r="A796">
         <v>579</v>
       </c>
@@ -45594,7 +46273,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="797" spans="1:25">
+    <row r="797" spans="1:26" hidden="1">
       <c r="A797">
         <v>622</v>
       </c>
@@ -45668,7 +46347,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="798" spans="1:25">
+    <row r="798" spans="1:26" hidden="1">
       <c r="A798">
         <v>667</v>
       </c>
@@ -45742,7 +46421,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="799" spans="1:25">
+    <row r="799" spans="1:26" hidden="1">
       <c r="A799">
         <v>709</v>
       </c>
@@ -45816,7 +46495,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="800" spans="1:25">
+    <row r="800" spans="1:26" hidden="1">
       <c r="A800">
         <v>926</v>
       </c>
@@ -45890,7 +46569,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="801" spans="1:24">
+    <row r="801" spans="1:25">
       <c r="A801">
         <v>293</v>
       </c>
@@ -45927,6 +46606,9 @@
       <c r="L801">
         <v>0.42671999999999999</v>
       </c>
+      <c r="M801">
+        <v>8.6666666666666696</v>
+      </c>
       <c r="N801">
         <v>14.778208379000001</v>
       </c>
@@ -45936,6 +46618,9 @@
       <c r="R801">
         <v>0.54</v>
       </c>
+      <c r="S801">
+        <v>185.37950988333299</v>
+      </c>
       <c r="T801">
         <v>0.36057029200000001</v>
       </c>
@@ -45948,8 +46633,11 @@
       <c r="X801" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="802" spans="1:24">
+      <c r="Y801" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="802" spans="1:25">
       <c r="A802">
         <v>783</v>
       </c>
@@ -45986,6 +46674,9 @@
       <c r="L802">
         <v>0.42671999999999999</v>
       </c>
+      <c r="M802">
+        <v>8.6666666666666696</v>
+      </c>
       <c r="N802">
         <v>14.778208379000001</v>
       </c>
@@ -45995,6 +46686,9 @@
       <c r="R802">
         <v>0.54</v>
       </c>
+      <c r="S802">
+        <v>185.37950988333299</v>
+      </c>
       <c r="T802">
         <v>0.36057029200000001</v>
       </c>
@@ -46007,8 +46701,11 @@
       <c r="X802" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="803" spans="1:24">
+      <c r="Y802" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="803" spans="1:25">
       <c r="A803">
         <v>882</v>
       </c>
@@ -46045,6 +46742,9 @@
       <c r="L803">
         <v>0.42671999999999999</v>
       </c>
+      <c r="M803">
+        <v>8.6666666666666696</v>
+      </c>
       <c r="N803">
         <v>14.778208379000001</v>
       </c>
@@ -46054,6 +46754,9 @@
       <c r="R803">
         <v>0.54</v>
       </c>
+      <c r="S803">
+        <v>185.37950988333299</v>
+      </c>
       <c r="T803">
         <v>0.36057029200000001</v>
       </c>
@@ -46066,8 +46769,11 @@
       <c r="X803" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="804" spans="1:24">
+      <c r="Y803" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="804" spans="1:25">
       <c r="A804">
         <v>805</v>
       </c>
@@ -46099,7 +46805,7 @@
         <v>-0.66666667000000002</v>
       </c>
     </row>
-    <row r="805" spans="1:24">
+    <row r="805" spans="1:25" hidden="1">
       <c r="A805">
         <v>938</v>
       </c>
@@ -46167,7 +46873,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="806" spans="1:24">
+    <row r="806" spans="1:25">
       <c r="A806">
         <v>285</v>
       </c>
@@ -46199,7 +46905,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="807" spans="1:24">
+    <row r="807" spans="1:25">
       <c r="A807">
         <v>354</v>
       </c>
@@ -46231,7 +46937,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="808" spans="1:24">
+    <row r="808" spans="1:25">
       <c r="A808">
         <v>9</v>
       </c>
@@ -46275,7 +46981,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="809" spans="1:24">
+    <row r="809" spans="1:25">
       <c r="A809">
         <v>21</v>
       </c>
@@ -46328,7 +47034,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="810" spans="1:24">
+    <row r="810" spans="1:25">
       <c r="A810">
         <v>1024</v>
       </c>
@@ -46381,7 +47087,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="811" spans="1:24">
+    <row r="811" spans="1:25">
       <c r="A811">
         <v>362</v>
       </c>
@@ -46412,14 +47118,20 @@
       <c r="J811">
         <v>0.106</v>
       </c>
+      <c r="L811">
+        <v>0.1</v>
+      </c>
       <c r="N811">
         <v>16.815000000000001</v>
       </c>
       <c r="V811" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="812" spans="1:24">
+      <c r="W811" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="812" spans="1:25">
       <c r="A812">
         <v>617</v>
       </c>
@@ -46460,7 +47172,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="813" spans="1:24">
+    <row r="813" spans="1:25">
       <c r="A813">
         <v>371</v>
       </c>
@@ -46504,7 +47216,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="814" spans="1:24">
+    <row r="814" spans="1:25">
       <c r="A814">
         <v>561</v>
       </c>
@@ -46548,7 +47260,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="815" spans="1:24">
+    <row r="815" spans="1:25">
       <c r="A815">
         <v>687</v>
       </c>
@@ -46607,7 +47319,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="816" spans="1:24">
+    <row r="816" spans="1:25">
       <c r="A816">
         <v>508</v>
       </c>
@@ -47101,7 +47813,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="826" spans="1:25">
+    <row r="826" spans="1:25" hidden="1">
       <c r="A826">
         <v>705</v>
       </c>
@@ -47169,7 +47881,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="827" spans="1:25">
+    <row r="827" spans="1:25" hidden="1">
       <c r="A827">
         <v>759</v>
       </c>
@@ -47237,7 +47949,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="828" spans="1:25">
+    <row r="828" spans="1:25" hidden="1">
       <c r="A828">
         <v>1035</v>
       </c>
@@ -47431,7 +48143,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="832" spans="1:25">
+    <row r="832" spans="1:25" hidden="1">
       <c r="A832">
         <v>773</v>
       </c>
@@ -47468,6 +48180,9 @@
       <c r="L832">
         <v>5.6000000086000007E-2</v>
       </c>
+      <c r="M832">
+        <v>26.25</v>
+      </c>
       <c r="N832" s="2">
         <v>16.822194742499999</v>
       </c>
@@ -47483,6 +48198,12 @@
       <c r="R832">
         <v>0.66942000000000002</v>
       </c>
+      <c r="S832">
+        <v>57.860482920000003</v>
+      </c>
+      <c r="T832">
+        <v>0.1254475702</v>
+      </c>
       <c r="U832">
         <v>0.82746710757142905</v>
       </c>
@@ -47495,8 +48216,11 @@
       <c r="X832" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="833" spans="1:25">
+      <c r="Y832" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="833" spans="1:26" hidden="1">
       <c r="A833">
         <v>1089</v>
       </c>
@@ -47533,6 +48257,9 @@
       <c r="L833">
         <v>5.6000000086000007E-2</v>
       </c>
+      <c r="M833">
+        <v>26.25</v>
+      </c>
       <c r="N833" s="2">
         <v>16.822194742499999</v>
       </c>
@@ -47548,6 +48275,12 @@
       <c r="R833">
         <v>0.66942000000000002</v>
       </c>
+      <c r="S833">
+        <v>57.860482920000003</v>
+      </c>
+      <c r="T833">
+        <v>0.1254475702</v>
+      </c>
       <c r="U833">
         <v>0.82746710757142905</v>
       </c>
@@ -47560,8 +48293,11 @@
       <c r="X833" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="834" spans="1:25">
+      <c r="Y833" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="834" spans="1:26" hidden="1">
       <c r="A834">
         <v>812</v>
       </c>
@@ -47623,7 +48359,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="835" spans="1:25">
+    <row r="835" spans="1:26">
       <c r="A835">
         <v>279</v>
       </c>
@@ -47661,7 +48397,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="836" spans="1:25">
+    <row r="836" spans="1:26">
       <c r="A836">
         <v>198</v>
       </c>
@@ -47708,7 +48444,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="837" spans="1:25">
+    <row r="837" spans="1:26">
       <c r="A837">
         <v>230</v>
       </c>
@@ -47755,7 +48491,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="838" spans="1:25">
+    <row r="838" spans="1:26">
       <c r="A838">
         <v>526</v>
       </c>
@@ -47805,7 +48541,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="839" spans="1:25">
+    <row r="839" spans="1:26">
       <c r="A839">
         <v>632</v>
       </c>
@@ -47846,7 +48582,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="840" spans="1:25">
+    <row r="840" spans="1:26">
       <c r="A840">
         <v>820</v>
       </c>
@@ -47908,7 +48644,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="841" spans="1:25">
+    <row r="841" spans="1:26">
       <c r="A841">
         <v>55</v>
       </c>
@@ -47949,7 +48685,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="842" spans="1:25">
+    <row r="842" spans="1:26">
       <c r="A842">
         <v>167</v>
       </c>
@@ -47981,7 +48717,7 @@
         <v>-0.36942445000000002</v>
       </c>
     </row>
-    <row r="843" spans="1:25">
+    <row r="843" spans="1:26" hidden="1">
       <c r="A843">
         <v>427</v>
       </c>
@@ -48052,7 +48788,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="844" spans="1:25">
+    <row r="844" spans="1:26" hidden="1">
       <c r="A844">
         <v>461</v>
       </c>
@@ -48123,7 +48859,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="845" spans="1:25">
+    <row r="845" spans="1:26">
       <c r="A845">
         <v>286</v>
       </c>
@@ -48161,7 +48897,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="846" spans="1:25">
+    <row r="846" spans="1:26" hidden="1">
       <c r="A846">
         <v>465</v>
       </c>
@@ -48229,7 +48965,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="847" spans="1:25">
+    <row r="847" spans="1:26">
       <c r="A847">
         <v>80</v>
       </c>
@@ -48267,7 +49003,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="848" spans="1:25">
+    <row r="848" spans="1:26">
       <c r="A848">
         <v>642</v>
       </c>
@@ -48310,6 +49046,18 @@
       <c r="O848">
         <v>1.56666666666667</v>
       </c>
+      <c r="Q848">
+        <v>13.78934449</v>
+      </c>
+      <c r="R848">
+        <v>0.3</v>
+      </c>
+      <c r="S848">
+        <v>161.9</v>
+      </c>
+      <c r="T848">
+        <v>8.6999999999999994E-2</v>
+      </c>
       <c r="U848">
         <v>0.56777777777777805</v>
       </c>
@@ -48322,8 +49070,14 @@
       <c r="X848" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="849" spans="1:25">
+      <c r="Y848" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Z848" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="849" spans="1:26">
       <c r="A849">
         <v>678</v>
       </c>
@@ -48366,6 +49120,18 @@
       <c r="O849">
         <v>1.56666666666667</v>
       </c>
+      <c r="Q849">
+        <v>13.78934449</v>
+      </c>
+      <c r="R849">
+        <v>0.3</v>
+      </c>
+      <c r="S849">
+        <v>161.9</v>
+      </c>
+      <c r="T849">
+        <v>8.6999999999999994E-2</v>
+      </c>
       <c r="U849">
         <v>0.56777777777777805</v>
       </c>
@@ -48378,8 +49144,14 @@
       <c r="X849" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="850" spans="1:25">
+      <c r="Y849" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Z849" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="850" spans="1:26">
       <c r="A850">
         <v>227</v>
       </c>
@@ -48435,7 +49207,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="851" spans="1:25">
+    <row r="851" spans="1:26">
       <c r="A851">
         <v>591</v>
       </c>
@@ -48485,7 +49257,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="852" spans="1:25">
+    <row r="852" spans="1:26">
       <c r="A852">
         <v>664</v>
       </c>
@@ -48535,7 +49307,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="853" spans="1:25">
+    <row r="853" spans="1:26">
       <c r="A853">
         <v>476</v>
       </c>
@@ -48576,7 +49348,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="854" spans="1:25">
+    <row r="854" spans="1:26">
       <c r="A854">
         <v>661</v>
       </c>
@@ -48617,7 +49389,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="855" spans="1:25">
+    <row r="855" spans="1:26">
       <c r="A855">
         <v>714</v>
       </c>
@@ -48658,7 +49430,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="856" spans="1:25">
+    <row r="856" spans="1:26">
       <c r="A856">
         <v>485</v>
       </c>
@@ -48699,7 +49471,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="857" spans="1:25">
+    <row r="857" spans="1:26">
       <c r="A857">
         <v>605</v>
       </c>
@@ -48740,7 +49512,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="858" spans="1:25">
+    <row r="858" spans="1:26">
       <c r="A858">
         <v>460</v>
       </c>
@@ -48772,7 +49544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="859" spans="1:25">
+    <row r="859" spans="1:26">
       <c r="A859">
         <v>679</v>
       </c>
@@ -48804,7 +49576,7 @@
         <v>-3.6666666669999999</v>
       </c>
     </row>
-    <row r="860" spans="1:25">
+    <row r="860" spans="1:26">
       <c r="A860">
         <v>370</v>
       </c>
@@ -48836,7 +49608,7 @@
         <v>3.1666666669999999</v>
       </c>
     </row>
-    <row r="861" spans="1:25">
+    <row r="861" spans="1:26">
       <c r="A861">
         <v>424</v>
       </c>
@@ -48868,7 +49640,7 @@
         <v>0.33333333300000001</v>
       </c>
     </row>
-    <row r="862" spans="1:25">
+    <row r="862" spans="1:26">
       <c r="A862">
         <v>56</v>
       </c>
@@ -48909,7 +49681,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="863" spans="1:25">
+    <row r="863" spans="1:26" hidden="1">
       <c r="A863">
         <v>745</v>
       </c>
@@ -48974,7 +49746,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="864" spans="1:25">
+    <row r="864" spans="1:26" hidden="1">
       <c r="A864">
         <v>264</v>
       </c>
@@ -49045,7 +49817,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="865" spans="1:25">
+    <row r="865" spans="1:25" hidden="1">
       <c r="A865">
         <v>524</v>
       </c>
@@ -49116,7 +49888,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="866" spans="1:25">
+    <row r="866" spans="1:25" hidden="1">
       <c r="A866">
         <v>525</v>
       </c>
@@ -49187,7 +49959,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="867" spans="1:25">
+    <row r="867" spans="1:25" hidden="1">
       <c r="A867">
         <v>554</v>
       </c>
@@ -49258,7 +50030,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="868" spans="1:25">
+    <row r="868" spans="1:25" hidden="1">
       <c r="A868">
         <v>787</v>
       </c>
@@ -49397,7 +50169,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="870" spans="1:25">
+    <row r="870" spans="1:25" hidden="1">
       <c r="A870">
         <v>482</v>
       </c>
@@ -49533,7 +50305,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="872" spans="1:25">
+    <row r="872" spans="1:25" hidden="1">
       <c r="A872">
         <v>236</v>
       </c>
@@ -49601,7 +50373,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="873" spans="1:25">
+    <row r="873" spans="1:25" hidden="1">
       <c r="A873">
         <v>1025</v>
       </c>
@@ -49669,7 +50441,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="874" spans="1:25">
+    <row r="874" spans="1:25" hidden="1">
       <c r="A874">
         <v>195</v>
       </c>
@@ -49743,7 +50515,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="875" spans="1:25">
+    <row r="875" spans="1:25" hidden="1">
       <c r="A875">
         <v>963</v>
       </c>
@@ -50004,8 +50776,14 @@
       <c r="N879">
         <v>20.347291801111101</v>
       </c>
+      <c r="R879">
+        <v>1.2</v>
+      </c>
       <c r="V879" t="s">
         <v>933</v>
+      </c>
+      <c r="W879" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="880" spans="1:25">
@@ -50429,7 +51207,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="888" spans="1:24">
+    <row r="888" spans="1:24" hidden="1">
       <c r="A888">
         <v>698</v>
       </c>
@@ -50805,8 +51583,14 @@
       <c r="M894">
         <v>4.05</v>
       </c>
+      <c r="O894">
+        <v>0.18</v>
+      </c>
       <c r="V894" t="s">
         <v>942</v>
+      </c>
+      <c r="W894" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="895" spans="1:24">
@@ -50843,8 +51627,14 @@
       <c r="M895">
         <v>4.05</v>
       </c>
+      <c r="O895">
+        <v>0.18</v>
+      </c>
       <c r="V895" t="s">
         <v>942</v>
+      </c>
+      <c r="W895" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="896" spans="1:24">
@@ -50881,8 +51671,14 @@
       <c r="M896">
         <v>4.05</v>
       </c>
+      <c r="O896">
+        <v>0.18</v>
+      </c>
       <c r="V896" t="s">
         <v>942</v>
+      </c>
+      <c r="W896" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="897" spans="1:24">
@@ -51044,7 +51840,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="900" spans="1:24">
+    <row r="900" spans="1:24" hidden="1">
       <c r="A900">
         <v>729</v>
       </c>
@@ -51115,7 +51911,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="901" spans="1:24">
+    <row r="901" spans="1:24" hidden="1">
       <c r="A901">
         <v>732</v>
       </c>
@@ -51186,7 +51982,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="902" spans="1:24">
+    <row r="902" spans="1:24" hidden="1">
       <c r="A902">
         <v>825</v>
       </c>
@@ -51769,11 +52565,17 @@
       <c r="J914">
         <v>-0.62483333299999999</v>
       </c>
+      <c r="L914">
+        <v>0.35</v>
+      </c>
       <c r="N914">
         <v>13.426</v>
       </c>
       <c r="V914" t="s">
         <v>1055</v>
+      </c>
+      <c r="W914" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="915" spans="1:24">
@@ -52583,8 +53385,29 @@
       <c r="N934">
         <v>11.534196113749999</v>
       </c>
+      <c r="P934">
+        <v>0.101107003</v>
+      </c>
+      <c r="Q934">
+        <v>118.75448900000001</v>
+      </c>
+      <c r="R934">
+        <v>0.32951999999999998</v>
+      </c>
+      <c r="T934">
+        <v>3.5354166999999999E-2</v>
+      </c>
+      <c r="U934">
+        <v>0.36721759100000001</v>
+      </c>
       <c r="V934" t="s">
         <v>1047</v>
+      </c>
+      <c r="W934" t="s">
+        <v>1126</v>
+      </c>
+      <c r="X934" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="935" spans="1:24">
@@ -52835,7 +53658,7 @@
       <c r="L940">
         <v>0.02</v>
       </c>
-      <c r="N940" s="16">
+      <c r="N940" s="17">
         <v>16.770488417403605</v>
       </c>
       <c r="V940" t="s">
@@ -53105,7 +53928,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="945" spans="1:26">
+    <row r="945" spans="1:27" hidden="1">
       <c r="A945">
         <v>983</v>
       </c>
@@ -53176,7 +53999,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="946" spans="1:26">
+    <row r="946" spans="1:27" hidden="1">
       <c r="A946">
         <v>795</v>
       </c>
@@ -53247,7 +54070,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="947" spans="1:26">
+    <row r="947" spans="1:27">
       <c r="A947">
         <v>651</v>
       </c>
@@ -53315,7 +54138,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="948" spans="1:26">
+    <row r="948" spans="1:27">
       <c r="A948">
         <v>753</v>
       </c>
@@ -53383,7 +54206,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="949" spans="1:26">
+    <row r="949" spans="1:27">
       <c r="A949">
         <v>790</v>
       </c>
@@ -53448,7 +54271,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="950" spans="1:26">
+    <row r="950" spans="1:27">
       <c r="A950">
         <v>209</v>
       </c>
@@ -53497,6 +54320,12 @@
       <c r="Q950">
         <v>40.215129830000002</v>
       </c>
+      <c r="S950">
+        <v>40.22</v>
+      </c>
+      <c r="T950">
+        <v>0.22</v>
+      </c>
       <c r="U950">
         <v>0.43333333333333302</v>
       </c>
@@ -53515,8 +54344,11 @@
       <c r="Z950" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="951" spans="1:26">
+      <c r="AA950" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="951" spans="1:27">
       <c r="A951">
         <v>470</v>
       </c>
@@ -53565,6 +54397,12 @@
       <c r="Q951">
         <v>40.215129830000002</v>
       </c>
+      <c r="S951">
+        <v>40.22</v>
+      </c>
+      <c r="T951">
+        <v>0.22</v>
+      </c>
       <c r="U951">
         <v>0.43333333333333302</v>
       </c>
@@ -53583,8 +54421,11 @@
       <c r="Z951" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="952" spans="1:26">
+      <c r="AA951" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="952" spans="1:27">
       <c r="A952">
         <v>612</v>
       </c>
@@ -53633,6 +54474,12 @@
       <c r="Q952">
         <v>40.215129830000002</v>
       </c>
+      <c r="S952">
+        <v>40.22</v>
+      </c>
+      <c r="T952">
+        <v>0.22</v>
+      </c>
       <c r="U952">
         <v>0.43333333333333302</v>
       </c>
@@ -53651,8 +54498,11 @@
       <c r="Z952" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="953" spans="1:26">
+      <c r="AA952" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="953" spans="1:27">
       <c r="A953">
         <v>1034</v>
       </c>
@@ -53701,6 +54551,12 @@
       <c r="Q953">
         <v>40.215129830000002</v>
       </c>
+      <c r="S953">
+        <v>40.22</v>
+      </c>
+      <c r="T953">
+        <v>0.22</v>
+      </c>
       <c r="U953">
         <v>0.43333333333333302</v>
       </c>
@@ -53719,8 +54575,11 @@
       <c r="Z953" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="954" spans="1:26">
+      <c r="AA953" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="954" spans="1:27">
       <c r="A954">
         <v>348</v>
       </c>
@@ -53788,7 +54647,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="955" spans="1:26">
+    <row r="955" spans="1:27">
       <c r="A955">
         <v>493</v>
       </c>
@@ -53856,7 +54715,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="956" spans="1:26">
+    <row r="956" spans="1:27">
       <c r="A956">
         <v>803</v>
       </c>
@@ -53924,7 +54783,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="957" spans="1:26">
+    <row r="957" spans="1:27">
       <c r="A957">
         <v>1087</v>
       </c>
@@ -53992,7 +54851,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="958" spans="1:26">
+    <row r="958" spans="1:27">
       <c r="A958">
         <v>941</v>
       </c>
@@ -54048,7 +54907,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="959" spans="1:26">
+    <row r="959" spans="1:27">
       <c r="A959">
         <v>288</v>
       </c>
@@ -54100,6 +54959,9 @@
       <c r="S959">
         <v>5.4498181819999996</v>
       </c>
+      <c r="T959">
+        <v>0.499096607032258</v>
+      </c>
       <c r="U959">
         <v>9.5609308000000004E-2</v>
       </c>
@@ -54109,8 +54971,11 @@
       <c r="W959" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="960" spans="1:26">
+      <c r="X959" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="960" spans="1:27" hidden="1">
       <c r="A960">
         <v>669</v>
       </c>
@@ -54181,7 +55046,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="961" spans="1:26">
+    <row r="961" spans="1:26" hidden="1">
       <c r="A961">
         <v>731</v>
       </c>
@@ -54252,7 +55117,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="962" spans="1:26">
+    <row r="962" spans="1:26" hidden="1">
       <c r="A962">
         <v>835</v>
       </c>
@@ -54443,7 +55308,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="966" spans="1:26">
+    <row r="966" spans="1:26" hidden="1">
       <c r="A966">
         <v>216</v>
       </c>
@@ -54517,7 +55382,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="967" spans="1:26">
+    <row r="967" spans="1:26" hidden="1">
       <c r="A967">
         <v>478</v>
       </c>
@@ -54691,7 +55556,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="970" spans="1:26">
+    <row r="970" spans="1:26" hidden="1">
       <c r="A970">
         <v>272</v>
       </c>
@@ -54743,6 +55608,15 @@
       <c r="Q970">
         <v>22.6383333333333</v>
       </c>
+      <c r="R970">
+        <v>0.219983333333333</v>
+      </c>
+      <c r="S970">
+        <v>56.447366215000002</v>
+      </c>
+      <c r="T970">
+        <v>0.58059348349999995</v>
+      </c>
       <c r="U970">
         <v>0.32400000000000001</v>
       </c>
@@ -54754,6 +55628,9 @@
       </c>
       <c r="X970" t="s">
         <v>977</v>
+      </c>
+      <c r="Y970" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="971" spans="1:26">
@@ -55005,11 +55882,17 @@
       <c r="O975">
         <v>0.30480000000000002</v>
       </c>
+      <c r="R975">
+        <v>0.1855714</v>
+      </c>
       <c r="V975" t="s">
         <v>929</v>
       </c>
       <c r="W975" t="s">
         <v>1066</v>
+      </c>
+      <c r="X975" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="976" spans="1:26">
@@ -55310,6 +56193,9 @@
       <c r="R982">
         <v>0.46170939999999999</v>
       </c>
+      <c r="S982" s="30">
+        <v>18.989999999999998</v>
+      </c>
       <c r="T982">
         <v>0.19876194933333299</v>
       </c>
@@ -55321,6 +56207,9 @@
       </c>
       <c r="X982" t="s">
         <v>1053</v>
+      </c>
+      <c r="Y982" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="983" spans="1:25">
@@ -55363,11 +56252,23 @@
       <c r="N983">
         <v>11.24203438</v>
       </c>
+      <c r="P983">
+        <v>1.8593749999999999E-2</v>
+      </c>
+      <c r="Q983">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="R983">
+        <v>0.35662500000000003</v>
+      </c>
       <c r="S983">
         <v>18.9227664873446</v>
       </c>
       <c r="V983" t="s">
         <v>1073</v>
+      </c>
+      <c r="W983" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="984" spans="1:25">
@@ -55411,7 +56312,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="985" spans="1:25">
+    <row r="985" spans="1:25" hidden="1">
       <c r="A985">
         <v>601</v>
       </c>
@@ -55479,7 +56380,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="986" spans="1:25">
+    <row r="986" spans="1:25" hidden="1">
       <c r="A986">
         <v>880</v>
       </c>
@@ -55773,7 +56674,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="992" spans="1:25">
+    <row r="992" spans="1:25" hidden="1">
       <c r="A992">
         <v>106</v>
       </c>
@@ -55844,7 +56745,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="993" spans="1:25">
+    <row r="993" spans="1:25" hidden="1">
       <c r="A993">
         <v>240</v>
       </c>
@@ -55915,7 +56816,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="994" spans="1:25">
+    <row r="994" spans="1:25" hidden="1">
       <c r="A994">
         <v>405</v>
       </c>
@@ -55986,7 +56887,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="995" spans="1:25">
+    <row r="995" spans="1:25" hidden="1">
       <c r="A995">
         <v>884</v>
       </c>
@@ -56057,7 +56958,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="996" spans="1:25">
+    <row r="996" spans="1:25" hidden="1">
       <c r="A996">
         <v>1021</v>
       </c>
@@ -56128,7 +57029,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="997" spans="1:25">
+    <row r="997" spans="1:25" hidden="1">
       <c r="A997">
         <v>1081</v>
       </c>
@@ -56567,7 +57468,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="1005" spans="1:25">
+    <row r="1005" spans="1:25" hidden="1">
       <c r="A1005">
         <v>373</v>
       </c>
@@ -56903,7 +57804,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="1014" spans="1:25">
+    <row r="1014" spans="1:25" hidden="1">
       <c r="A1014">
         <v>365</v>
       </c>
@@ -56977,7 +57878,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="1015" spans="1:25">
+    <row r="1015" spans="1:25" hidden="1">
       <c r="A1015">
         <v>816</v>
       </c>
@@ -57877,7 +58778,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="1034" spans="1:26">
+    <row r="1034" spans="1:26" hidden="1">
       <c r="A1034">
         <v>258</v>
       </c>
@@ -57954,7 +58855,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="1035" spans="1:26">
+    <row r="1035" spans="1:26" hidden="1">
       <c r="A1035">
         <v>939</v>
       </c>
@@ -58031,7 +58932,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="1036" spans="1:26">
+    <row r="1036" spans="1:26" hidden="1">
       <c r="A1036">
         <v>972</v>
       </c>
@@ -58225,6 +59126,12 @@
       <c r="R1038">
         <v>0.42499999999999999</v>
       </c>
+      <c r="S1038">
+        <v>35.47</v>
+      </c>
+      <c r="T1038">
+        <v>0.19900000000000001</v>
+      </c>
       <c r="V1038" t="s">
         <v>955</v>
       </c>
@@ -58233,6 +59140,9 @@
       </c>
       <c r="X1038" t="s">
         <v>1030</v>
+      </c>
+      <c r="Y1038" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1039" spans="1:26">
@@ -58287,6 +59197,12 @@
       <c r="R1039">
         <v>0.42499999999999999</v>
       </c>
+      <c r="S1039">
+        <v>35.47</v>
+      </c>
+      <c r="T1039">
+        <v>0.19900000000000001</v>
+      </c>
       <c r="V1039" t="s">
         <v>955</v>
       </c>
@@ -58295,6 +59211,9 @@
       </c>
       <c r="X1039" t="s">
         <v>1030</v>
+      </c>
+      <c r="Y1039" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1040" spans="1:26">
@@ -58446,6 +59365,12 @@
       <c r="R1042">
         <v>0.246975</v>
       </c>
+      <c r="S1042">
+        <v>238.07</v>
+      </c>
+      <c r="T1042">
+        <v>0.11</v>
+      </c>
       <c r="V1042" t="s">
         <v>937</v>
       </c>
@@ -58454,6 +59379,9 @@
       </c>
       <c r="X1042" t="s">
         <v>1027</v>
+      </c>
+      <c r="Y1042" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="1043" spans="1:25">
@@ -58508,6 +59436,12 @@
       <c r="R1043">
         <v>0.246975</v>
       </c>
+      <c r="S1043">
+        <v>238.07</v>
+      </c>
+      <c r="T1043">
+        <v>0.11</v>
+      </c>
       <c r="V1043" t="s">
         <v>937</v>
       </c>
@@ -58517,8 +59451,11 @@
       <c r="X1043" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="1044" spans="1:25">
+      <c r="Y1043" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:25" hidden="1">
       <c r="A1044">
         <v>172</v>
       </c>
@@ -58589,7 +59526,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="1045" spans="1:25">
+    <row r="1045" spans="1:25" hidden="1">
       <c r="A1045">
         <v>448</v>
       </c>
@@ -58660,7 +59597,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="1046" spans="1:25">
+    <row r="1046" spans="1:25" hidden="1">
       <c r="A1046">
         <v>793</v>
       </c>
@@ -58731,7 +59668,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="1047" spans="1:25">
+    <row r="1047" spans="1:25" hidden="1">
       <c r="A1047">
         <v>817</v>
       </c>
@@ -58805,7 +59742,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="1048" spans="1:25">
+    <row r="1048" spans="1:25" hidden="1">
       <c r="A1048">
         <v>1057</v>
       </c>
@@ -59145,11 +60082,17 @@
       <c r="O1054">
         <v>0.30480000000000002</v>
       </c>
+      <c r="R1054">
+        <v>0.9</v>
+      </c>
       <c r="V1054" t="s">
         <v>929</v>
       </c>
       <c r="W1054" t="s">
         <v>1041</v>
+      </c>
+      <c r="X1054" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="1055" spans="1:25">
@@ -59260,6 +60203,12 @@
       <c r="R1056">
         <v>0.35</v>
       </c>
+      <c r="S1056">
+        <v>93.722727706851899</v>
+      </c>
+      <c r="T1056">
+        <v>0.45975242162962998</v>
+      </c>
       <c r="U1056">
         <v>0.18040499700000001</v>
       </c>
@@ -59268,6 +60217,9 @@
       </c>
       <c r="W1056" t="s">
         <v>997</v>
+      </c>
+      <c r="X1056" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="1057" spans="1:25">
@@ -59319,6 +60271,12 @@
       <c r="R1057">
         <v>0.35</v>
       </c>
+      <c r="S1057">
+        <v>93.722727706851899</v>
+      </c>
+      <c r="T1057">
+        <v>0.45975242162962998</v>
+      </c>
       <c r="U1057">
         <v>0.18040499700000001</v>
       </c>
@@ -59327,6 +60285,9 @@
       </c>
       <c r="W1057" t="s">
         <v>997</v>
+      </c>
+      <c r="X1057" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="1058" spans="1:25">
@@ -59829,7 +60790,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="1068" spans="1:25">
+    <row r="1068" spans="1:25" hidden="1">
       <c r="A1068">
         <v>277</v>
       </c>
@@ -59897,7 +60858,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="1069" spans="1:25">
+    <row r="1069" spans="1:25" hidden="1">
       <c r="A1069">
         <v>776</v>
       </c>
@@ -60002,11 +60963,17 @@
       <c r="N1070">
         <v>29.108888888888899</v>
       </c>
+      <c r="O1070">
+        <v>0.15</v>
+      </c>
       <c r="V1070" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="1071" spans="1:25">
+      <c r="W1070" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:25" hidden="1">
       <c r="A1071">
         <v>61</v>
       </c>
@@ -60074,7 +61041,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="1072" spans="1:25">
+    <row r="1072" spans="1:25" hidden="1">
       <c r="A1072">
         <v>93</v>
       </c>
@@ -60142,7 +61109,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="1073" spans="1:25">
+    <row r="1073" spans="1:26" hidden="1">
       <c r="A1073">
         <v>644</v>
       </c>
@@ -60210,7 +61177,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="1074" spans="1:25">
+    <row r="1074" spans="1:26" hidden="1">
       <c r="A1074">
         <v>982</v>
       </c>
@@ -60278,7 +61245,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="1075" spans="1:25">
+    <row r="1075" spans="1:26" hidden="1">
       <c r="A1075">
         <v>648</v>
       </c>
@@ -60346,7 +61313,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="1076" spans="1:25">
+    <row r="1076" spans="1:26" hidden="1">
       <c r="A1076">
         <v>590</v>
       </c>
@@ -60414,7 +61381,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="1077" spans="1:25">
+    <row r="1077" spans="1:26" hidden="1">
       <c r="A1077">
         <v>433</v>
       </c>
@@ -60482,7 +61449,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1078" spans="1:25">
+    <row r="1078" spans="1:26" hidden="1">
       <c r="A1078">
         <v>514</v>
       </c>
@@ -60550,7 +61517,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1079" spans="1:25">
+    <row r="1079" spans="1:26">
       <c r="A1079">
         <v>450</v>
       </c>
@@ -60609,7 +61576,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="1080" spans="1:25">
+    <row r="1080" spans="1:26">
       <c r="A1080">
         <v>1004</v>
       </c>
@@ -60674,7 +61641,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="1081" spans="1:25">
+    <row r="1081" spans="1:26">
       <c r="A1081">
         <v>45</v>
       </c>
@@ -60721,7 +61688,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="1082" spans="1:25">
+    <row r="1082" spans="1:26">
       <c r="A1082">
         <v>338</v>
       </c>
@@ -60765,7 +61732,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1083" spans="1:25">
+    <row r="1083" spans="1:26">
       <c r="A1083">
         <v>69</v>
       </c>
@@ -60803,7 +61770,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="1084" spans="1:25">
+    <row r="1084" spans="1:26">
       <c r="A1084">
         <v>367</v>
       </c>
@@ -60841,7 +61808,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="1085" spans="1:25">
+    <row r="1085" spans="1:26">
       <c r="A1085">
         <v>1050</v>
       </c>
@@ -60879,7 +61846,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="1086" spans="1:25">
+    <row r="1086" spans="1:26">
       <c r="A1086">
         <v>260</v>
       </c>
@@ -60941,7 +61908,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1087" spans="1:25">
+    <row r="1087" spans="1:26">
       <c r="A1087">
         <v>204</v>
       </c>
@@ -61000,7 +61967,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="1088" spans="1:25">
+    <row r="1088" spans="1:26">
       <c r="A1088">
         <v>221</v>
       </c>
@@ -61058,6 +62025,9 @@
       <c r="T1088">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="U1088">
+        <v>0.52527617900000001</v>
+      </c>
       <c r="V1088" t="s">
         <v>1098</v>
       </c>
@@ -61070,8 +62040,11 @@
       <c r="Y1088" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="1089" spans="1:25">
+      <c r="Z1088" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:26">
       <c r="A1089">
         <v>695</v>
       </c>
@@ -61129,6 +62102,9 @@
       <c r="T1089">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="U1089">
+        <v>0.52527617900000001</v>
+      </c>
       <c r="V1089" t="s">
         <v>1098</v>
       </c>
@@ -61141,8 +62117,11 @@
       <c r="Y1089" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="1090" spans="1:25">
+      <c r="Z1089" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:26">
       <c r="A1090">
         <v>894</v>
       </c>
@@ -61200,6 +62179,9 @@
       <c r="T1090">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="U1090">
+        <v>0.52527617900000001</v>
+      </c>
       <c r="V1090" t="s">
         <v>1098</v>
       </c>
@@ -61212,79 +62194,88 @@
       <c r="Y1090" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="1091" spans="1:25">
-      <c r="A1091">
+      <c r="Z1090" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:26" s="15" customFormat="1">
+      <c r="A1091" s="15">
         <v>933</v>
       </c>
-      <c r="B1091" t="s">
+      <c r="B1091" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C1091" t="s">
+      <c r="C1091" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D1091">
+      <c r="D1091" s="15">
         <v>1.3333333329999999</v>
       </c>
-      <c r="E1091">
+      <c r="E1091" s="15">
         <v>80</v>
       </c>
-      <c r="F1091">
+      <c r="F1091" s="15">
         <v>4.3428571429999998</v>
       </c>
-      <c r="G1091">
+      <c r="G1091" s="15">
         <v>3.5333333329999999</v>
       </c>
-      <c r="H1091">
+      <c r="H1091" s="15">
         <v>-76.466666666999998</v>
       </c>
-      <c r="I1091">
+      <c r="I1091" s="15">
         <v>3.0095238100000001</v>
       </c>
-      <c r="J1091">
+      <c r="J1091" s="15">
         <v>-79.476190477000003</v>
       </c>
-      <c r="K1091">
+      <c r="K1091" s="15">
         <v>17.150777898000001</v>
       </c>
-      <c r="L1091">
+      <c r="L1091" s="15">
         <v>0.43573333333333297</v>
       </c>
-      <c r="M1091">
+      <c r="M1091" s="15">
         <v>7.5</v>
       </c>
-      <c r="N1091">
+      <c r="N1091" s="15">
         <v>22.383333333333301</v>
       </c>
-      <c r="O1091">
+      <c r="O1091" s="15">
         <v>0.30480000000000002</v>
       </c>
-      <c r="P1091">
+      <c r="P1091" s="15">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Q1091">
+      <c r="Q1091" s="15">
         <v>268.91000000000003</v>
       </c>
-      <c r="S1091">
+      <c r="S1091" s="15">
         <v>137.819902450309</v>
       </c>
-      <c r="T1091">
+      <c r="T1091" s="15">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="V1091" t="s">
+      <c r="U1091" s="15">
+        <v>0.52527617900000001</v>
+      </c>
+      <c r="V1091" s="15" t="s">
         <v>1098</v>
       </c>
-      <c r="W1091" t="s">
+      <c r="W1091" s="15" t="s">
         <v>981</v>
       </c>
-      <c r="X1091" t="s">
+      <c r="X1091" s="15" t="s">
         <v>1002</v>
       </c>
-      <c r="Y1091" t="s">
+      <c r="Y1091" s="15" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="1092" spans="1:25">
+      <c r="Z1091" s="15" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:26">
       <c r="A1092">
         <v>12</v>
       </c>
@@ -61321,6 +62312,9 @@
       <c r="L1092">
         <v>0.12749999997</v>
       </c>
+      <c r="M1092">
+        <v>11.5</v>
+      </c>
       <c r="N1092" s="2">
         <v>53.495787145000001</v>
       </c>
@@ -61333,6 +62327,9 @@
       <c r="R1092">
         <v>0.35272499999999996</v>
       </c>
+      <c r="S1092">
+        <v>425.82590517142899</v>
+      </c>
       <c r="T1092">
         <v>0.243529</v>
       </c>
@@ -61351,8 +62348,11 @@
       <c r="Y1092" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="1093" spans="1:25">
+      <c r="Z1092" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:26">
       <c r="A1093">
         <v>165</v>
       </c>
@@ -61389,6 +62389,9 @@
       <c r="L1093">
         <v>0.12749999997</v>
       </c>
+      <c r="M1093">
+        <v>11.5</v>
+      </c>
       <c r="N1093" s="2">
         <v>53.495787145000001</v>
       </c>
@@ -61401,6 +62404,9 @@
       <c r="R1093">
         <v>0.35272499999999996</v>
       </c>
+      <c r="S1093">
+        <v>425.82590517142899</v>
+      </c>
       <c r="T1093">
         <v>0.243529</v>
       </c>
@@ -61419,8 +62425,11 @@
       <c r="Y1093" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="1094" spans="1:25">
+      <c r="Z1093" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:26">
       <c r="A1094">
         <v>126</v>
       </c>
@@ -61461,7 +62470,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="1095" spans="1:25">
+    <row r="1095" spans="1:26">
       <c r="A1095">
         <v>58</v>
       </c>
@@ -61502,7 +62511,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="1096" spans="1:25">
+    <row r="1096" spans="1:26">
       <c r="A1096">
         <v>995</v>
       </c>
@@ -61540,7 +62549,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="1097" spans="1:25">
+    <row r="1097" spans="1:26">
       <c r="A1097">
         <v>646</v>
       </c>

--- a/Formatted.Data/Revisions/BACI.trait.data.xlsx
+++ b/Formatted.Data/Revisions/BACI.trait.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaworthy/Documents/GitHub/IDE.Traits/Formatted.Data/Revisions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAA285C-E75A-2246-8B19-36A53162ADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340DA053-9910-2640-8298-C4544307E970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="500" windowWidth="21340" windowHeight="16480" xr2:uid="{5461C9A6-0362-A04A-A64C-9E75594B3F4F}"/>
+    <workbookView xWindow="13040" yWindow="500" windowWidth="22860" windowHeight="16480" xr2:uid="{5461C9A6-0362-A04A-A64C-9E75594B3F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="BACI.trait.data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="1196">
   <si>
     <t>site_code</t>
   </si>
@@ -3534,6 +3534,93 @@
   </si>
   <si>
     <t>diam, SRL fine, RTD fine from Mueller 2024</t>
+  </si>
+  <si>
+    <t>diam from Roumet 2006</t>
+  </si>
+  <si>
+    <t>SRL fine from Mokay 2008</t>
+  </si>
+  <si>
+    <t>SRL fine from Mokany 2008</t>
+  </si>
+  <si>
+    <t>Spitzer 2023</t>
+  </si>
+  <si>
+    <t>diam, SRL fine from Spitzer 2023</t>
+  </si>
+  <si>
+    <t>SLA from Hoy 2014</t>
+  </si>
+  <si>
+    <t>diam from Collier 2003</t>
+  </si>
+  <si>
+    <t>diam, SRL fine, RMF fime from Illuminati 2022</t>
+  </si>
+  <si>
+    <t>diam, SRl fine, RTD fine from Illuminati 2022</t>
+  </si>
+  <si>
+    <t>diam, SRL fine, RTD fine from Illuminati 2022</t>
+  </si>
+  <si>
+    <t>leafN from Cahill_Albert_https://doi.org/10.7939/r3-wszy-4x173</t>
+  </si>
+  <si>
+    <t>leafN from Cahill_Albert_https://doi.org/10.7939/r3-wszy-4x179</t>
+  </si>
+  <si>
+    <t>diam from Fort 2017</t>
+  </si>
+  <si>
+    <t>rooN, RTD fine from Ning 2022</t>
+  </si>
+  <si>
+    <t>SRL fine from Tjoelker 2005</t>
+  </si>
+  <si>
+    <t>SRL fine Tjoelker 2005</t>
+  </si>
+  <si>
+    <t>diam from Craine 2002</t>
+  </si>
+  <si>
+    <t>diam, RTD fine, RMF from Funk 2024</t>
+  </si>
+  <si>
+    <t>diam, RTD fine, SRL fine, RMF from Funk 2024</t>
+  </si>
+  <si>
+    <t>SRL fine from Funk 2024</t>
+  </si>
+  <si>
+    <t>RTD fine, RMF from Funk 2024</t>
+  </si>
+  <si>
+    <t>depth from Mouheb 2017</t>
+  </si>
+  <si>
+    <t>SRL fine from Tucker 2010</t>
+  </si>
+  <si>
+    <t>diam from Tucker 2010</t>
+  </si>
+  <si>
+    <t>SRLf ine from Tucker 2010</t>
+  </si>
+  <si>
+    <t>SRL fine from Tucker</t>
+  </si>
+  <si>
+    <t>diam, SRL fine from Tucker 2010</t>
+  </si>
+  <si>
+    <t>RTD fine from de la Riva 2021</t>
+  </si>
+  <si>
+    <t>SRL fine, RTD fine from de la Riva 2021</t>
   </si>
 </sst>
 </file>
@@ -3545,7 +3632,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3813,8 +3900,28 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3997,17 +4104,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -4122,6 +4223,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4168,7 +4284,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4196,22 +4312,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="26" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4225,6 +4338,16 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4604,11 +4727,11 @@
   <dimension ref="A1:AB1097"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C1056" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C989" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B1091" sqref="A1091:XFD1091"/>
+      <selection pane="bottomRight" activeCell="L1011" sqref="L1011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5827,68 +5950,68 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="20" customFormat="1">
-      <c r="A20" s="20">
+    <row r="20" spans="1:27" s="18" customFormat="1">
+      <c r="A20" s="18">
         <v>351</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20">
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
         <v>0.25</v>
       </c>
-      <c r="G20" s="20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20">
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
         <v>-1</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="18">
         <v>0.25</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="18">
         <v>-1.25</v>
       </c>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:27" s="20" customFormat="1">
-      <c r="A21" s="20">
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:27" s="18" customFormat="1">
+      <c r="A21" s="18">
         <v>993</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="18">
         <v>2.3333333330000001</v>
       </c>
-      <c r="E21" s="20">
-        <v>0</v>
-      </c>
-      <c r="F21" s="20">
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
         <v>3</v>
       </c>
-      <c r="G21" s="20">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20">
-        <v>1</v>
-      </c>
-      <c r="I21" s="20">
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18">
         <v>0.66666666699999999</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="18">
         <v>0.33333333300000001</v>
       </c>
     </row>
@@ -7018,6 +7141,9 @@
       <c r="R43">
         <v>0.22800000000000001</v>
       </c>
+      <c r="S43">
+        <v>817.5</v>
+      </c>
       <c r="U43">
         <v>0.18592496650000001</v>
       </c>
@@ -7026,6 +7152,9 @@
       </c>
       <c r="W43" t="s">
         <v>1004</v>
+      </c>
+      <c r="X43" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="13" customFormat="1">
@@ -7060,50 +7189,50 @@
         <v>1.9166666699999999</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="22" customFormat="1">
-      <c r="A45" s="22">
+    <row r="45" spans="1:25">
+      <c r="A45">
         <v>912</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" t="s">
         <v>720</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45">
         <v>32.6</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45">
         <v>48.6</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45">
         <v>35</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45">
         <v>53.8</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45">
         <v>5.2</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45">
         <v>2.4</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45">
         <v>2.8</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="20">
         <v>37.437353333333334</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L45">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N45" s="24">
+      <c r="N45" s="21">
         <v>20.997456046016488</v>
       </c>
-      <c r="V45" s="22" t="s">
+      <c r="V45" t="s">
         <v>1022</v>
       </c>
-      <c r="W45" s="22" t="s">
+      <c r="W45" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -7247,7 +7376,7 @@
       <c r="O48">
         <v>0.15240000000000001</v>
       </c>
-      <c r="R48" s="27">
+      <c r="R48" s="24">
         <v>1.64</v>
       </c>
       <c r="V48" t="s">
@@ -7257,7 +7386,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>330</v>
       </c>
@@ -7307,7 +7436,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:26">
       <c r="A50">
         <v>334</v>
       </c>
@@ -7375,7 +7504,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:26">
       <c r="A51">
         <v>1043</v>
       </c>
@@ -7416,7 +7545,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:26">
       <c r="A52">
         <v>1028</v>
       </c>
@@ -7471,6 +7600,9 @@
       <c r="R52">
         <v>0.36</v>
       </c>
+      <c r="S52">
+        <v>141</v>
+      </c>
       <c r="T52">
         <v>0.08</v>
       </c>
@@ -7486,8 +7618,11 @@
       <c r="Y52" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53">
         <v>129</v>
       </c>
@@ -7537,7 +7672,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:26">
       <c r="A54">
         <v>132</v>
       </c>
@@ -7587,7 +7722,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="13" customFormat="1">
+    <row r="55" spans="1:26" s="13" customFormat="1">
       <c r="A55" s="13">
         <v>744</v>
       </c>
@@ -7641,7 +7776,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:26">
       <c r="A56">
         <v>763</v>
       </c>
@@ -7693,6 +7828,9 @@
       <c r="R56">
         <v>0.443566666666667</v>
       </c>
+      <c r="S56">
+        <v>109.24</v>
+      </c>
       <c r="T56">
         <v>0.37358799999999998</v>
       </c>
@@ -7705,8 +7843,11 @@
       <c r="X56" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Y56" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57">
         <v>807</v>
       </c>
@@ -7758,6 +7899,9 @@
       <c r="R57">
         <v>0.443566666666667</v>
       </c>
+      <c r="S57">
+        <v>109.24</v>
+      </c>
       <c r="T57">
         <v>0.37358799999999998</v>
       </c>
@@ -7770,8 +7914,11 @@
       <c r="X57" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Y57" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58">
         <v>702</v>
       </c>
@@ -7818,7 +7965,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:26">
       <c r="A59">
         <v>527</v>
       </c>
@@ -7867,6 +8014,9 @@
       <c r="Q59">
         <v>45.955322562185202</v>
       </c>
+      <c r="R59">
+        <v>0.19400000000000001</v>
+      </c>
       <c r="S59">
         <v>6.1609767594213096</v>
       </c>
@@ -7885,8 +8035,11 @@
       <c r="X59" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Y59" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60">
         <v>760</v>
       </c>
@@ -7935,6 +8088,9 @@
       <c r="Q60">
         <v>45.955322562185202</v>
       </c>
+      <c r="R60">
+        <v>0.19400000000000001</v>
+      </c>
       <c r="S60">
         <v>6.1609767594213096</v>
       </c>
@@ -7953,8 +8109,11 @@
       <c r="X60" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" s="13" customFormat="1">
+      <c r="Y60" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" s="13" customFormat="1">
       <c r="A61" s="13">
         <v>102</v>
       </c>
@@ -7986,7 +8145,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="13" customFormat="1">
+    <row r="62" spans="1:26" s="13" customFormat="1">
       <c r="A62" s="13">
         <v>378</v>
       </c>
@@ -8018,7 +8177,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="13" customFormat="1">
+    <row r="63" spans="1:26" s="13" customFormat="1">
       <c r="A63" s="13">
         <v>417</v>
       </c>
@@ -8050,7 +8209,7 @@
         <v>-2.1414469600000001</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:26">
       <c r="A64">
         <v>1076</v>
       </c>
@@ -8109,7 +8268,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:26" hidden="1">
+    <row r="65" spans="1:27" hidden="1">
       <c r="A65">
         <v>655</v>
       </c>
@@ -8180,7 +8339,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="66" spans="1:26" hidden="1">
+    <row r="66" spans="1:27" hidden="1">
       <c r="A66">
         <v>750</v>
       </c>
@@ -8251,7 +8410,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="67" spans="1:26" hidden="1">
+    <row r="67" spans="1:27" hidden="1">
       <c r="A67">
         <v>764</v>
       </c>
@@ -8322,7 +8481,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="68" spans="1:26" hidden="1">
+    <row r="68" spans="1:27" hidden="1">
       <c r="A68">
         <v>881</v>
       </c>
@@ -8393,7 +8552,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="69" spans="1:26" hidden="1">
+    <row r="69" spans="1:27" hidden="1">
       <c r="A69">
         <v>906</v>
       </c>
@@ -8464,7 +8623,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>59</v>
       </c>
@@ -8529,7 +8688,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>1011</v>
       </c>
@@ -8594,7 +8753,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="13" customFormat="1">
+    <row r="72" spans="1:27" s="13" customFormat="1">
       <c r="A72" s="13">
         <v>758</v>
       </c>
@@ -8626,7 +8785,7 @@
         <v>-1.7847222229999999</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>484</v>
       </c>
@@ -8678,6 +8837,9 @@
       <c r="R73">
         <v>0.36</v>
       </c>
+      <c r="S73">
+        <v>46</v>
+      </c>
       <c r="T73">
         <v>0.19</v>
       </c>
@@ -8699,8 +8861,11 @@
       <c r="Z73" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" hidden="1">
+      <c r="AA73" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" hidden="1">
       <c r="A74">
         <v>310</v>
       </c>
@@ -8771,7 +8936,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="75" spans="1:26" hidden="1">
+    <row r="75" spans="1:27" hidden="1">
       <c r="A75">
         <v>715</v>
       </c>
@@ -8842,7 +9007,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="76" spans="1:26" hidden="1">
+    <row r="76" spans="1:27" hidden="1">
       <c r="A76">
         <v>725</v>
       </c>
@@ -8913,7 +9078,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="77" spans="1:26" hidden="1">
+    <row r="77" spans="1:27" hidden="1">
       <c r="A77">
         <v>733</v>
       </c>
@@ -8984,7 +9149,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="78" spans="1:26" hidden="1">
+    <row r="78" spans="1:27" hidden="1">
       <c r="A78">
         <v>806</v>
       </c>
@@ -9055,7 +9220,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="79" spans="1:26" hidden="1">
+    <row r="79" spans="1:27" hidden="1">
       <c r="A79">
         <v>499</v>
       </c>
@@ -9123,7 +9288,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>722</v>
       </c>
@@ -9163,7 +9328,7 @@
       <c r="O80">
         <v>0.66</v>
       </c>
-      <c r="Q80" s="25">
+      <c r="Q80" s="22">
         <v>193.8</v>
       </c>
       <c r="U80">
@@ -9847,7 +10012,7 @@
       <c r="Q92">
         <v>52.766939180000001</v>
       </c>
-      <c r="S92" s="29">
+      <c r="S92" s="26">
         <v>52.77</v>
       </c>
       <c r="U92">
@@ -9931,411 +10096,411 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="94" spans="1:25" s="20" customFormat="1" hidden="1">
-      <c r="A94" s="20">
+    <row r="94" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A94" s="18">
         <v>112</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="18">
         <v>2.1666666669999999</v>
       </c>
-      <c r="E94" s="20">
+      <c r="E94" s="18">
         <v>0.5</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F94" s="18">
         <v>32</v>
       </c>
-      <c r="G94" s="20">
+      <c r="G94" s="18">
         <v>6.6666666670000003</v>
       </c>
-      <c r="H94" s="20">
+      <c r="H94" s="18">
         <v>6.1666666670000003</v>
       </c>
-      <c r="I94" s="20">
+      <c r="I94" s="18">
         <v>29.833333332999999</v>
       </c>
-      <c r="J94" s="20">
+      <c r="J94" s="18">
         <v>-23.666666666000001</v>
       </c>
-      <c r="K94" s="20">
+      <c r="K94" s="18">
         <v>27.147870370555601</v>
       </c>
-      <c r="L94" s="20">
+      <c r="L94" s="18">
         <v>0.11</v>
       </c>
-      <c r="M94" s="20">
+      <c r="M94" s="18">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N94" s="26">
+      <c r="N94" s="23">
         <v>39.970685244999999</v>
       </c>
-      <c r="O94" s="20">
+      <c r="O94" s="18">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P94" s="20">
+      <c r="P94" s="18">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q94" s="20">
+      <c r="Q94" s="18">
         <v>28.080583669999999</v>
       </c>
-      <c r="R94" s="20">
+      <c r="R94" s="18">
         <v>0.52165000000000006</v>
       </c>
       <c r="T94">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V94" s="20" t="s">
+      <c r="V94" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="W94" s="20" t="s">
+      <c r="W94" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="X94" s="20" t="s">
+      <c r="X94" s="18" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="95" spans="1:25" s="20" customFormat="1" hidden="1">
-      <c r="A95" s="20">
+    <row r="95" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A95" s="18">
         <v>289</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="18">
         <v>3</v>
       </c>
-      <c r="E95" s="20">
-        <v>1</v>
-      </c>
-      <c r="F95" s="20">
+      <c r="E95" s="18">
+        <v>1</v>
+      </c>
+      <c r="F95" s="18">
         <v>5</v>
       </c>
-      <c r="G95" s="20">
+      <c r="G95" s="18">
         <v>2</v>
       </c>
-      <c r="H95" s="20">
-        <v>1</v>
-      </c>
-      <c r="I95" s="20">
+      <c r="H95" s="18">
+        <v>1</v>
+      </c>
+      <c r="I95" s="18">
         <v>2</v>
       </c>
-      <c r="J95" s="20">
+      <c r="J95" s="18">
         <v>-1</v>
       </c>
-      <c r="K95" s="20">
+      <c r="K95" s="18">
         <v>27.147870370555601</v>
       </c>
-      <c r="L95" s="20">
+      <c r="L95" s="18">
         <v>0.11</v>
       </c>
-      <c r="M95" s="20">
+      <c r="M95" s="18">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N95" s="26">
+      <c r="N95" s="23">
         <v>39.970685244999999</v>
       </c>
-      <c r="O95" s="20">
+      <c r="O95" s="18">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P95" s="20">
+      <c r="P95" s="18">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q95" s="20">
+      <c r="Q95" s="18">
         <v>28.080583669999999</v>
       </c>
-      <c r="R95" s="20">
+      <c r="R95" s="18">
         <v>0.52165000000000006</v>
       </c>
       <c r="T95">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V95" s="20" t="s">
+      <c r="V95" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="W95" s="20" t="s">
+      <c r="W95" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="X95" s="20" t="s">
+      <c r="X95" s="18" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="96" spans="1:25" s="20" customFormat="1" hidden="1">
-      <c r="A96" s="20">
+    <row r="96" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A96" s="18">
         <v>489</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="18">
         <v>13.5</v>
       </c>
-      <c r="E96" s="20">
+      <c r="E96" s="18">
         <v>2</v>
       </c>
-      <c r="F96" s="20">
+      <c r="F96" s="18">
         <v>30</v>
       </c>
-      <c r="G96" s="20">
-        <v>0</v>
-      </c>
-      <c r="H96" s="20">
+      <c r="G96" s="18">
+        <v>0</v>
+      </c>
+      <c r="H96" s="18">
         <v>-2</v>
       </c>
-      <c r="I96" s="20">
+      <c r="I96" s="18">
         <v>16.5</v>
       </c>
-      <c r="J96" s="20">
+      <c r="J96" s="18">
         <v>-18.5</v>
       </c>
-      <c r="K96" s="20">
+      <c r="K96" s="18">
         <v>27.147870370555601</v>
       </c>
-      <c r="L96" s="20">
+      <c r="L96" s="18">
         <v>0.11</v>
       </c>
-      <c r="M96" s="20">
+      <c r="M96" s="18">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N96" s="26">
+      <c r="N96" s="23">
         <v>39.970685244999999</v>
       </c>
-      <c r="O96" s="20">
+      <c r="O96" s="18">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P96" s="20">
+      <c r="P96" s="18">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q96" s="20">
+      <c r="Q96" s="18">
         <v>28.080583669999999</v>
       </c>
-      <c r="R96" s="20">
+      <c r="R96" s="18">
         <v>0.52165000000000006</v>
       </c>
       <c r="T96">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V96" s="20" t="s">
+      <c r="V96" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="W96" s="20" t="s">
+      <c r="W96" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="X96" s="20" t="s">
+      <c r="X96" s="18" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="97" spans="1:25" s="20" customFormat="1" hidden="1">
-      <c r="A97" s="20">
+    <row r="97" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A97" s="18">
         <v>498</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="18">
         <v>2.3333333330000001</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E97" s="18">
         <v>2.1666666669999999</v>
       </c>
-      <c r="F97" s="20">
+      <c r="F97" s="18">
         <v>2</v>
       </c>
-      <c r="G97" s="20">
+      <c r="G97" s="18">
         <v>1.3333333329999999</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="18">
         <v>-0.83333333399999998</v>
       </c>
-      <c r="I97" s="20">
+      <c r="I97" s="18">
         <v>-0.33333333300000001</v>
       </c>
-      <c r="J97" s="20">
+      <c r="J97" s="18">
         <v>-0.50000000099999997</v>
       </c>
-      <c r="K97" s="20">
+      <c r="K97" s="18">
         <v>27.147870370555601</v>
       </c>
-      <c r="L97" s="20">
+      <c r="L97" s="18">
         <v>0.11</v>
       </c>
-      <c r="M97" s="20">
+      <c r="M97" s="18">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N97" s="26">
+      <c r="N97" s="23">
         <v>39.970685244999999</v>
       </c>
-      <c r="O97" s="20">
+      <c r="O97" s="18">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P97" s="20">
+      <c r="P97" s="18">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q97" s="20">
+      <c r="Q97" s="18">
         <v>28.080583669999999</v>
       </c>
-      <c r="R97" s="20">
+      <c r="R97" s="18">
         <v>0.52165000000000006</v>
       </c>
       <c r="T97">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V97" s="20" t="s">
+      <c r="V97" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="W97" s="20" t="s">
+      <c r="W97" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="X97" s="20" t="s">
+      <c r="X97" s="18" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="20" customFormat="1" hidden="1">
-      <c r="A98" s="20">
+    <row r="98" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A98" s="18">
         <v>800</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="18">
         <v>6.2</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="18">
         <v>12.5</v>
       </c>
-      <c r="F98" s="20">
+      <c r="F98" s="18">
         <v>4.6666666670000003</v>
       </c>
-      <c r="G98" s="20">
+      <c r="G98" s="18">
         <v>11.5</v>
       </c>
-      <c r="H98" s="20">
+      <c r="H98" s="18">
         <v>-1</v>
       </c>
-      <c r="I98" s="20">
+      <c r="I98" s="18">
         <v>-1.5333333330000001</v>
       </c>
-      <c r="J98" s="20">
+      <c r="J98" s="18">
         <v>0.53333333299999997</v>
       </c>
-      <c r="K98" s="20">
+      <c r="K98" s="18">
         <v>27.147870370555601</v>
       </c>
-      <c r="L98" s="20">
+      <c r="L98" s="18">
         <v>0.11</v>
       </c>
-      <c r="M98" s="20">
+      <c r="M98" s="18">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N98" s="26">
+      <c r="N98" s="23">
         <v>39.970685244999999</v>
       </c>
-      <c r="O98" s="20">
+      <c r="O98" s="18">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P98" s="20">
+      <c r="P98" s="18">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q98" s="20">
+      <c r="Q98" s="18">
         <v>28.080583669999999</v>
       </c>
-      <c r="R98" s="20">
+      <c r="R98" s="18">
         <v>0.52165000000000006</v>
       </c>
       <c r="T98">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V98" s="20" t="s">
+      <c r="V98" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="W98" s="20" t="s">
+      <c r="W98" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="X98" s="20" t="s">
+      <c r="X98" s="18" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="20" customFormat="1" hidden="1">
-      <c r="A99" s="20">
+    <row r="99" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A99" s="18">
         <v>861</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="18">
         <v>32</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="18">
         <v>21</v>
       </c>
-      <c r="F99" s="20">
+      <c r="F99" s="18">
         <v>15</v>
       </c>
-      <c r="G99" s="20">
+      <c r="G99" s="18">
         <v>17.600000000000001</v>
       </c>
-      <c r="H99" s="20">
+      <c r="H99" s="18">
         <v>-3.4</v>
       </c>
-      <c r="I99" s="20">
+      <c r="I99" s="18">
         <v>-17</v>
       </c>
-      <c r="J99" s="20">
+      <c r="J99" s="18">
         <v>13.6</v>
       </c>
-      <c r="K99" s="20">
+      <c r="K99" s="18">
         <v>27.147870370555601</v>
       </c>
-      <c r="L99" s="20">
+      <c r="L99" s="18">
         <v>0.11</v>
       </c>
-      <c r="M99" s="20">
+      <c r="M99" s="18">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N99" s="26">
+      <c r="N99" s="23">
         <v>39.970685244999999</v>
       </c>
-      <c r="O99" s="20">
+      <c r="O99" s="18">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P99" s="20">
+      <c r="P99" s="18">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q99" s="20">
+      <c r="Q99" s="18">
         <v>28.080583669999999</v>
       </c>
-      <c r="R99" s="20">
+      <c r="R99" s="18">
         <v>0.52165000000000006</v>
       </c>
       <c r="T99">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V99" s="20" t="s">
+      <c r="V99" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="W99" s="20" t="s">
+      <c r="W99" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="X99" s="20" t="s">
+      <c r="X99" s="18" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -11103,6 +11268,9 @@
       <c r="R111">
         <v>0.36446000000000001</v>
       </c>
+      <c r="S111">
+        <v>41.57</v>
+      </c>
       <c r="T111">
         <v>0.320747</v>
       </c>
@@ -11117,6 +11285,9 @@
       </c>
       <c r="X111" t="s">
         <v>1033</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="112" spans="1:25">
@@ -11853,50 +12024,50 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="16" customFormat="1">
-      <c r="A125" s="16">
+    <row r="125" spans="1:27">
+      <c r="A125">
         <v>566</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" t="s">
         <v>242</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C125" t="s">
         <v>516</v>
       </c>
-      <c r="D125" s="16">
+      <c r="D125">
         <v>1.3333333329999999</v>
       </c>
-      <c r="E125" s="16">
+      <c r="E125">
         <v>3</v>
       </c>
-      <c r="F125" s="16">
+      <c r="F125">
         <v>3</v>
       </c>
-      <c r="G125" s="16">
+      <c r="G125">
         <v>25</v>
       </c>
-      <c r="H125" s="16">
+      <c r="H125">
         <v>22</v>
       </c>
-      <c r="I125" s="16">
+      <c r="I125">
         <v>1.6666666670000001</v>
       </c>
-      <c r="J125" s="16">
+      <c r="J125">
         <v>20.333333332999999</v>
       </c>
-      <c r="L125" s="16">
+      <c r="L125">
         <v>0.44</v>
       </c>
-      <c r="N125" s="16">
+      <c r="N125">
         <v>61.28</v>
       </c>
-      <c r="O125" s="16">
+      <c r="O125">
         <v>0.75</v>
       </c>
-      <c r="V125" s="16" t="s">
+      <c r="V125" t="s">
         <v>1026</v>
       </c>
-      <c r="W125" s="16" t="s">
+      <c r="W125" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -12343,6 +12514,9 @@
       <c r="O137">
         <v>0.3</v>
       </c>
+      <c r="R137">
+        <v>0.26500000000000001</v>
+      </c>
       <c r="V137" t="s">
         <v>928</v>
       </c>
@@ -12351,6 +12525,9 @@
       </c>
       <c r="X137" t="s">
         <v>1060</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="138" spans="1:26" hidden="1">
@@ -13544,7 +13721,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="156" spans="1:28" s="13" customFormat="1">
+    <row r="156" spans="1:28" s="13" customFormat="1" hidden="1">
       <c r="A156" s="13">
         <v>321</v>
       </c>
@@ -13596,8 +13773,18 @@
       <c r="Q156" s="13">
         <v>37.885388720000002</v>
       </c>
-      <c r="T156"/>
-      <c r="U156"/>
+      <c r="R156">
+        <v>0.315</v>
+      </c>
+      <c r="S156">
+        <v>96.201993669999993</v>
+      </c>
+      <c r="T156">
+        <v>0.13507786699999999</v>
+      </c>
+      <c r="U156">
+        <v>0.45442529500000001</v>
+      </c>
       <c r="V156" s="13" t="s">
         <v>875</v>
       </c>
@@ -13606,6 +13793,9 @@
       </c>
       <c r="X156" s="13" t="s">
         <v>1036</v>
+      </c>
+      <c r="Y156" s="13" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="157" spans="1:28" hidden="1">
@@ -13790,7 +13980,7 @@
       <c r="N159">
         <v>39</v>
       </c>
-      <c r="Q159" s="31">
+      <c r="Q159" s="28">
         <v>238.8</v>
       </c>
       <c r="S159">
@@ -13864,7 +14054,7 @@
       <c r="N160">
         <v>39</v>
       </c>
-      <c r="Q160" s="31">
+      <c r="Q160" s="28">
         <v>238.8</v>
       </c>
       <c r="S160">
@@ -16466,7 +16656,7 @@
       <c r="J207">
         <v>-1.9</v>
       </c>
-      <c r="K207" s="18">
+      <c r="K207" s="16">
         <v>45.32</v>
       </c>
       <c r="L207">
@@ -19178,7 +19368,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="257" spans="1:25">
+    <row r="257" spans="1:26">
       <c r="A257">
         <v>971</v>
       </c>
@@ -19210,7 +19400,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="258" spans="1:25">
+    <row r="258" spans="1:26">
       <c r="A258">
         <v>976</v>
       </c>
@@ -19242,7 +19432,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="259" spans="1:25">
+    <row r="259" spans="1:26">
       <c r="A259">
         <v>151</v>
       </c>
@@ -19283,7 +19473,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="260" spans="1:25">
+    <row r="260" spans="1:26">
       <c r="A260">
         <v>587</v>
       </c>
@@ -19315,7 +19505,7 @@
         <v>3.1666666669999999</v>
       </c>
     </row>
-    <row r="261" spans="1:25">
+    <row r="261" spans="1:26">
       <c r="A261">
         <v>792</v>
       </c>
@@ -19367,6 +19557,9 @@
       <c r="R261">
         <v>0.29801250000000001</v>
       </c>
+      <c r="S261">
+        <v>128.35</v>
+      </c>
       <c r="T261">
         <v>0.16129550000000001</v>
       </c>
@@ -19385,8 +19578,11 @@
       <c r="Y261" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="262" spans="1:25">
+      <c r="Z261" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26">
       <c r="A262">
         <v>1096</v>
       </c>
@@ -19418,7 +19614,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="263" spans="1:25">
+    <row r="263" spans="1:26">
       <c r="A263">
         <v>74</v>
       </c>
@@ -19462,7 +19658,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="264" spans="1:25" hidden="1">
+    <row r="264" spans="1:26" hidden="1">
       <c r="A264">
         <v>940</v>
       </c>
@@ -19536,7 +19732,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="265" spans="1:25">
+    <row r="265" spans="1:26">
       <c r="A265">
         <v>822</v>
       </c>
@@ -19574,7 +19770,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="266" spans="1:25">
+    <row r="266" spans="1:26">
       <c r="A266">
         <v>848</v>
       </c>
@@ -19612,7 +19808,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="267" spans="1:25">
+    <row r="267" spans="1:26">
       <c r="A267">
         <v>851</v>
       </c>
@@ -19650,7 +19846,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="268" spans="1:25">
+    <row r="268" spans="1:26">
       <c r="A268">
         <v>866</v>
       </c>
@@ -19688,7 +19884,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="269" spans="1:25">
+    <row r="269" spans="1:26">
       <c r="A269">
         <v>885</v>
       </c>
@@ -19726,7 +19922,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="270" spans="1:25">
+    <row r="270" spans="1:26">
       <c r="A270">
         <v>716</v>
       </c>
@@ -19776,7 +19972,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="271" spans="1:25">
+    <row r="271" spans="1:26">
       <c r="A271">
         <v>831</v>
       </c>
@@ -19826,7 +20022,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="272" spans="1:25">
+    <row r="272" spans="1:26">
       <c r="A272">
         <v>182</v>
       </c>
@@ -20546,7 +20742,7 @@
       <c r="R285">
         <v>0.74690000000000012</v>
       </c>
-      <c r="S285" s="29">
+      <c r="S285" s="26">
         <v>99.71</v>
       </c>
       <c r="U285">
@@ -20696,7 +20892,7 @@
       <c r="O288">
         <v>0.15240000000000001</v>
       </c>
-      <c r="R288" s="27">
+      <c r="R288" s="24">
         <v>0.28000000000000003</v>
       </c>
       <c r="U288" t="s">
@@ -20749,7 +20945,7 @@
       <c r="O289">
         <v>0.15240000000000001</v>
       </c>
-      <c r="R289" s="27">
+      <c r="R289" s="24">
         <v>0.28000000000000003</v>
       </c>
       <c r="U289" t="s">
@@ -21252,6 +21448,9 @@
       <c r="R299">
         <v>0.33</v>
       </c>
+      <c r="S299">
+        <v>40</v>
+      </c>
       <c r="T299">
         <v>0.1</v>
       </c>
@@ -21266,6 +21465,9 @@
       </c>
       <c r="X299" t="s">
         <v>973</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="300" spans="1:25">
@@ -21320,6 +21522,9 @@
       <c r="R300">
         <v>0.33</v>
       </c>
+      <c r="S300">
+        <v>40</v>
+      </c>
       <c r="T300">
         <v>0.1</v>
       </c>
@@ -21334,6 +21539,9 @@
       </c>
       <c r="X300" t="s">
         <v>973</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="301" spans="1:25">
@@ -23124,7 +23332,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="337" spans="1:24" hidden="1">
+    <row r="337" spans="1:25" hidden="1">
       <c r="A337">
         <v>1006</v>
       </c>
@@ -23195,7 +23403,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="338" spans="1:24">
+    <row r="338" spans="1:25">
       <c r="A338">
         <v>1037</v>
       </c>
@@ -23227,7 +23435,7 @@
         <v>-1.1666666670000001</v>
       </c>
     </row>
-    <row r="339" spans="1:24" hidden="1">
+    <row r="339" spans="1:25" hidden="1">
       <c r="A339">
         <v>247</v>
       </c>
@@ -23298,7 +23506,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="340" spans="1:24">
+    <row r="340" spans="1:25">
       <c r="A340">
         <v>269</v>
       </c>
@@ -23369,7 +23577,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="341" spans="1:24">
+    <row r="341" spans="1:25">
       <c r="A341">
         <v>593</v>
       </c>
@@ -23440,7 +23648,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="342" spans="1:24">
+    <row r="342" spans="1:25">
       <c r="A342">
         <v>597</v>
       </c>
@@ -23511,7 +23719,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="343" spans="1:24">
+    <row r="343" spans="1:25">
       <c r="A343">
         <v>384</v>
       </c>
@@ -23549,7 +23757,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="344" spans="1:24">
+    <row r="344" spans="1:25">
       <c r="A344">
         <v>389</v>
       </c>
@@ -23587,7 +23795,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="345" spans="1:24">
+    <row r="345" spans="1:25">
       <c r="A345">
         <v>832</v>
       </c>
@@ -23630,6 +23838,9 @@
       <c r="R345">
         <v>0.29970000000000002</v>
       </c>
+      <c r="S345">
+        <v>137.82</v>
+      </c>
       <c r="T345">
         <v>0.26330100000000001</v>
       </c>
@@ -23642,8 +23853,11 @@
       <c r="X345" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="346" spans="1:24">
+      <c r="Y345" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="346" spans="1:25">
       <c r="A346">
         <v>583</v>
       </c>
@@ -23687,7 +23901,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="347" spans="1:24">
+    <row r="347" spans="1:25">
       <c r="A347">
         <v>445</v>
       </c>
@@ -23728,7 +23942,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="348" spans="1:24">
+    <row r="348" spans="1:25">
       <c r="A348">
         <v>1051</v>
       </c>
@@ -23769,7 +23983,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="349" spans="1:24">
+    <row r="349" spans="1:25">
       <c r="A349">
         <v>981</v>
       </c>
@@ -23813,7 +24027,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="350" spans="1:24">
+    <row r="350" spans="1:25">
       <c r="A350">
         <v>41</v>
       </c>
@@ -23866,7 +24080,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="351" spans="1:24">
+    <row r="351" spans="1:25">
       <c r="A351">
         <v>68</v>
       </c>
@@ -23919,7 +24133,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="352" spans="1:24">
+    <row r="352" spans="1:25">
       <c r="A352">
         <v>186</v>
       </c>
@@ -24325,7 +24539,7 @@
       <c r="R361">
         <v>0.38500000000000001</v>
       </c>
-      <c r="S361" s="29">
+      <c r="S361" s="26">
         <v>28.61</v>
       </c>
       <c r="V361" t="s">
@@ -26254,6 +26468,9 @@
       <c r="R398">
         <v>0.24829999999999999</v>
       </c>
+      <c r="S398">
+        <v>62.75</v>
+      </c>
       <c r="T398">
         <v>0.32875799999999999</v>
       </c>
@@ -26268,6 +26485,9 @@
       </c>
       <c r="X398" t="s">
         <v>1027</v>
+      </c>
+      <c r="Y398" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="399" spans="1:25">
@@ -33285,6 +33505,9 @@
       <c r="R537">
         <v>0.18308749999999999</v>
       </c>
+      <c r="S537">
+        <v>157.16</v>
+      </c>
       <c r="T537">
         <v>0.27898400000000001</v>
       </c>
@@ -33299,6 +33522,9 @@
       </c>
       <c r="X537" t="s">
         <v>980</v>
+      </c>
+      <c r="Y537" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="538" spans="1:26">
@@ -34687,6 +34913,9 @@
       <c r="R566">
         <v>0.51919999999999999</v>
       </c>
+      <c r="S566" s="32">
+        <v>8.0335951278089777</v>
+      </c>
       <c r="T566">
         <v>0.62512132399999998</v>
       </c>
@@ -34698,6 +34927,9 @@
       </c>
       <c r="X566" t="s">
         <v>1053</v>
+      </c>
+      <c r="Y566" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="567" spans="1:25">
@@ -35218,7 +35450,7 @@
       </c>
       <c r="K574" s="4"/>
     </row>
-    <row r="575" spans="1:25">
+    <row r="575" spans="1:25" hidden="1">
       <c r="A575">
         <v>742</v>
       </c>
@@ -35562,6 +35794,9 @@
       <c r="Q580">
         <v>45.247607995000003</v>
       </c>
+      <c r="R580">
+        <v>0.42299999999999999</v>
+      </c>
       <c r="T580">
         <v>120.5201752</v>
       </c>
@@ -35579,6 +35814,9 @@
       </c>
       <c r="Y580" t="s">
         <v>1042</v>
+      </c>
+      <c r="Z580" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="581" spans="1:26">
@@ -36821,6 +37059,9 @@
       <c r="R605">
         <v>0.33585833333333298</v>
       </c>
+      <c r="S605">
+        <v>103</v>
+      </c>
       <c r="T605">
         <v>0.10765675</v>
       </c>
@@ -36835,6 +37076,9 @@
       </c>
       <c r="X605" t="s">
         <v>973</v>
+      </c>
+      <c r="Y605" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="606" spans="1:25">
@@ -37083,10 +37327,10 @@
       <c r="R610">
         <v>0.13550000000000001</v>
       </c>
-      <c r="S610" s="29">
+      <c r="S610" s="26">
         <v>120.66</v>
       </c>
-      <c r="T610" s="29">
+      <c r="T610" s="26">
         <v>0.52</v>
       </c>
       <c r="U610">
@@ -37398,6 +37642,15 @@
       <c r="N616">
         <v>13.837210654750001</v>
       </c>
+      <c r="R616">
+        <v>0.18</v>
+      </c>
+      <c r="S616">
+        <v>129.27500000000001</v>
+      </c>
+      <c r="T616">
+        <v>331.07</v>
+      </c>
       <c r="U616">
         <v>0.2934312865</v>
       </c>
@@ -37406,6 +37659,9 @@
       </c>
       <c r="W616" t="s">
         <v>960</v>
+      </c>
+      <c r="X616" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="617" spans="1:26">
@@ -37555,7 +37811,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="620" spans="1:26">
+    <row r="620" spans="1:26" hidden="1">
       <c r="A620">
         <v>404</v>
       </c>
@@ -37629,7 +37885,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="621" spans="1:26">
+    <row r="621" spans="1:26" hidden="1">
       <c r="A621">
         <v>442</v>
       </c>
@@ -39282,11 +39538,17 @@
       <c r="N654">
         <v>23.68</v>
       </c>
+      <c r="O654" s="31">
+        <v>4.8000000000000001E-2</v>
+      </c>
       <c r="V654" t="s">
         <v>1005</v>
       </c>
       <c r="W654" t="s">
         <v>1043</v>
+      </c>
+      <c r="X654" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="655" spans="1:25" hidden="1">
@@ -40276,7 +40538,7 @@
       <c r="L671">
         <v>0.15</v>
       </c>
-      <c r="N671" s="28">
+      <c r="N671" s="25">
         <v>11.193603452380952</v>
       </c>
       <c r="V671" t="s">
@@ -41766,7 +42028,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="705" spans="1:25">
+    <row r="705" spans="1:26">
       <c r="A705">
         <v>252</v>
       </c>
@@ -41798,7 +42060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:25">
+    <row r="706" spans="1:26">
       <c r="A706">
         <v>951</v>
       </c>
@@ -41848,7 +42110,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="707" spans="1:25">
+    <row r="707" spans="1:26">
       <c r="A707">
         <v>203</v>
       </c>
@@ -41880,7 +42142,7 @@
         <v>-0.55904373900000004</v>
       </c>
     </row>
-    <row r="708" spans="1:25">
+    <row r="708" spans="1:26">
       <c r="A708">
         <v>163</v>
       </c>
@@ -41933,7 +42195,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="709" spans="1:25">
+    <row r="709" spans="1:26">
       <c r="A709">
         <v>463</v>
       </c>
@@ -41989,7 +42251,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="710" spans="1:25">
+    <row r="710" spans="1:26">
       <c r="A710">
         <v>696</v>
       </c>
@@ -42045,7 +42307,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="711" spans="1:25">
+    <row r="711" spans="1:26">
       <c r="A711">
         <v>1029</v>
       </c>
@@ -42097,6 +42359,9 @@
       <c r="R711">
         <v>0.19170000000000001</v>
       </c>
+      <c r="S711">
+        <v>185.16</v>
+      </c>
       <c r="T711">
         <v>0.15619875</v>
       </c>
@@ -42115,8 +42380,11 @@
       <c r="Y711" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="712" spans="1:25">
+      <c r="Z711" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="712" spans="1:26">
       <c r="A712">
         <v>1084</v>
       </c>
@@ -42157,7 +42425,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="713" spans="1:25">
+    <row r="713" spans="1:26">
       <c r="A713">
         <v>483</v>
       </c>
@@ -42204,7 +42472,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="714" spans="1:25">
+    <row r="714" spans="1:26">
       <c r="A714">
         <v>595</v>
       </c>
@@ -42251,7 +42519,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="715" spans="1:25">
+    <row r="715" spans="1:26">
       <c r="A715">
         <v>316</v>
       </c>
@@ -42295,7 +42563,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="716" spans="1:25">
+    <row r="716" spans="1:26">
       <c r="A716">
         <v>399</v>
       </c>
@@ -42327,7 +42595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:25" hidden="1">
+    <row r="717" spans="1:26" hidden="1">
       <c r="A717">
         <v>1064</v>
       </c>
@@ -42401,7 +42669,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="718" spans="1:25">
+    <row r="718" spans="1:26">
       <c r="A718">
         <v>1082</v>
       </c>
@@ -42448,7 +42716,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="719" spans="1:25">
+    <row r="719" spans="1:26">
       <c r="A719">
         <v>815</v>
       </c>
@@ -42480,7 +42748,7 @@
         <v>3.126666663</v>
       </c>
     </row>
-    <row r="720" spans="1:25">
+    <row r="720" spans="1:26">
       <c r="A720">
         <v>584</v>
       </c>
@@ -42770,6 +43038,9 @@
       <c r="Q725">
         <v>18.37</v>
       </c>
+      <c r="R725">
+        <v>0.59</v>
+      </c>
       <c r="T725">
         <v>0.13554911424999999</v>
       </c>
@@ -42784,6 +43055,9 @@
       </c>
       <c r="Y725" t="s">
         <v>1023</v>
+      </c>
+      <c r="Z725" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="726" spans="1:26">
@@ -43974,47 +44248,47 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="756" spans="1:25" s="19" customFormat="1">
-      <c r="A756" s="19">
+    <row r="756" spans="1:25" s="17" customFormat="1">
+      <c r="A756" s="17">
         <v>31</v>
       </c>
-      <c r="B756" s="19" t="s">
+      <c r="B756" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C756" s="19" t="s">
+      <c r="C756" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D756" s="19">
+      <c r="D756" s="17">
         <v>0.69929288000000001</v>
       </c>
-      <c r="E756" s="19">
+      <c r="E756" s="17">
         <v>0.41075845</v>
       </c>
-      <c r="F756" s="19">
+      <c r="F756" s="17">
         <v>0.44768225</v>
       </c>
-      <c r="G756" s="19">
+      <c r="G756" s="17">
         <v>6.8728499999999998E-2</v>
       </c>
-      <c r="H756" s="19">
+      <c r="H756" s="17">
         <v>-0.34202995000000003</v>
       </c>
-      <c r="I756" s="19">
+      <c r="I756" s="17">
         <v>-0.25161063</v>
       </c>
-      <c r="J756" s="19">
+      <c r="J756" s="17">
         <v>-9.0419319999999997E-2</v>
       </c>
-      <c r="K756" s="19">
+      <c r="K756" s="17">
         <v>19.190000000000001</v>
       </c>
       <c r="N756">
         <v>20.703933750000001</v>
       </c>
-      <c r="V756" s="19" t="s">
+      <c r="V756" s="17" t="s">
         <v>1033</v>
       </c>
-      <c r="W756" s="19" t="s">
+      <c r="W756" s="17" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -44087,7 +44361,7 @@
       <c r="L758">
         <v>0.1</v>
       </c>
-      <c r="N758" s="17">
+      <c r="N758" s="15">
         <v>21.266666666666666</v>
       </c>
       <c r="V758" t="s">
@@ -45135,35 +45409,35 @@
         <v>972</v>
       </c>
     </row>
-    <row r="777" spans="1:25" s="16" customFormat="1">
-      <c r="A777" s="16">
+    <row r="777" spans="1:25">
+      <c r="A777">
         <v>415</v>
       </c>
-      <c r="B777" s="16" t="s">
+      <c r="B777" t="s">
         <v>274</v>
       </c>
-      <c r="C777" s="16" t="s">
+      <c r="C777" t="s">
         <v>413</v>
       </c>
-      <c r="D777" s="16">
-        <v>0</v>
-      </c>
-      <c r="E777" s="16">
+      <c r="D777">
+        <v>0</v>
+      </c>
+      <c r="E777">
         <v>1.5</v>
       </c>
-      <c r="F777" s="16">
-        <v>1</v>
-      </c>
-      <c r="G777" s="16">
-        <v>0</v>
-      </c>
-      <c r="H777" s="16">
+      <c r="F777">
+        <v>1</v>
+      </c>
+      <c r="G777">
+        <v>0</v>
+      </c>
+      <c r="H777">
         <v>-1.5</v>
       </c>
-      <c r="I777" s="16">
-        <v>1</v>
-      </c>
-      <c r="J777" s="16">
+      <c r="I777">
+        <v>1</v>
+      </c>
+      <c r="J777">
         <v>-2.5</v>
       </c>
     </row>
@@ -45210,10 +45484,10 @@
       <c r="O778">
         <v>0.115</v>
       </c>
-      <c r="V778" s="16" t="s">
+      <c r="V778" t="s">
         <v>1027</v>
       </c>
-      <c r="W778" s="16" t="s">
+      <c r="W778" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -45260,10 +45534,10 @@
       <c r="O779">
         <v>0.115</v>
       </c>
-      <c r="V779" s="16" t="s">
+      <c r="V779" t="s">
         <v>1027</v>
       </c>
-      <c r="W779" s="16" t="s">
+      <c r="W779" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -45785,7 +46059,7 @@
       <c r="R788">
         <v>0.53159999999999996</v>
       </c>
-      <c r="S788" s="29">
+      <c r="S788" s="26">
         <v>54.79</v>
       </c>
       <c r="U788">
@@ -48634,6 +48908,9 @@
       <c r="R840">
         <v>0.28755999999999998</v>
       </c>
+      <c r="S840">
+        <v>52</v>
+      </c>
       <c r="U840">
         <v>0.50166666666666704</v>
       </c>
@@ -48642,6 +48919,9 @@
       </c>
       <c r="W840" t="s">
         <v>984</v>
+      </c>
+      <c r="X840" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="841" spans="1:26">
@@ -49817,7 +50097,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="865" spans="1:25" hidden="1">
+    <row r="865" spans="1:26" hidden="1">
       <c r="A865">
         <v>524</v>
       </c>
@@ -49888,7 +50168,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="866" spans="1:25" hidden="1">
+    <row r="866" spans="1:26" hidden="1">
       <c r="A866">
         <v>525</v>
       </c>
@@ -49959,7 +50239,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="867" spans="1:25" hidden="1">
+    <row r="867" spans="1:26" hidden="1">
       <c r="A867">
         <v>554</v>
       </c>
@@ -50030,7 +50310,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="868" spans="1:25" hidden="1">
+    <row r="868" spans="1:26" hidden="1">
       <c r="A868">
         <v>787</v>
       </c>
@@ -50101,7 +50381,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="869" spans="1:25">
+    <row r="869" spans="1:26">
       <c r="A869">
         <v>839</v>
       </c>
@@ -50153,6 +50433,12 @@
       <c r="R869">
         <v>0.42433333333333301</v>
       </c>
+      <c r="S869">
+        <v>12.781000000000001</v>
+      </c>
+      <c r="T869">
+        <v>0.56299999999999994</v>
+      </c>
       <c r="U869">
         <v>0.26890274749999998</v>
       </c>
@@ -50168,8 +50454,11 @@
       <c r="Y869" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="870" spans="1:25" hidden="1">
+      <c r="Z869" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="870" spans="1:26" hidden="1">
       <c r="A870">
         <v>482</v>
       </c>
@@ -50237,7 +50526,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="871" spans="1:25">
+    <row r="871" spans="1:26">
       <c r="A871">
         <v>1040</v>
       </c>
@@ -50289,6 +50578,9 @@
       <c r="R871">
         <v>0.43533076923076902</v>
       </c>
+      <c r="S871">
+        <v>19.059999999999999</v>
+      </c>
       <c r="T871">
         <v>0.41330699999999998</v>
       </c>
@@ -50304,8 +50596,11 @@
       <c r="X871" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="872" spans="1:25" hidden="1">
+      <c r="Y871" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="872" spans="1:26" hidden="1">
       <c r="A872">
         <v>236</v>
       </c>
@@ -50373,7 +50668,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="873" spans="1:25" hidden="1">
+    <row r="873" spans="1:26" hidden="1">
       <c r="A873">
         <v>1025</v>
       </c>
@@ -50441,7 +50736,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="874" spans="1:25" hidden="1">
+    <row r="874" spans="1:26" hidden="1">
       <c r="A874">
         <v>195</v>
       </c>
@@ -50515,7 +50810,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="875" spans="1:25" hidden="1">
+    <row r="875" spans="1:26" hidden="1">
       <c r="A875">
         <v>963</v>
       </c>
@@ -50589,7 +50884,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="876" spans="1:25">
+    <row r="876" spans="1:26">
       <c r="A876">
         <v>72</v>
       </c>
@@ -50645,7 +50940,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="877" spans="1:25">
+    <row r="877" spans="1:26">
       <c r="A877">
         <v>189</v>
       </c>
@@ -50701,7 +50996,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="878" spans="1:25">
+    <row r="878" spans="1:26">
       <c r="A878">
         <v>633</v>
       </c>
@@ -50733,7 +51028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="879" spans="1:25">
+    <row r="879" spans="1:26">
       <c r="A879">
         <v>215</v>
       </c>
@@ -50779,14 +51074,20 @@
       <c r="R879">
         <v>1.2</v>
       </c>
+      <c r="S879">
+        <v>102.7286759</v>
+      </c>
       <c r="V879" t="s">
         <v>933</v>
       </c>
       <c r="W879" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="880" spans="1:25">
+      <c r="X879" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="880" spans="1:26">
       <c r="A880">
         <v>875</v>
       </c>
@@ -51006,11 +51307,23 @@
       <c r="N883">
         <v>13.226092</v>
       </c>
+      <c r="R883">
+        <v>0.40083999999999997</v>
+      </c>
       <c r="S883">
         <v>195.464592756988</v>
       </c>
+      <c r="T883">
+        <v>4.1752683999999998E-2</v>
+      </c>
+      <c r="U883">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="V883" t="s">
         <v>1073</v>
+      </c>
+      <c r="W883" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="884" spans="1:24">
@@ -53149,7 +53462,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="929" spans="1:24">
+    <row r="929" spans="1:25">
       <c r="A929">
         <v>1047</v>
       </c>
@@ -53181,7 +53494,7 @@
         <v>-1.8733333329999999</v>
       </c>
     </row>
-    <row r="930" spans="1:24">
+    <row r="930" spans="1:25">
       <c r="A930">
         <v>322</v>
       </c>
@@ -53222,7 +53535,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="931" spans="1:24">
+    <row r="931" spans="1:25">
       <c r="A931">
         <v>781</v>
       </c>
@@ -53263,7 +53576,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="932" spans="1:24">
+    <row r="932" spans="1:25">
       <c r="A932">
         <v>1014</v>
       </c>
@@ -53304,7 +53617,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="933" spans="1:24">
+    <row r="933" spans="1:25">
       <c r="A933">
         <v>150</v>
       </c>
@@ -53345,7 +53658,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="934" spans="1:24">
+    <row r="934" spans="1:25">
       <c r="A934">
         <v>421</v>
       </c>
@@ -53394,6 +53707,9 @@
       <c r="R934">
         <v>0.32951999999999998</v>
       </c>
+      <c r="S934">
+        <v>118.75448900000001</v>
+      </c>
       <c r="T934">
         <v>3.5354166999999999E-2</v>
       </c>
@@ -53409,8 +53725,11 @@
       <c r="X934" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="935" spans="1:24">
+      <c r="Y934" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="935" spans="1:25">
       <c r="A935">
         <v>335</v>
       </c>
@@ -53457,7 +53776,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="936" spans="1:24">
+    <row r="936" spans="1:25">
       <c r="A936">
         <v>620</v>
       </c>
@@ -53489,7 +53808,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="937" spans="1:24">
+    <row r="937" spans="1:25">
       <c r="A937">
         <v>1013</v>
       </c>
@@ -53521,7 +53840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:24">
+    <row r="938" spans="1:25">
       <c r="A938">
         <v>76</v>
       </c>
@@ -53574,7 +53893,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="939" spans="1:24">
+    <row r="939" spans="1:25">
       <c r="A939">
         <v>447</v>
       </c>
@@ -53621,7 +53940,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="940" spans="1:24">
+    <row r="940" spans="1:25">
       <c r="A940">
         <v>858</v>
       </c>
@@ -53658,7 +53977,7 @@
       <c r="L940">
         <v>0.02</v>
       </c>
-      <c r="N940" s="17">
+      <c r="N940" s="15">
         <v>16.770488417403605</v>
       </c>
       <c r="V940" t="s">
@@ -53668,7 +53987,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="941" spans="1:24">
+    <row r="941" spans="1:25">
       <c r="A941">
         <v>886</v>
       </c>
@@ -53733,7 +54052,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="942" spans="1:24">
+    <row r="942" spans="1:25">
       <c r="A942">
         <v>903</v>
       </c>
@@ -53798,7 +54117,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="943" spans="1:24">
+    <row r="943" spans="1:25">
       <c r="A943">
         <v>925</v>
       </c>
@@ -53863,7 +54182,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="944" spans="1:24">
+    <row r="944" spans="1:25">
       <c r="A944">
         <v>944</v>
       </c>
@@ -54070,7 +54389,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="947" spans="1:27">
+    <row r="947" spans="1:27" hidden="1">
       <c r="A947">
         <v>651</v>
       </c>
@@ -54122,6 +54441,12 @@
       <c r="Q947">
         <v>35.335929835000002</v>
       </c>
+      <c r="R947">
+        <v>0.34</v>
+      </c>
+      <c r="S947">
+        <v>33</v>
+      </c>
       <c r="T947">
         <v>0.21552104616666701</v>
       </c>
@@ -54137,8 +54462,14 @@
       <c r="X947" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="948" spans="1:27">
+      <c r="Y947" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Z947" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="948" spans="1:27" hidden="1">
       <c r="A948">
         <v>753</v>
       </c>
@@ -54190,6 +54521,12 @@
       <c r="Q948">
         <v>35.335929835000002</v>
       </c>
+      <c r="R948">
+        <v>0.34</v>
+      </c>
+      <c r="S948">
+        <v>33</v>
+      </c>
       <c r="T948">
         <v>0.21552104616666701</v>
       </c>
@@ -54204,6 +54541,12 @@
       </c>
       <c r="X948" t="s">
         <v>977</v>
+      </c>
+      <c r="Y948" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Z948" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="949" spans="1:27">
@@ -54255,6 +54598,9 @@
       <c r="R949">
         <v>0.38</v>
       </c>
+      <c r="S949">
+        <v>68</v>
+      </c>
       <c r="T949">
         <v>0.19</v>
       </c>
@@ -54269,6 +54615,9 @@
       </c>
       <c r="Y949" t="s">
         <v>1087</v>
+      </c>
+      <c r="Z949" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="950" spans="1:27">
@@ -54888,6 +55237,9 @@
       <c r="L958">
         <v>1.1328125</v>
       </c>
+      <c r="M958" s="30">
+        <v>8.7358894098472</v>
+      </c>
       <c r="N958">
         <v>37.554041218518499</v>
       </c>
@@ -54897,6 +55249,9 @@
       <c r="Q958">
         <v>76.97</v>
       </c>
+      <c r="T958" s="30">
+        <v>0.21655387034344117</v>
+      </c>
       <c r="V958" t="s">
         <v>937</v>
       </c>
@@ -54905,6 +55260,9 @@
       </c>
       <c r="X958" t="s">
         <v>1027</v>
+      </c>
+      <c r="Y958" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="959" spans="1:27">
@@ -55927,7 +56285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:25">
+    <row r="977" spans="1:26">
       <c r="A977">
         <v>677</v>
       </c>
@@ -55995,7 +56353,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="978" spans="1:25">
+    <row r="978" spans="1:26">
       <c r="A978">
         <v>99</v>
       </c>
@@ -56027,7 +56385,7 @@
         <v>4.6666666670000003</v>
       </c>
     </row>
-    <row r="979" spans="1:25">
+    <row r="979" spans="1:26">
       <c r="A979">
         <v>542</v>
       </c>
@@ -56059,7 +56417,7 @@
         <v>5.3333333339999998</v>
       </c>
     </row>
-    <row r="980" spans="1:25">
+    <row r="980" spans="1:26">
       <c r="A980">
         <v>674</v>
       </c>
@@ -56100,7 +56458,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="981" spans="1:25">
+    <row r="981" spans="1:26">
       <c r="A981">
         <v>717</v>
       </c>
@@ -56141,7 +56499,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="982" spans="1:25">
+    <row r="982" spans="1:26" hidden="1">
       <c r="A982">
         <v>749</v>
       </c>
@@ -56184,6 +56542,9 @@
       <c r="N982">
         <v>16.051364370000002</v>
       </c>
+      <c r="O982">
+        <v>0.80600000000000005</v>
+      </c>
       <c r="P982">
         <v>0.23854086250000001</v>
       </c>
@@ -56193,7 +56554,7 @@
       <c r="R982">
         <v>0.46170939999999999</v>
       </c>
-      <c r="S982" s="30">
+      <c r="S982" s="27">
         <v>18.989999999999998</v>
       </c>
       <c r="T982">
@@ -56211,8 +56572,11 @@
       <c r="Y982" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="983" spans="1:25">
+      <c r="Z982" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="983" spans="1:26">
       <c r="A983">
         <v>907</v>
       </c>
@@ -56264,14 +56628,23 @@
       <c r="S983">
         <v>18.9227664873446</v>
       </c>
+      <c r="T983">
+        <v>8.2069492999999993E-2</v>
+      </c>
+      <c r="U983">
+        <v>0.53</v>
+      </c>
       <c r="V983" t="s">
         <v>1073</v>
       </c>
       <c r="W983" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="984" spans="1:25">
+      <c r="X983" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="984" spans="1:26">
       <c r="A984">
         <v>305</v>
       </c>
@@ -56312,7 +56685,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="985" spans="1:25" hidden="1">
+    <row r="985" spans="1:26" hidden="1">
       <c r="A985">
         <v>601</v>
       </c>
@@ -56380,7 +56753,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="986" spans="1:25" hidden="1">
+    <row r="986" spans="1:26" hidden="1">
       <c r="A986">
         <v>880</v>
       </c>
@@ -56439,7 +56812,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="987" spans="1:25">
+    <row r="987" spans="1:26">
       <c r="A987">
         <v>57</v>
       </c>
@@ -56471,7 +56844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:25">
+    <row r="988" spans="1:26">
       <c r="A988">
         <v>140</v>
       </c>
@@ -56503,7 +56876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:25">
+    <row r="989" spans="1:26">
       <c r="A989">
         <v>784</v>
       </c>
@@ -56556,7 +56929,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="990" spans="1:25">
+    <row r="990" spans="1:26">
       <c r="A990">
         <v>1033</v>
       </c>
@@ -56609,7 +56982,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="991" spans="1:25">
+    <row r="991" spans="1:26">
       <c r="A991">
         <v>808</v>
       </c>
@@ -56640,6 +57013,9 @@
       <c r="J991">
         <v>4.5</v>
       </c>
+      <c r="K991">
+        <v>16.7</v>
+      </c>
       <c r="L991">
         <v>0.54928571400000004</v>
       </c>
@@ -56673,8 +57049,11 @@
       <c r="X991" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="992" spans="1:25" hidden="1">
+      <c r="Y991" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="992" spans="1:26" hidden="1">
       <c r="A992">
         <v>106</v>
       </c>
@@ -57800,8 +58179,20 @@
       <c r="N1013">
         <v>7.6965891688749997</v>
       </c>
+      <c r="R1013">
+        <v>0.25</v>
+      </c>
+      <c r="S1013">
+        <v>233.09</v>
+      </c>
+      <c r="T1013">
+        <v>9.1760999999999995E-2</v>
+      </c>
       <c r="V1013" t="s">
         <v>1059</v>
+      </c>
+      <c r="W1013" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="1014" spans="1:25" hidden="1">
@@ -58036,6 +58427,9 @@
       <c r="J1017">
         <v>-0.91666666699999999</v>
       </c>
+      <c r="K1017">
+        <v>29.5</v>
+      </c>
       <c r="L1017">
         <v>0.178666667</v>
       </c>
@@ -58047,6 +58441,9 @@
       </c>
       <c r="V1017" t="s">
         <v>915</v>
+      </c>
+      <c r="W1017" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="1018" spans="1:25">
@@ -58393,6 +58790,15 @@
       <c r="N1024">
         <v>10.349315068493201</v>
       </c>
+      <c r="R1024">
+        <v>0.15</v>
+      </c>
+      <c r="S1024">
+        <v>592.48</v>
+      </c>
+      <c r="T1024">
+        <v>0.12981300000000001</v>
+      </c>
       <c r="U1024">
         <v>0.41666666699999999</v>
       </c>
@@ -58404,6 +58810,9 @@
       </c>
       <c r="X1024" t="s">
         <v>960</v>
+      </c>
+      <c r="Y1024" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="1025" spans="1:26">
@@ -58446,6 +58855,15 @@
       <c r="N1025">
         <v>10.349315068493201</v>
       </c>
+      <c r="R1025">
+        <v>0.15</v>
+      </c>
+      <c r="S1025">
+        <v>592.48</v>
+      </c>
+      <c r="T1025">
+        <v>0.12981300000000001</v>
+      </c>
       <c r="U1025">
         <v>0.41666666699999999</v>
       </c>
@@ -58457,6 +58875,9 @@
       </c>
       <c r="X1025" t="s">
         <v>960</v>
+      </c>
+      <c r="Y1025" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="1026" spans="1:26">
@@ -58698,6 +59119,9 @@
       <c r="O1031">
         <v>0.26500000000000001</v>
       </c>
+      <c r="R1031">
+        <v>0.20799999999999999</v>
+      </c>
       <c r="T1031">
         <v>78.463597626666697</v>
       </c>
@@ -58706,6 +59130,9 @@
       </c>
       <c r="W1031" t="s">
         <v>1027</v>
+      </c>
+      <c r="X1031" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="1032" spans="1:26">
@@ -59313,7 +59740,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="1042" spans="1:25">
+    <row r="1042" spans="1:25" ht="18" customHeight="1">
       <c r="A1042">
         <v>17</v>
       </c>
@@ -59853,8 +60280,14 @@
       <c r="L1049">
         <v>0.69574999999999998</v>
       </c>
+      <c r="N1049">
+        <v>7.45</v>
+      </c>
       <c r="V1049" t="s">
         <v>1015</v>
+      </c>
+      <c r="W1049" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="1050" spans="1:25">
@@ -59894,8 +60327,14 @@
       <c r="L1050">
         <v>0.69574999999999998</v>
       </c>
+      <c r="N1050">
+        <v>7.45</v>
+      </c>
       <c r="V1050" t="s">
         <v>1015</v>
+      </c>
+      <c r="W1050" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="1051" spans="1:25">
@@ -60368,8 +60807,17 @@
       <c r="O1059">
         <v>0.22739999999999999</v>
       </c>
+      <c r="R1059">
+        <v>0.22837142857142859</v>
+      </c>
+      <c r="S1059">
+        <v>108.1797955</v>
+      </c>
       <c r="V1059" t="s">
         <v>943</v>
+      </c>
+      <c r="W1059" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="1060" spans="1:25">
@@ -60418,8 +60866,17 @@
       <c r="O1060">
         <v>0.22739999999999999</v>
       </c>
+      <c r="R1060">
+        <v>0.22837142857142859</v>
+      </c>
+      <c r="S1060">
+        <v>108.1797955</v>
+      </c>
       <c r="V1060" t="s">
         <v>943</v>
+      </c>
+      <c r="W1060" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="1061" spans="1:25">
@@ -60471,6 +60928,12 @@
       <c r="Q1061">
         <v>630.29999999999995</v>
       </c>
+      <c r="R1061">
+        <v>0.20818</v>
+      </c>
+      <c r="S1061">
+        <v>181.05813910000001</v>
+      </c>
       <c r="U1061">
         <v>0.26947327100000001</v>
       </c>
@@ -60479,6 +60942,9 @@
       </c>
       <c r="W1061" t="s">
         <v>957</v>
+      </c>
+      <c r="X1061" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="1062" spans="1:25">
@@ -60530,6 +60996,12 @@
       <c r="Q1062">
         <v>630.29999999999995</v>
       </c>
+      <c r="R1062">
+        <v>0.20818</v>
+      </c>
+      <c r="S1062">
+        <v>181.05813910000001</v>
+      </c>
       <c r="U1062">
         <v>0.26947327100000001</v>
       </c>
@@ -60538,6 +61010,9 @@
       </c>
       <c r="W1062" t="s">
         <v>957</v>
+      </c>
+      <c r="X1062" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="1063" spans="1:25">
@@ -61109,7 +61584,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="1073" spans="1:26" hidden="1">
+    <row r="1073" spans="1:27" hidden="1">
       <c r="A1073">
         <v>644</v>
       </c>
@@ -61177,7 +61652,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="1074" spans="1:26" hidden="1">
+    <row r="1074" spans="1:27" hidden="1">
       <c r="A1074">
         <v>982</v>
       </c>
@@ -61245,7 +61720,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="1075" spans="1:26" hidden="1">
+    <row r="1075" spans="1:27" hidden="1">
       <c r="A1075">
         <v>648</v>
       </c>
@@ -61313,7 +61788,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="1076" spans="1:26" hidden="1">
+    <row r="1076" spans="1:27" hidden="1">
       <c r="A1076">
         <v>590</v>
       </c>
@@ -61381,7 +61856,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="1077" spans="1:26" hidden="1">
+    <row r="1077" spans="1:27" hidden="1">
       <c r="A1077">
         <v>433</v>
       </c>
@@ -61449,7 +61924,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1078" spans="1:26" hidden="1">
+    <row r="1078" spans="1:27" hidden="1">
       <c r="A1078">
         <v>514</v>
       </c>
@@ -61517,7 +61992,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1079" spans="1:26">
+    <row r="1079" spans="1:27">
       <c r="A1079">
         <v>450</v>
       </c>
@@ -61576,7 +62051,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="1080" spans="1:26">
+    <row r="1080" spans="1:27">
       <c r="A1080">
         <v>1004</v>
       </c>
@@ -61641,7 +62116,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="1081" spans="1:26">
+    <row r="1081" spans="1:27">
       <c r="A1081">
         <v>45</v>
       </c>
@@ -61688,7 +62163,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="1082" spans="1:26">
+    <row r="1082" spans="1:27">
       <c r="A1082">
         <v>338</v>
       </c>
@@ -61732,7 +62207,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1083" spans="1:26">
+    <row r="1083" spans="1:27">
       <c r="A1083">
         <v>69</v>
       </c>
@@ -61770,7 +62245,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="1084" spans="1:26">
+    <row r="1084" spans="1:27">
       <c r="A1084">
         <v>367</v>
       </c>
@@ -61808,7 +62283,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="1085" spans="1:26">
+    <row r="1085" spans="1:27">
       <c r="A1085">
         <v>1050</v>
       </c>
@@ -61846,7 +62321,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="1086" spans="1:26">
+    <row r="1086" spans="1:27">
       <c r="A1086">
         <v>260</v>
       </c>
@@ -61895,6 +62370,9 @@
       <c r="R1086">
         <v>0.29449999999999998</v>
       </c>
+      <c r="S1086">
+        <v>565.29999999999995</v>
+      </c>
       <c r="U1086">
         <v>0.405441864895833</v>
       </c>
@@ -61907,8 +62385,11 @@
       <c r="X1086" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="1087" spans="1:26">
+      <c r="Y1086" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:27">
       <c r="A1087">
         <v>204</v>
       </c>
@@ -61967,7 +62448,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="1088" spans="1:26">
+    <row r="1088" spans="1:27" hidden="1">
       <c r="A1088">
         <v>221</v>
       </c>
@@ -62019,6 +62500,9 @@
       <c r="Q1088">
         <v>268.91000000000003</v>
       </c>
+      <c r="R1088">
+        <v>0.19</v>
+      </c>
       <c r="S1088">
         <v>137.819902450309</v>
       </c>
@@ -62043,8 +62527,11 @@
       <c r="Z1088" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1089" spans="1:26">
+      <c r="AA1088" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:27" hidden="1">
       <c r="A1089">
         <v>695</v>
       </c>
@@ -62096,6 +62583,9 @@
       <c r="Q1089">
         <v>268.91000000000003</v>
       </c>
+      <c r="R1089">
+        <v>0.19</v>
+      </c>
       <c r="S1089">
         <v>137.819902450309</v>
       </c>
@@ -62120,8 +62610,11 @@
       <c r="Z1089" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1090" spans="1:26">
+      <c r="AA1089" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:27" hidden="1">
       <c r="A1090">
         <v>894</v>
       </c>
@@ -62173,6 +62666,9 @@
       <c r="Q1090">
         <v>268.91000000000003</v>
       </c>
+      <c r="R1090">
+        <v>0.19</v>
+      </c>
       <c r="S1090">
         <v>137.819902450309</v>
       </c>
@@ -62197,85 +62693,94 @@
       <c r="Z1090" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1091" spans="1:26" s="15" customFormat="1">
-      <c r="A1091" s="15">
+      <c r="AA1090" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:27" s="29" customFormat="1" hidden="1">
+      <c r="A1091" s="29">
         <v>933</v>
       </c>
-      <c r="B1091" s="15" t="s">
+      <c r="B1091" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C1091" s="15" t="s">
+      <c r="C1091" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D1091" s="15">
+      <c r="D1091" s="29">
         <v>1.3333333329999999</v>
       </c>
-      <c r="E1091" s="15">
+      <c r="E1091" s="29">
         <v>80</v>
       </c>
-      <c r="F1091" s="15">
+      <c r="F1091" s="29">
         <v>4.3428571429999998</v>
       </c>
-      <c r="G1091" s="15">
+      <c r="G1091" s="29">
         <v>3.5333333329999999</v>
       </c>
-      <c r="H1091" s="15">
+      <c r="H1091" s="29">
         <v>-76.466666666999998</v>
       </c>
-      <c r="I1091" s="15">
+      <c r="I1091" s="29">
         <v>3.0095238100000001</v>
       </c>
-      <c r="J1091" s="15">
+      <c r="J1091" s="29">
         <v>-79.476190477000003</v>
       </c>
-      <c r="K1091" s="15">
+      <c r="K1091" s="29">
         <v>17.150777898000001</v>
       </c>
-      <c r="L1091" s="15">
+      <c r="L1091" s="29">
         <v>0.43573333333333297</v>
       </c>
-      <c r="M1091" s="15">
+      <c r="M1091" s="29">
         <v>7.5</v>
       </c>
-      <c r="N1091" s="15">
+      <c r="N1091" s="29">
         <v>22.383333333333301</v>
       </c>
-      <c r="O1091" s="15">
+      <c r="O1091" s="29">
         <v>0.30480000000000002</v>
       </c>
-      <c r="P1091" s="15">
+      <c r="P1091" s="29">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Q1091" s="15">
+      <c r="Q1091" s="29">
         <v>268.91000000000003</v>
       </c>
-      <c r="S1091" s="15">
+      <c r="R1091">
+        <v>0.19</v>
+      </c>
+      <c r="S1091" s="29">
         <v>137.819902450309</v>
       </c>
-      <c r="T1091" s="15">
+      <c r="T1091" s="29">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="U1091" s="15">
+      <c r="U1091" s="29">
         <v>0.52527617900000001</v>
       </c>
-      <c r="V1091" s="15" t="s">
+      <c r="V1091" s="29" t="s">
         <v>1098</v>
       </c>
-      <c r="W1091" s="15" t="s">
+      <c r="W1091" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="X1091" s="15" t="s">
+      <c r="X1091" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="Y1091" s="15" t="s">
+      <c r="Y1091" s="29" t="s">
         <v>1069</v>
       </c>
-      <c r="Z1091" s="15" t="s">
+      <c r="Z1091" s="29" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1092" spans="1:26">
+      <c r="AA1091" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:27">
       <c r="A1092">
         <v>12</v>
       </c>
@@ -62352,7 +62857,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="1093" spans="1:26">
+    <row r="1093" spans="1:27">
       <c r="A1093">
         <v>165</v>
       </c>
@@ -62429,7 +62934,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="1094" spans="1:26">
+    <row r="1094" spans="1:27">
       <c r="A1094">
         <v>126</v>
       </c>
@@ -62470,7 +62975,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="1095" spans="1:26">
+    <row r="1095" spans="1:27">
       <c r="A1095">
         <v>58</v>
       </c>
@@ -62511,7 +63016,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="1096" spans="1:26">
+    <row r="1096" spans="1:27">
       <c r="A1096">
         <v>995</v>
       </c>
@@ -62549,7 +63054,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="1097" spans="1:26">
+    <row r="1097" spans="1:27">
       <c r="A1097">
         <v>646</v>
       </c>
@@ -62595,6 +63100,12 @@
       <c r="Q1097">
         <v>18.469151230000001</v>
       </c>
+      <c r="R1097">
+        <v>0.311</v>
+      </c>
+      <c r="S1097">
+        <v>99.26</v>
+      </c>
       <c r="T1097">
         <v>0.13068574999999999</v>
       </c>
@@ -62603,6 +63114,9 @@
       </c>
       <c r="W1097" t="s">
         <v>1085</v>
+      </c>
+      <c r="X1097" t="s">
+        <v>1193</v>
       </c>
     </row>
   </sheetData>

--- a/Formatted.Data/Revisions/BACI.trait.data.xlsx
+++ b/Formatted.Data/Revisions/BACI.trait.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaworthy/Documents/GitHub/IDE.Traits/Formatted.Data/Revisions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340DA053-9910-2640-8298-C4544307E970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C0D867-0A9F-4246-B6BA-2431929EBC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="500" windowWidth="22860" windowHeight="16480" xr2:uid="{5461C9A6-0362-A04A-A64C-9E75594B3F4F}"/>
+    <workbookView xWindow="15420" yWindow="500" windowWidth="22860" windowHeight="16480" xr2:uid="{5461C9A6-0362-A04A-A64C-9E75594B3F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="BACI.trait.data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="1204">
   <si>
     <t>site_code</t>
   </si>
@@ -3621,6 +3621,30 @@
   </si>
   <si>
     <t>SRL fine, RTD fine from de la Riva 2021</t>
+  </si>
+  <si>
+    <t>rootN from Salpagarova 2014</t>
+  </si>
+  <si>
+    <t>leafN from Davis_2005</t>
+  </si>
+  <si>
+    <t>SLA from Forn 2023</t>
+  </si>
+  <si>
+    <t>SRL from Leva 2009</t>
+  </si>
+  <si>
+    <t>rootN from Reader 1998</t>
+  </si>
+  <si>
+    <t>rootN from Reader 1999</t>
+  </si>
+  <si>
+    <t>rootN from Reader 2000</t>
+  </si>
+  <si>
+    <t>rootN from Reader 2001</t>
   </si>
 </sst>
 </file>
@@ -3921,7 +3945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4099,6 +4123,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -4284,7 +4314,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4312,7 +4342,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="26" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="26" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4727,11 +4758,11 @@
   <dimension ref="A1:AB1097"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C989" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="L1011" sqref="L1011"/>
+      <selection pane="bottomRight" activeCell="B587" sqref="A587:XFD587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5950,68 +5981,68 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="18" customFormat="1">
-      <c r="A20" s="18">
+    <row r="20" spans="1:27" s="19" customFormat="1">
+      <c r="A20" s="19">
         <v>351</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18">
+      <c r="D20" s="19">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19">
         <v>0.25</v>
       </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
         <v>-1</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="19">
         <v>0.25</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="19">
         <v>-1.25</v>
       </c>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:27" s="18" customFormat="1">
-      <c r="A21" s="18">
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:27" s="19" customFormat="1">
+      <c r="A21" s="19">
         <v>993</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="19">
         <v>2.3333333330000001</v>
       </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
         <v>3</v>
       </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19">
         <v>0.66666666699999999</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="19">
         <v>0.33333333300000001</v>
       </c>
     </row>
@@ -7220,13 +7251,13 @@
       <c r="J45">
         <v>2.8</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="21">
         <v>37.437353333333334</v>
       </c>
       <c r="L45">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N45" s="22">
         <v>20.997456046016488</v>
       </c>
       <c r="V45" t="s">
@@ -7376,7 +7407,7 @@
       <c r="O48">
         <v>0.15240000000000001</v>
       </c>
-      <c r="R48" s="24">
+      <c r="R48" s="25">
         <v>1.64</v>
       </c>
       <c r="V48" t="s">
@@ -9328,7 +9359,7 @@
       <c r="O80">
         <v>0.66</v>
       </c>
-      <c r="Q80" s="22">
+      <c r="Q80" s="23">
         <v>193.8</v>
       </c>
       <c r="U80">
@@ -10012,7 +10043,7 @@
       <c r="Q92">
         <v>52.766939180000001</v>
       </c>
-      <c r="S92" s="26">
+      <c r="S92" s="27">
         <v>52.77</v>
       </c>
       <c r="U92">
@@ -10096,411 +10127,411 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="94" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A94" s="18">
+    <row r="94" spans="1:25" s="19" customFormat="1" hidden="1">
+      <c r="A94" s="19">
         <v>112</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="19">
         <v>2.1666666669999999</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="19">
         <v>0.5</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="19">
         <v>32</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G94" s="19">
         <v>6.6666666670000003</v>
       </c>
-      <c r="H94" s="18">
+      <c r="H94" s="19">
         <v>6.1666666670000003</v>
       </c>
-      <c r="I94" s="18">
+      <c r="I94" s="19">
         <v>29.833333332999999</v>
       </c>
-      <c r="J94" s="18">
+      <c r="J94" s="19">
         <v>-23.666666666000001</v>
       </c>
-      <c r="K94" s="18">
+      <c r="K94" s="19">
         <v>27.147870370555601</v>
       </c>
-      <c r="L94" s="18">
+      <c r="L94" s="19">
         <v>0.11</v>
       </c>
-      <c r="M94" s="18">
+      <c r="M94" s="19">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N94" s="23">
+      <c r="N94" s="24">
         <v>39.970685244999999</v>
       </c>
-      <c r="O94" s="18">
+      <c r="O94" s="19">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P94" s="18">
+      <c r="P94" s="19">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q94" s="18">
+      <c r="Q94" s="19">
         <v>28.080583669999999</v>
       </c>
-      <c r="R94" s="18">
+      <c r="R94" s="19">
         <v>0.52165000000000006</v>
       </c>
       <c r="T94">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V94" s="18" t="s">
+      <c r="V94" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="W94" s="18" t="s">
+      <c r="W94" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="X94" s="18" t="s">
+      <c r="X94" s="19" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="95" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A95" s="18">
+    <row r="95" spans="1:25" s="19" customFormat="1" hidden="1">
+      <c r="A95" s="19">
         <v>289</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="19">
         <v>3</v>
       </c>
-      <c r="E95" s="18">
-        <v>1</v>
-      </c>
-      <c r="F95" s="18">
+      <c r="E95" s="19">
+        <v>1</v>
+      </c>
+      <c r="F95" s="19">
         <v>5</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="19">
         <v>2</v>
       </c>
-      <c r="H95" s="18">
-        <v>1</v>
-      </c>
-      <c r="I95" s="18">
+      <c r="H95" s="19">
+        <v>1</v>
+      </c>
+      <c r="I95" s="19">
         <v>2</v>
       </c>
-      <c r="J95" s="18">
+      <c r="J95" s="19">
         <v>-1</v>
       </c>
-      <c r="K95" s="18">
+      <c r="K95" s="19">
         <v>27.147870370555601</v>
       </c>
-      <c r="L95" s="18">
+      <c r="L95" s="19">
         <v>0.11</v>
       </c>
-      <c r="M95" s="18">
+      <c r="M95" s="19">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N95" s="23">
+      <c r="N95" s="24">
         <v>39.970685244999999</v>
       </c>
-      <c r="O95" s="18">
+      <c r="O95" s="19">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P95" s="18">
+      <c r="P95" s="19">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q95" s="18">
+      <c r="Q95" s="19">
         <v>28.080583669999999</v>
       </c>
-      <c r="R95" s="18">
+      <c r="R95" s="19">
         <v>0.52165000000000006</v>
       </c>
       <c r="T95">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V95" s="18" t="s">
+      <c r="V95" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="W95" s="18" t="s">
+      <c r="W95" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="X95" s="18" t="s">
+      <c r="X95" s="19" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="96" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A96" s="18">
+    <row r="96" spans="1:25" s="19" customFormat="1" hidden="1">
+      <c r="A96" s="19">
         <v>489</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="19">
         <v>13.5</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="19">
         <v>2</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="19">
         <v>30</v>
       </c>
-      <c r="G96" s="18">
-        <v>0</v>
-      </c>
-      <c r="H96" s="18">
+      <c r="G96" s="19">
+        <v>0</v>
+      </c>
+      <c r="H96" s="19">
         <v>-2</v>
       </c>
-      <c r="I96" s="18">
+      <c r="I96" s="19">
         <v>16.5</v>
       </c>
-      <c r="J96" s="18">
+      <c r="J96" s="19">
         <v>-18.5</v>
       </c>
-      <c r="K96" s="18">
+      <c r="K96" s="19">
         <v>27.147870370555601</v>
       </c>
-      <c r="L96" s="18">
+      <c r="L96" s="19">
         <v>0.11</v>
       </c>
-      <c r="M96" s="18">
+      <c r="M96" s="19">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N96" s="23">
+      <c r="N96" s="24">
         <v>39.970685244999999</v>
       </c>
-      <c r="O96" s="18">
+      <c r="O96" s="19">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P96" s="18">
+      <c r="P96" s="19">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q96" s="18">
+      <c r="Q96" s="19">
         <v>28.080583669999999</v>
       </c>
-      <c r="R96" s="18">
+      <c r="R96" s="19">
         <v>0.52165000000000006</v>
       </c>
       <c r="T96">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V96" s="18" t="s">
+      <c r="V96" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="W96" s="18" t="s">
+      <c r="W96" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="X96" s="18" t="s">
+      <c r="X96" s="19" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="97" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A97" s="18">
+    <row r="97" spans="1:25" s="19" customFormat="1" hidden="1">
+      <c r="A97" s="19">
         <v>498</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="18">
+      <c r="D97" s="19">
         <v>2.3333333330000001</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="19">
         <v>2.1666666669999999</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="19">
         <v>2</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="19">
         <v>1.3333333329999999</v>
       </c>
-      <c r="H97" s="18">
+      <c r="H97" s="19">
         <v>-0.83333333399999998</v>
       </c>
-      <c r="I97" s="18">
+      <c r="I97" s="19">
         <v>-0.33333333300000001</v>
       </c>
-      <c r="J97" s="18">
+      <c r="J97" s="19">
         <v>-0.50000000099999997</v>
       </c>
-      <c r="K97" s="18">
+      <c r="K97" s="19">
         <v>27.147870370555601</v>
       </c>
-      <c r="L97" s="18">
+      <c r="L97" s="19">
         <v>0.11</v>
       </c>
-      <c r="M97" s="18">
+      <c r="M97" s="19">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N97" s="23">
+      <c r="N97" s="24">
         <v>39.970685244999999</v>
       </c>
-      <c r="O97" s="18">
+      <c r="O97" s="19">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P97" s="18">
+      <c r="P97" s="19">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q97" s="18">
+      <c r="Q97" s="19">
         <v>28.080583669999999</v>
       </c>
-      <c r="R97" s="18">
+      <c r="R97" s="19">
         <v>0.52165000000000006</v>
       </c>
       <c r="T97">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V97" s="18" t="s">
+      <c r="V97" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="W97" s="18" t="s">
+      <c r="W97" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="X97" s="18" t="s">
+      <c r="X97" s="19" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A98" s="18">
+    <row r="98" spans="1:25" s="19" customFormat="1" hidden="1">
+      <c r="A98" s="19">
         <v>800</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="19">
         <v>6.2</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="19">
         <v>12.5</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="19">
         <v>4.6666666670000003</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="19">
         <v>11.5</v>
       </c>
-      <c r="H98" s="18">
+      <c r="H98" s="19">
         <v>-1</v>
       </c>
-      <c r="I98" s="18">
+      <c r="I98" s="19">
         <v>-1.5333333330000001</v>
       </c>
-      <c r="J98" s="18">
+      <c r="J98" s="19">
         <v>0.53333333299999997</v>
       </c>
-      <c r="K98" s="18">
+      <c r="K98" s="19">
         <v>27.147870370555601</v>
       </c>
-      <c r="L98" s="18">
+      <c r="L98" s="19">
         <v>0.11</v>
       </c>
-      <c r="M98" s="18">
+      <c r="M98" s="19">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N98" s="23">
+      <c r="N98" s="24">
         <v>39.970685244999999</v>
       </c>
-      <c r="O98" s="18">
+      <c r="O98" s="19">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P98" s="18">
+      <c r="P98" s="19">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q98" s="18">
+      <c r="Q98" s="19">
         <v>28.080583669999999</v>
       </c>
-      <c r="R98" s="18">
+      <c r="R98" s="19">
         <v>0.52165000000000006</v>
       </c>
       <c r="T98">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V98" s="18" t="s">
+      <c r="V98" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="W98" s="18" t="s">
+      <c r="W98" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="X98" s="18" t="s">
+      <c r="X98" s="19" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A99" s="18">
+    <row r="99" spans="1:25" s="19" customFormat="1" hidden="1">
+      <c r="A99" s="19">
         <v>861</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="19">
         <v>32</v>
       </c>
-      <c r="E99" s="18">
+      <c r="E99" s="19">
         <v>21</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="19">
         <v>15</v>
       </c>
-      <c r="G99" s="18">
+      <c r="G99" s="19">
         <v>17.600000000000001</v>
       </c>
-      <c r="H99" s="18">
+      <c r="H99" s="19">
         <v>-3.4</v>
       </c>
-      <c r="I99" s="18">
+      <c r="I99" s="19">
         <v>-17</v>
       </c>
-      <c r="J99" s="18">
+      <c r="J99" s="19">
         <v>13.6</v>
       </c>
-      <c r="K99" s="18">
+      <c r="K99" s="19">
         <v>27.147870370555601</v>
       </c>
-      <c r="L99" s="18">
+      <c r="L99" s="19">
         <v>0.11</v>
       </c>
-      <c r="M99" s="18">
+      <c r="M99" s="19">
         <v>8.5909090910000003</v>
       </c>
-      <c r="N99" s="23">
+      <c r="N99" s="24">
         <v>39.970685244999999</v>
       </c>
-      <c r="O99" s="18">
+      <c r="O99" s="19">
         <v>0.20319999999999999</v>
       </c>
-      <c r="P99" s="18">
+      <c r="P99" s="19">
         <v>0.43427615899999999</v>
       </c>
-      <c r="Q99" s="18">
+      <c r="Q99" s="19">
         <v>28.080583669999999</v>
       </c>
-      <c r="R99" s="18">
+      <c r="R99" s="19">
         <v>0.52165000000000006</v>
       </c>
       <c r="T99">
         <v>0.36210373899999998</v>
       </c>
-      <c r="V99" s="18" t="s">
+      <c r="V99" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="W99" s="18" t="s">
+      <c r="W99" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="X99" s="18" t="s">
+      <c r="X99" s="19" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -13980,7 +14011,7 @@
       <c r="N159">
         <v>39</v>
       </c>
-      <c r="Q159" s="28">
+      <c r="Q159" s="29">
         <v>238.8</v>
       </c>
       <c r="S159">
@@ -14054,7 +14085,7 @@
       <c r="N160">
         <v>39</v>
       </c>
-      <c r="Q160" s="28">
+      <c r="Q160" s="29">
         <v>238.8</v>
       </c>
       <c r="S160">
@@ -16656,7 +16687,7 @@
       <c r="J207">
         <v>-1.9</v>
       </c>
-      <c r="K207" s="16">
+      <c r="K207" s="17">
         <v>45.32</v>
       </c>
       <c r="L207">
@@ -20742,7 +20773,7 @@
       <c r="R285">
         <v>0.74690000000000012</v>
       </c>
-      <c r="S285" s="26">
+      <c r="S285" s="27">
         <v>99.71</v>
       </c>
       <c r="U285">
@@ -20892,7 +20923,7 @@
       <c r="O288">
         <v>0.15240000000000001</v>
       </c>
-      <c r="R288" s="24">
+      <c r="R288" s="25">
         <v>0.28000000000000003</v>
       </c>
       <c r="U288" t="s">
@@ -20945,7 +20976,7 @@
       <c r="O289">
         <v>0.15240000000000001</v>
       </c>
-      <c r="R289" s="24">
+      <c r="R289" s="25">
         <v>0.28000000000000003</v>
       </c>
       <c r="U289" t="s">
@@ -24539,7 +24570,7 @@
       <c r="R361">
         <v>0.38500000000000001</v>
       </c>
-      <c r="S361" s="26">
+      <c r="S361" s="27">
         <v>28.61</v>
       </c>
       <c r="V361" t="s">
@@ -34913,7 +34944,7 @@
       <c r="R566">
         <v>0.51919999999999999</v>
       </c>
-      <c r="S566" s="32">
+      <c r="S566" s="33">
         <v>8.0335951278089777</v>
       </c>
       <c r="T566">
@@ -36128,71 +36159,71 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="587" spans="1:26">
-      <c r="A587">
+    <row r="587" spans="1:26" s="15" customFormat="1">
+      <c r="A587" s="15">
         <v>638</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="C587" t="s">
+      <c r="C587" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="D587">
+      <c r="D587" s="15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E587">
+      <c r="E587" s="15">
         <v>4.75</v>
       </c>
-      <c r="F587">
+      <c r="F587" s="15">
         <v>5</v>
       </c>
-      <c r="G587">
+      <c r="G587" s="15">
         <v>4.5</v>
       </c>
-      <c r="H587">
+      <c r="H587" s="15">
         <v>-0.25</v>
       </c>
-      <c r="I587">
+      <c r="I587" s="15">
         <v>9.9999999999999603E-2</v>
       </c>
-      <c r="J587">
+      <c r="J587" s="15">
         <v>-0.35</v>
       </c>
-      <c r="K587">
+      <c r="K587" s="15">
         <v>32.92</v>
       </c>
-      <c r="L587">
+      <c r="L587" s="15">
         <v>0.35333333333333333</v>
       </c>
-      <c r="M587">
+      <c r="M587" s="15">
         <v>23.9</v>
       </c>
-      <c r="N587">
+      <c r="N587" s="15">
         <v>15.055718430000001</v>
       </c>
-      <c r="P587">
+      <c r="P587" s="15">
         <v>0.19444444399999999</v>
       </c>
-      <c r="Q587">
+      <c r="Q587" s="15">
         <v>46.829571430000001</v>
       </c>
-      <c r="R587">
+      <c r="R587" s="15">
         <v>0.3725</v>
       </c>
-      <c r="T587">
+      <c r="T587" s="15">
         <v>0.19444444399999999</v>
       </c>
-      <c r="V587" t="s">
+      <c r="V587" s="15" t="s">
         <v>855</v>
       </c>
-      <c r="W587" t="s">
+      <c r="W587" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="X587" t="s">
+      <c r="X587" s="15" t="s">
         <v>1100</v>
       </c>
-      <c r="Y587" t="s">
+      <c r="Y587" s="15" t="s">
         <v>978</v>
       </c>
     </row>
@@ -37327,10 +37358,10 @@
       <c r="R610">
         <v>0.13550000000000001</v>
       </c>
-      <c r="S610" s="26">
+      <c r="S610" s="27">
         <v>120.66</v>
       </c>
-      <c r="T610" s="26">
+      <c r="T610" s="27">
         <v>0.52</v>
       </c>
       <c r="U610">
@@ -39538,7 +39569,7 @@
       <c r="N654">
         <v>23.68</v>
       </c>
-      <c r="O654" s="31">
+      <c r="O654" s="32">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="V654" t="s">
@@ -40538,7 +40569,7 @@
       <c r="L671">
         <v>0.15</v>
       </c>
-      <c r="N671" s="25">
+      <c r="N671" s="26">
         <v>11.193603452380952</v>
       </c>
       <c r="V671" t="s">
@@ -44248,47 +44279,47 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="756" spans="1:25" s="17" customFormat="1">
-      <c r="A756" s="17">
+    <row r="756" spans="1:25" s="18" customFormat="1">
+      <c r="A756" s="18">
         <v>31</v>
       </c>
-      <c r="B756" s="17" t="s">
+      <c r="B756" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C756" s="17" t="s">
+      <c r="C756" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D756" s="17">
+      <c r="D756" s="18">
         <v>0.69929288000000001</v>
       </c>
-      <c r="E756" s="17">
+      <c r="E756" s="18">
         <v>0.41075845</v>
       </c>
-      <c r="F756" s="17">
+      <c r="F756" s="18">
         <v>0.44768225</v>
       </c>
-      <c r="G756" s="17">
+      <c r="G756" s="18">
         <v>6.8728499999999998E-2</v>
       </c>
-      <c r="H756" s="17">
+      <c r="H756" s="18">
         <v>-0.34202995000000003</v>
       </c>
-      <c r="I756" s="17">
+      <c r="I756" s="18">
         <v>-0.25161063</v>
       </c>
-      <c r="J756" s="17">
+      <c r="J756" s="18">
         <v>-9.0419319999999997E-2</v>
       </c>
-      <c r="K756" s="17">
+      <c r="K756" s="18">
         <v>19.190000000000001</v>
       </c>
       <c r="N756">
         <v>20.703933750000001</v>
       </c>
-      <c r="V756" s="17" t="s">
+      <c r="V756" s="18" t="s">
         <v>1033</v>
       </c>
-      <c r="W756" s="17" t="s">
+      <c r="W756" s="18" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -44361,7 +44392,7 @@
       <c r="L758">
         <v>0.1</v>
       </c>
-      <c r="N758" s="15">
+      <c r="N758" s="16">
         <v>21.266666666666666</v>
       </c>
       <c r="V758" t="s">
@@ -46059,7 +46090,7 @@
       <c r="R788">
         <v>0.53159999999999996</v>
       </c>
-      <c r="S788" s="26">
+      <c r="S788" s="27">
         <v>54.79</v>
       </c>
       <c r="U788">
@@ -46315,6 +46346,9 @@
       <c r="O793">
         <v>0.7</v>
       </c>
+      <c r="Q793">
+        <v>38.72</v>
+      </c>
       <c r="V793" t="s">
         <v>925</v>
       </c>
@@ -46323,6 +46357,9 @@
       </c>
       <c r="X793" t="s">
         <v>1038</v>
+      </c>
+      <c r="Y793" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="794" spans="1:26" hidden="1">
@@ -48846,14 +48883,27 @@
       <c r="J839">
         <v>0</v>
       </c>
+      <c r="K839">
+        <v>16.600000000000001</v>
+      </c>
       <c r="L839">
         <v>20.501000000000001</v>
       </c>
+      <c r="N839">
+        <f>1/0.118</f>
+        <v>8.4745762711864412</v>
+      </c>
       <c r="O839">
         <v>1.0668</v>
       </c>
       <c r="V839" t="s">
         <v>929</v>
+      </c>
+      <c r="W839" t="s">
+        <v>1197</v>
+      </c>
+      <c r="X839" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="840" spans="1:26">
@@ -49524,6 +49574,9 @@
       <c r="L851">
         <v>0.39583333333333298</v>
       </c>
+      <c r="M851">
+        <v>11.53</v>
+      </c>
       <c r="N851">
         <v>19.633164583749998</v>
       </c>
@@ -49535,6 +49588,9 @@
       </c>
       <c r="W851" t="s">
         <v>1027</v>
+      </c>
+      <c r="X851" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="852" spans="1:26">
@@ -49574,6 +49630,9 @@
       <c r="L852">
         <v>0.39583333333333298</v>
       </c>
+      <c r="M852">
+        <v>11.53</v>
+      </c>
       <c r="N852">
         <v>19.633164583749998</v>
       </c>
@@ -49585,6 +49644,9 @@
       </c>
       <c r="W852" t="s">
         <v>1027</v>
+      </c>
+      <c r="X852" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="853" spans="1:26">
@@ -50381,80 +50443,80 @@
         <v>994</v>
       </c>
     </row>
-    <row r="869" spans="1:26">
-      <c r="A869">
+    <row r="869" spans="1:26" s="30" customFormat="1">
+      <c r="A869" s="30">
         <v>839</v>
       </c>
-      <c r="B869" t="s">
+      <c r="B869" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C869" t="s">
+      <c r="C869" s="30" t="s">
         <v>681</v>
       </c>
-      <c r="D869">
+      <c r="D869" s="30">
         <v>24.42157667</v>
       </c>
-      <c r="E869">
+      <c r="E869" s="30">
         <v>17.94057222</v>
       </c>
-      <c r="F869">
+      <c r="F869" s="30">
         <v>24.498045179999998</v>
       </c>
-      <c r="G869">
+      <c r="G869" s="30">
         <v>19.757464219999999</v>
       </c>
-      <c r="H869">
+      <c r="H869" s="30">
         <v>1.816892</v>
       </c>
-      <c r="I869">
+      <c r="I869" s="30">
         <v>7.6468509999998005E-2</v>
       </c>
-      <c r="J869">
+      <c r="J869" s="30">
         <v>1.74042349</v>
       </c>
-      <c r="K869">
+      <c r="K869" s="30">
         <v>17.3601762317778</v>
       </c>
-      <c r="L869">
-        <v>1</v>
-      </c>
-      <c r="N869">
+      <c r="L869" s="30">
+        <v>1</v>
+      </c>
+      <c r="N869" s="30">
         <v>11.5382900590237</v>
       </c>
-      <c r="O869">
+      <c r="O869" s="30">
         <v>0.35</v>
       </c>
-      <c r="P869">
+      <c r="P869" s="30">
         <v>0.53458065133333299</v>
       </c>
-      <c r="Q869">
+      <c r="Q869" s="30">
         <v>11.791323484999999</v>
       </c>
-      <c r="R869">
+      <c r="R869" s="30">
         <v>0.42433333333333301</v>
       </c>
-      <c r="S869">
+      <c r="S869" s="30">
         <v>12.781000000000001</v>
       </c>
-      <c r="T869">
+      <c r="T869" s="30">
         <v>0.56299999999999994</v>
       </c>
-      <c r="U869">
+      <c r="U869" s="30">
         <v>0.26890274749999998</v>
       </c>
-      <c r="V869" t="s">
+      <c r="V869" s="30" t="s">
         <v>980</v>
       </c>
-      <c r="W869" t="s">
+      <c r="W869" s="30" t="s">
         <v>1005</v>
       </c>
-      <c r="X869" t="s">
+      <c r="X869" s="30" t="s">
         <v>1027</v>
       </c>
-      <c r="Y869" t="s">
+      <c r="Y869" s="30" t="s">
         <v>1058</v>
       </c>
-      <c r="Z869" t="s">
+      <c r="Z869" s="30" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -53977,7 +54039,7 @@
       <c r="L940">
         <v>0.02</v>
       </c>
-      <c r="N940" s="15">
+      <c r="N940" s="16">
         <v>16.770488417403605</v>
       </c>
       <c r="V940" t="s">
@@ -54024,6 +54086,9 @@
       <c r="L941">
         <v>0.48499999999999999</v>
       </c>
+      <c r="M941">
+        <v>5.2</v>
+      </c>
       <c r="N941">
         <v>14.07665001</v>
       </c>
@@ -54050,6 +54115,9 @@
       </c>
       <c r="X941" t="s">
         <v>963</v>
+      </c>
+      <c r="Y941" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="942" spans="1:25">
@@ -54089,6 +54157,9 @@
       <c r="L942">
         <v>0.48499999999999999</v>
       </c>
+      <c r="M942">
+        <v>5.2</v>
+      </c>
       <c r="N942">
         <v>14.07665001</v>
       </c>
@@ -54115,6 +54186,9 @@
       </c>
       <c r="X942" t="s">
         <v>963</v>
+      </c>
+      <c r="Y942" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="943" spans="1:25">
@@ -54154,6 +54228,9 @@
       <c r="L943">
         <v>0.48499999999999999</v>
       </c>
+      <c r="M943">
+        <v>5.2</v>
+      </c>
       <c r="N943">
         <v>14.07665001</v>
       </c>
@@ -54180,6 +54257,9 @@
       </c>
       <c r="X943" t="s">
         <v>963</v>
+      </c>
+      <c r="Y943" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="944" spans="1:25">
@@ -54219,6 +54299,9 @@
       <c r="L944">
         <v>0.48499999999999999</v>
       </c>
+      <c r="M944">
+        <v>5.2</v>
+      </c>
       <c r="N944">
         <v>14.07665001</v>
       </c>
@@ -54245,6 +54328,9 @@
       </c>
       <c r="X944" t="s">
         <v>963</v>
+      </c>
+      <c r="Y944" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="945" spans="1:27" hidden="1">
@@ -54285,7 +54371,7 @@
         <v>0.57600000000000007</v>
       </c>
       <c r="M945">
-        <v>10.925000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="N945">
         <v>12.52507393</v>
@@ -54356,7 +54442,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M946">
-        <v>23.313173750000001</v>
+        <v>5.2</v>
       </c>
       <c r="N946">
         <v>12.764422772050001</v>
@@ -54427,7 +54513,7 @@
         <v>0.59799999999999998</v>
       </c>
       <c r="M947">
-        <v>8.3867583333333293</v>
+        <v>5.2</v>
       </c>
       <c r="N947">
         <v>10.232148472551627</v>
@@ -54507,7 +54593,7 @@
         <v>0.59799999999999998</v>
       </c>
       <c r="M948">
-        <v>8.3867583333333293</v>
+        <v>5.2</v>
       </c>
       <c r="N948">
         <v>10.232148472551627</v>
@@ -55237,7 +55323,7 @@
       <c r="L958">
         <v>1.1328125</v>
       </c>
-      <c r="M958" s="30">
+      <c r="M958" s="31">
         <v>8.7358894098472</v>
       </c>
       <c r="N958">
@@ -55249,7 +55335,7 @@
       <c r="Q958">
         <v>76.97</v>
       </c>
-      <c r="T958" s="30">
+      <c r="T958" s="31">
         <v>0.21655387034344117</v>
       </c>
       <c r="V958" t="s">
@@ -56554,7 +56640,7 @@
       <c r="R982">
         <v>0.46170939999999999</v>
       </c>
-      <c r="S982" s="27">
+      <c r="S982" s="28">
         <v>18.989999999999998</v>
       </c>
       <c r="T982">
@@ -62697,83 +62783,83 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="1091" spans="1:27" s="29" customFormat="1" hidden="1">
-      <c r="A1091" s="29">
+    <row r="1091" spans="1:27" s="30" customFormat="1" hidden="1">
+      <c r="A1091" s="30">
         <v>933</v>
       </c>
-      <c r="B1091" s="29" t="s">
+      <c r="B1091" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C1091" s="29" t="s">
+      <c r="C1091" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D1091" s="29">
+      <c r="D1091" s="30">
         <v>1.3333333329999999</v>
       </c>
-      <c r="E1091" s="29">
+      <c r="E1091" s="30">
         <v>80</v>
       </c>
-      <c r="F1091" s="29">
+      <c r="F1091" s="30">
         <v>4.3428571429999998</v>
       </c>
-      <c r="G1091" s="29">
+      <c r="G1091" s="30">
         <v>3.5333333329999999</v>
       </c>
-      <c r="H1091" s="29">
+      <c r="H1091" s="30">
         <v>-76.466666666999998</v>
       </c>
-      <c r="I1091" s="29">
+      <c r="I1091" s="30">
         <v>3.0095238100000001</v>
       </c>
-      <c r="J1091" s="29">
+      <c r="J1091" s="30">
         <v>-79.476190477000003</v>
       </c>
-      <c r="K1091" s="29">
+      <c r="K1091" s="30">
         <v>17.150777898000001</v>
       </c>
-      <c r="L1091" s="29">
+      <c r="L1091" s="30">
         <v>0.43573333333333297</v>
       </c>
-      <c r="M1091" s="29">
+      <c r="M1091" s="30">
         <v>7.5</v>
       </c>
-      <c r="N1091" s="29">
+      <c r="N1091" s="30">
         <v>22.383333333333301</v>
       </c>
-      <c r="O1091" s="29">
+      <c r="O1091" s="30">
         <v>0.30480000000000002</v>
       </c>
-      <c r="P1091" s="29">
+      <c r="P1091" s="30">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Q1091" s="29">
+      <c r="Q1091" s="30">
         <v>268.91000000000003</v>
       </c>
       <c r="R1091">
         <v>0.19</v>
       </c>
-      <c r="S1091" s="29">
+      <c r="S1091" s="30">
         <v>137.819902450309</v>
       </c>
-      <c r="T1091" s="29">
+      <c r="T1091" s="30">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="U1091" s="29">
+      <c r="U1091" s="30">
         <v>0.52527617900000001</v>
       </c>
-      <c r="V1091" s="29" t="s">
+      <c r="V1091" s="30" t="s">
         <v>1098</v>
       </c>
-      <c r="W1091" s="29" t="s">
+      <c r="W1091" s="30" t="s">
         <v>981</v>
       </c>
-      <c r="X1091" s="29" t="s">
+      <c r="X1091" s="30" t="s">
         <v>1002</v>
       </c>
-      <c r="Y1091" s="29" t="s">
+      <c r="Y1091" s="30" t="s">
         <v>1069</v>
       </c>
-      <c r="Z1091" s="29" t="s">
+      <c r="Z1091" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="AA1091" t="s">
